--- a/flights_without_transit.xlsx
+++ b/flights_without_transit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="207">
   <si>
     <t>icao</t>
   </si>
@@ -73,9 +73,6 @@
     <t>ZBAA</t>
   </si>
   <si>
-    <t>DNMM</t>
-  </si>
-  <si>
     <t>WIII</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>CN</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -593,9 +587,6 @@
   </si>
   <si>
     <t>B77L</t>
-  </si>
-  <si>
-    <t>CL60</t>
   </si>
   <si>
     <t>A388</t>
@@ -1001,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,13 +1056,13 @@
         <v>4409</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2">
         <v>115.9503975433683</v>
@@ -1080,7 +1071,7 @@
         <v>0.5298962240333334</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I2">
         <v>466.9798063784019</v>
@@ -1112,25 +1103,25 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3081</v>
+        <v>7598</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3">
-        <v>923.8271349835122</v>
+        <v>12218.28009329243</v>
       </c>
       <c r="G3">
         <v>0.7873938323333334</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I3">
         <v>117028.0017049689</v>
@@ -1162,16 +1153,16 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1411</v>
+        <v>3480</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4">
         <v>5856.254969396917</v>
@@ -1180,7 +1171,7 @@
         <v>0.6413424596666667</v>
       </c>
       <c r="H4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I4">
         <v>52082.2739568423</v>
@@ -1212,49 +1203,49 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1411</v>
+        <v>1229</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5">
+        <v>6543.695620028412</v>
+      </c>
+      <c r="G5">
+        <v>0.6376565835333333</v>
+      </c>
+      <c r="H5" t="s">
         <v>189</v>
       </c>
-      <c r="F5">
-        <v>5899.623220258864</v>
-      </c>
-      <c r="G5">
-        <v>0.6185388307096774</v>
-      </c>
-      <c r="H5" t="s">
-        <v>193</v>
-      </c>
       <c r="I5">
-        <v>6857.062680094753</v>
+        <v>52290.48021665723</v>
       </c>
       <c r="J5">
-        <v>21661.46100641932</v>
+        <v>165185.6270044202</v>
       </c>
       <c r="K5">
-        <v>45.26128440309499</v>
+        <v>1076.737712737099</v>
       </c>
       <c r="L5">
-        <v>0.960426254765357</v>
+        <v>7.27245990974871</v>
       </c>
       <c r="M5">
-        <v>0.137141253601895</v>
+        <v>1.045809604333145</v>
       </c>
       <c r="N5">
-        <v>8434.187096516544</v>
+        <v>64317.29066648838</v>
       </c>
       <c r="O5">
-        <v>8.228475216113704</v>
+        <v>62.74857625998867</v>
       </c>
       <c r="P5">
-        <v>0.1679280656349735</v>
+        <v>1.280583188979361</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1262,49 +1253,49 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1229</v>
+        <v>2631</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6">
-        <v>6543.695620028412</v>
+        <v>7949.365153523985</v>
       </c>
       <c r="G6">
-        <v>0.6376565835333333</v>
+        <v>0.6450283358000001</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I6">
-        <v>52290.48021665723</v>
+        <v>72779.49778602773</v>
       </c>
       <c r="J6">
-        <v>165185.6270044202</v>
+        <v>229910.4335060616</v>
       </c>
       <c r="K6">
-        <v>1076.737712737099</v>
+        <v>1418.160958685327</v>
       </c>
       <c r="L6">
-        <v>7.27245990974871</v>
+        <v>7.370944783644945</v>
       </c>
       <c r="M6">
-        <v>1.045809604333145</v>
+        <v>1.455589955720555</v>
       </c>
       <c r="N6">
-        <v>64317.29066648838</v>
+        <v>89518.7822768141</v>
       </c>
       <c r="O6">
-        <v>62.74857625998867</v>
+        <v>87.33539734323328</v>
       </c>
       <c r="P6">
-        <v>1.280583188979361</v>
+        <v>1.782355047821087</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1312,49 +1303,49 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1067</v>
+        <v>2577</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7">
-        <v>7949.365153523985</v>
+        <v>3029.889751675834</v>
       </c>
       <c r="G7">
-        <v>0.6450283358000001</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I7">
-        <v>72779.49778602773</v>
+        <v>43186.28977364769</v>
       </c>
       <c r="J7">
-        <v>229910.4335060616</v>
+        <v>136425.489394953</v>
       </c>
       <c r="K7">
-        <v>1418.160958685327</v>
+        <v>874.9737173472902</v>
       </c>
       <c r="L7">
-        <v>7.370944783644945</v>
+        <v>6.344680897523818</v>
       </c>
       <c r="M7">
-        <v>1.455589955720555</v>
+        <v>0.8637257954729537</v>
       </c>
       <c r="N7">
-        <v>89518.7822768141</v>
+        <v>53119.13642158665</v>
       </c>
       <c r="O7">
-        <v>87.33539734323328</v>
+        <v>51.82354772837722</v>
       </c>
       <c r="P7">
-        <v>1.782355047821087</v>
+        <v>1.057623423028106</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1362,49 +1353,49 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>1045</v>
+        <v>2338</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F8">
-        <v>3029.889751675834</v>
+        <v>2187.213855509325</v>
       </c>
       <c r="G8">
-        <v>0.6987738282666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I8">
-        <v>43186.28977364769</v>
+        <v>7055.490811193191</v>
       </c>
       <c r="J8">
-        <v>136425.489394953</v>
+        <v>22288.29547255929</v>
       </c>
       <c r="K8">
-        <v>874.9737173472902</v>
+        <v>84.57096312803414</v>
       </c>
       <c r="L8">
-        <v>6.344680897523818</v>
+        <v>0.7183548769343161</v>
       </c>
       <c r="M8">
-        <v>0.8637257954729537</v>
+        <v>0.1411098162238638</v>
       </c>
       <c r="N8">
-        <v>53119.13642158665</v>
+        <v>8678.253697767625</v>
       </c>
       <c r="O8">
-        <v>51.82354772837722</v>
+        <v>8.466588973431829</v>
       </c>
       <c r="P8">
-        <v>1.057623423028106</v>
+        <v>0.1727875300700373</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1412,49 +1403,49 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>948</v>
+        <v>1973</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9">
-        <v>2187.213855509325</v>
+        <v>5245.251801383757</v>
       </c>
       <c r="G9">
-        <v>0.6376565835333333</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I9">
-        <v>7055.490811193191</v>
+        <v>40548.76393594968</v>
       </c>
       <c r="J9">
-        <v>22288.29547255929</v>
+        <v>128093.545273665</v>
       </c>
       <c r="K9">
-        <v>84.57096312803414</v>
+        <v>759.7888653077976</v>
       </c>
       <c r="L9">
-        <v>0.7183548769343161</v>
+        <v>5.792993643409462</v>
       </c>
       <c r="M9">
-        <v>0.1411098162238638</v>
+        <v>0.8109752787189934</v>
       </c>
       <c r="N9">
-        <v>8678.253697767625</v>
+        <v>49874.9796412181</v>
       </c>
       <c r="O9">
-        <v>8.466588973431829</v>
+        <v>48.65851672313962</v>
       </c>
       <c r="P9">
-        <v>0.1727875300700373</v>
+        <v>0.9930309535334616</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1462,49 +1453,49 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>800</v>
+        <v>1899</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10">
-        <v>5245.251801383757</v>
+        <v>11021.83931136303</v>
       </c>
       <c r="G10">
-        <v>0.6987738282666667</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I10">
-        <v>40548.76393594968</v>
+        <v>145152.1821008488</v>
       </c>
       <c r="J10">
-        <v>128093.545273665</v>
+        <v>458535.7432565812</v>
       </c>
       <c r="K10">
-        <v>759.7888653077976</v>
+        <v>2871.452189972635</v>
       </c>
       <c r="L10">
-        <v>5.792993643409462</v>
+        <v>18.03767642532059</v>
       </c>
       <c r="M10">
-        <v>0.8109752787189934</v>
+        <v>2.903043642016975</v>
       </c>
       <c r="N10">
-        <v>49874.9796412181</v>
+        <v>178537.183984044</v>
       </c>
       <c r="O10">
-        <v>48.65851672313962</v>
+        <v>174.1826185210185</v>
       </c>
       <c r="P10">
-        <v>0.9930309535334616</v>
+        <v>3.554747316755479</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1512,49 +1503,49 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11">
-        <v>11021.83931136303</v>
+        <v>3548.47580472309</v>
       </c>
       <c r="G11">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11">
-        <v>145152.1821008488</v>
+        <v>20466.33671418775</v>
       </c>
       <c r="J11">
-        <v>458535.7432565812</v>
+        <v>64653.15768011908</v>
       </c>
       <c r="K11">
-        <v>2871.452189972635</v>
+        <v>292.753316034753</v>
       </c>
       <c r="L11">
-        <v>18.03767642532059</v>
+        <v>1.094093164581334</v>
       </c>
       <c r="M11">
-        <v>2.903043642016975</v>
+        <v>0.4093267342837549</v>
       </c>
       <c r="N11">
-        <v>178537.183984044</v>
+        <v>25173.59415845093</v>
       </c>
       <c r="O11">
-        <v>174.1826185210185</v>
+        <v>24.55960405702529</v>
       </c>
       <c r="P11">
-        <v>3.554747316755479</v>
+        <v>0.5012164093270468</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1562,49 +1553,49 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12">
+        <v>3962.363941158238</v>
+      </c>
+      <c r="G12">
+        <v>0.6069551773999999</v>
+      </c>
+      <c r="H12" t="s">
         <v>189</v>
       </c>
-      <c r="F12">
-        <v>3548.47580472309</v>
-      </c>
-      <c r="G12">
-        <v>0.6060793402</v>
-      </c>
-      <c r="H12" t="s">
-        <v>196</v>
-      </c>
       <c r="I12">
-        <v>20466.33671418775</v>
+        <v>33170.71379135179</v>
       </c>
       <c r="J12">
-        <v>64653.15768011908</v>
+        <v>104786.2848668803</v>
       </c>
       <c r="K12">
-        <v>292.753316034753</v>
+        <v>703.4243173737179</v>
       </c>
       <c r="L12">
-        <v>1.094093164581334</v>
+        <v>6.52926874083111</v>
       </c>
       <c r="M12">
-        <v>0.4093267342837549</v>
+        <v>0.6634142758270356</v>
       </c>
       <c r="N12">
-        <v>25173.59415845093</v>
+        <v>40799.9779633627</v>
       </c>
       <c r="O12">
-        <v>24.55960405702529</v>
+        <v>39.80485654962214</v>
       </c>
       <c r="P12">
-        <v>0.5012164093270468</v>
+        <v>0.8123440112167786</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1612,49 +1603,49 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>763</v>
+        <v>1771</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13">
-        <v>3962.363941158238</v>
+        <v>2133.488294911567</v>
       </c>
       <c r="G13">
-        <v>0.6069551773999999</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I13">
-        <v>33170.71379135179</v>
+        <v>4872.030601899196</v>
       </c>
       <c r="J13">
-        <v>104786.2848668803</v>
+        <v>15390.74467139956</v>
       </c>
       <c r="K13">
-        <v>703.4243173737179</v>
+        <v>76.70561135075607</v>
       </c>
       <c r="L13">
-        <v>6.52926874083111</v>
+        <v>0.6007734356328198</v>
       </c>
       <c r="M13">
-        <v>0.6634142758270356</v>
+        <v>0.09744061203798392</v>
       </c>
       <c r="N13">
-        <v>40799.9779633627</v>
+        <v>5992.597640336011</v>
       </c>
       <c r="O13">
-        <v>39.80485654962214</v>
+        <v>5.846436722279035</v>
       </c>
       <c r="P13">
-        <v>0.8123440112167786</v>
+        <v>0.1193150351485517</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1662,49 +1653,49 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14">
+        <v>5549.655176427877</v>
+      </c>
+      <c r="G14">
+        <v>0.6376565835333333</v>
+      </c>
+      <c r="H14" t="s">
         <v>189</v>
       </c>
-      <c r="F14">
-        <v>2133.488294911567</v>
-      </c>
-      <c r="G14">
-        <v>0.6987738282666667</v>
-      </c>
-      <c r="H14" t="s">
-        <v>197</v>
-      </c>
       <c r="I14">
-        <v>4872.030601899196</v>
+        <v>46070.27327220616</v>
       </c>
       <c r="J14">
-        <v>15390.74467139956</v>
+        <v>145535.9932668993</v>
       </c>
       <c r="K14">
-        <v>76.70561135075607</v>
+        <v>963.8136774195646</v>
       </c>
       <c r="L14">
-        <v>0.6007734356328198</v>
+        <v>6.199341890443819</v>
       </c>
       <c r="M14">
-        <v>0.09744061203798392</v>
+        <v>0.9214054654441232</v>
       </c>
       <c r="N14">
-        <v>5992.597640336011</v>
+        <v>56666.43612481358</v>
       </c>
       <c r="O14">
-        <v>5.846436722279035</v>
+        <v>55.28432792664739</v>
       </c>
       <c r="P14">
-        <v>0.1193150351485517</v>
+        <v>1.128251590339743</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1712,49 +1703,49 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>700</v>
+        <v>1719</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F15">
-        <v>5549.655176427877</v>
+        <v>5504.809848245329</v>
       </c>
       <c r="G15">
-        <v>0.6376565835333333</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H15" t="s">
         <v>191</v>
       </c>
       <c r="I15">
-        <v>46070.27327220616</v>
+        <v>75411.37149037281</v>
       </c>
       <c r="J15">
-        <v>145535.9932668993</v>
+        <v>238224.5225380877</v>
       </c>
       <c r="K15">
-        <v>963.8136774195646</v>
+        <v>1413.590979105284</v>
       </c>
       <c r="L15">
-        <v>6.199341890443819</v>
+        <v>8.959262462836824</v>
       </c>
       <c r="M15">
-        <v>0.9214054654441232</v>
+        <v>1.508227429807456</v>
       </c>
       <c r="N15">
-        <v>56666.43612481358</v>
+        <v>92755.98693315854</v>
       </c>
       <c r="O15">
-        <v>55.28432792664739</v>
+        <v>90.49364578844737</v>
       </c>
       <c r="P15">
-        <v>1.128251590339743</v>
+        <v>1.846809097723416</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1762,49 +1753,49 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>697</v>
+        <v>1699</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16">
+        <v>6740.321375341186</v>
+      </c>
+      <c r="G16">
+        <v>0.6376565835333333</v>
+      </c>
+      <c r="H16" t="s">
         <v>189</v>
       </c>
-      <c r="F16">
-        <v>5504.809848245329</v>
-      </c>
-      <c r="G16">
-        <v>0.6987738282666667</v>
-      </c>
-      <c r="H16" t="s">
-        <v>194</v>
-      </c>
       <c r="I16">
-        <v>75411.37149037281</v>
+        <v>72795.95575479206</v>
       </c>
       <c r="J16">
-        <v>238224.5225380877</v>
+        <v>229962.4242293881</v>
       </c>
       <c r="K16">
-        <v>1413.590979105284</v>
+        <v>1581.179031828192</v>
       </c>
       <c r="L16">
-        <v>8.959262462836824</v>
+        <v>7.253965357343517</v>
       </c>
       <c r="M16">
-        <v>1.508227429807456</v>
+        <v>1.455919115095841</v>
       </c>
       <c r="N16">
-        <v>92755.98693315854</v>
+        <v>89539.02557839423</v>
       </c>
       <c r="O16">
-        <v>90.49364578844737</v>
+        <v>87.35514690575047</v>
       </c>
       <c r="P16">
-        <v>1.846809097723416</v>
+        <v>1.782758100117356</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1812,49 +1803,49 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>689</v>
+        <v>618</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17">
+        <v>6292.961751932336</v>
+      </c>
+      <c r="G17">
+        <v>0.6060793402</v>
+      </c>
+      <c r="H17" t="s">
         <v>189</v>
       </c>
-      <c r="F17">
-        <v>6740.321375341186</v>
-      </c>
-      <c r="G17">
-        <v>0.6376565835333333</v>
-      </c>
-      <c r="H17" t="s">
-        <v>191</v>
-      </c>
       <c r="I17">
-        <v>72795.95575479206</v>
+        <v>54031.75456968702</v>
       </c>
       <c r="J17">
-        <v>229962.4242293881</v>
+        <v>170686.3126856413</v>
       </c>
       <c r="K17">
-        <v>1581.179031828192</v>
+        <v>1138.533461392735</v>
       </c>
       <c r="L17">
-        <v>7.253965357343517</v>
+        <v>6.05562173564987</v>
       </c>
       <c r="M17">
-        <v>1.455919115095841</v>
+        <v>1.08063509139374</v>
       </c>
       <c r="N17">
-        <v>89539.02557839423</v>
+        <v>66459.05812071504</v>
       </c>
       <c r="O17">
-        <v>87.35514690575047</v>
+        <v>64.83810548362442</v>
       </c>
       <c r="P17">
-        <v>1.782758100117356</v>
+        <v>1.323226642522947</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1862,49 +1853,49 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F18">
-        <v>6292.961751932336</v>
+        <v>3723.069355778457</v>
       </c>
       <c r="G18">
         <v>0.6060793402</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I18">
-        <v>54031.75456968702</v>
+        <v>33978.02077865332</v>
       </c>
       <c r="J18">
-        <v>170686.3126856413</v>
+        <v>107336.5676397658</v>
       </c>
       <c r="K18">
-        <v>1138.533461392735</v>
+        <v>725.6465659640035</v>
       </c>
       <c r="L18">
-        <v>6.05562173564987</v>
+        <v>4.810144509008694</v>
       </c>
       <c r="M18">
-        <v>1.08063509139374</v>
+        <v>0.6795604155730665</v>
       </c>
       <c r="N18">
-        <v>66459.05812071504</v>
+        <v>41792.96555774358</v>
       </c>
       <c r="O18">
-        <v>64.83810548362442</v>
+        <v>40.77362493438398</v>
       </c>
       <c r="P18">
-        <v>1.323226642522947</v>
+        <v>0.8321147945792651</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1912,49 +1903,49 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>606</v>
+        <v>1455</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F19">
-        <v>3723.069355778457</v>
+        <v>3709.018587953252</v>
       </c>
       <c r="G19">
-        <v>0.6060793402</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I19">
-        <v>33978.02077865332</v>
+        <v>25626.87831084457</v>
       </c>
       <c r="J19">
-        <v>107336.5676397658</v>
+        <v>80955.30858395799</v>
       </c>
       <c r="K19">
-        <v>725.6465659640035</v>
+        <v>501.0701480426959</v>
       </c>
       <c r="L19">
-        <v>4.810144509008694</v>
+        <v>0.7786753982144718</v>
       </c>
       <c r="M19">
-        <v>0.6795604155730665</v>
+        <v>0.5125375662168913</v>
       </c>
       <c r="N19">
-        <v>41792.96555774358</v>
+        <v>31521.06032233882</v>
       </c>
       <c r="O19">
-        <v>40.77362493438398</v>
+        <v>30.75225397301348</v>
       </c>
       <c r="P19">
-        <v>0.8321147945792651</v>
+        <v>0.6275970198574179</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1962,49 +1953,49 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F20">
-        <v>3709.018587953252</v>
+        <v>2419.263662672012</v>
       </c>
       <c r="G20">
-        <v>0.6376565835333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I20">
-        <v>25626.87831084457</v>
+        <v>5733.192367720293</v>
       </c>
       <c r="J20">
-        <v>80955.30858395799</v>
+        <v>18111.15468962841</v>
       </c>
       <c r="K20">
-        <v>501.0701480426959</v>
+        <v>74.92850532697469</v>
       </c>
       <c r="L20">
-        <v>0.7786753982144718</v>
+        <v>0.2973420105829074</v>
       </c>
       <c r="M20">
-        <v>0.5125375662168913</v>
+        <v>0.1146638473544059</v>
       </c>
       <c r="N20">
-        <v>31521.06032233882</v>
+        <v>7051.82661229596</v>
       </c>
       <c r="O20">
-        <v>30.75225397301348</v>
+        <v>6.879830841264353</v>
       </c>
       <c r="P20">
-        <v>0.6275970198574179</v>
+        <v>0.1404047110462113</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2012,49 +2003,49 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>565</v>
+        <v>1314</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21">
+        <v>4349.357994219783</v>
+      </c>
+      <c r="G21">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H21" t="s">
         <v>189</v>
       </c>
-      <c r="F21">
-        <v>2419.263662672012</v>
-      </c>
-      <c r="G21">
-        <v>0.6060793402</v>
-      </c>
-      <c r="H21" t="s">
-        <v>199</v>
-      </c>
       <c r="I21">
-        <v>5733.192367720293</v>
+        <v>35374.00815159539</v>
       </c>
       <c r="J21">
-        <v>18111.15468962841</v>
+        <v>111746.4917508898</v>
       </c>
       <c r="K21">
-        <v>74.92850532697469</v>
+        <v>735.0127434412911</v>
       </c>
       <c r="L21">
-        <v>0.2973420105829074</v>
+        <v>5.716251814829103</v>
       </c>
       <c r="M21">
-        <v>0.1146638473544059</v>
+        <v>0.7074801630319076</v>
       </c>
       <c r="N21">
-        <v>7051.82661229596</v>
+        <v>43510.03002646234</v>
       </c>
       <c r="O21">
-        <v>6.879830841264353</v>
+        <v>42.44880978191447</v>
       </c>
       <c r="P21">
-        <v>0.1404047110462113</v>
+        <v>0.8663022404472343</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2062,49 +2053,49 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>533</v>
+        <v>1154</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F22">
-        <v>4349.357994219783</v>
+        <v>4615.811779554313</v>
       </c>
       <c r="G22">
-        <v>0.6987738282666667</v>
+        <v>0.7048325608666667</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I22">
-        <v>35374.00815159539</v>
+        <v>14928.52961288913</v>
       </c>
       <c r="J22">
-        <v>111746.4917508898</v>
+        <v>47159.22504711676</v>
       </c>
       <c r="K22">
-        <v>735.0127434412911</v>
+        <v>214.8998139281161</v>
       </c>
       <c r="L22">
-        <v>5.716251814829103</v>
+        <v>0.4663750230951755</v>
       </c>
       <c r="M22">
-        <v>0.7074801630319076</v>
+        <v>0.2985705922577826</v>
       </c>
       <c r="N22">
-        <v>43510.03002646234</v>
+        <v>18362.09142385363</v>
       </c>
       <c r="O22">
-        <v>42.44880978191447</v>
+        <v>17.91423553546696</v>
       </c>
       <c r="P22">
-        <v>0.8663022404472343</v>
+        <v>0.3655966435809583</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2112,49 +2103,49 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>37</v>
       </c>
       <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23">
+        <v>5355.398446407949</v>
+      </c>
+      <c r="G23">
+        <v>0.6060793402</v>
+      </c>
+      <c r="H23" t="s">
         <v>189</v>
       </c>
-      <c r="F23">
-        <v>4615.811779554313</v>
-      </c>
-      <c r="G23">
-        <v>0.7048325608666667</v>
-      </c>
-      <c r="H23" t="s">
-        <v>200</v>
-      </c>
       <c r="I23">
-        <v>14928.52961288913</v>
+        <v>38891.53097882292</v>
       </c>
       <c r="J23">
-        <v>47159.22504711676</v>
+        <v>122858.3463621016</v>
       </c>
       <c r="K23">
-        <v>214.8998139281161</v>
+        <v>746.6657672723799</v>
       </c>
       <c r="L23">
-        <v>0.4663750230951755</v>
+        <v>5.989608118830891</v>
       </c>
       <c r="M23">
-        <v>0.2985705922577826</v>
+        <v>0.7778306195764582</v>
       </c>
       <c r="N23">
-        <v>18362.09142385363</v>
+        <v>47836.58310395218</v>
       </c>
       <c r="O23">
-        <v>17.91423553546696</v>
+        <v>46.66983717458749</v>
       </c>
       <c r="P23">
-        <v>0.3655966435809583</v>
+        <v>0.9524456566242346</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2162,49 +2153,49 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F24">
-        <v>5355.398446407949</v>
+        <v>2024.027070811464</v>
       </c>
       <c r="G24">
-        <v>0.6060793402</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I24">
-        <v>38891.53097882292</v>
+        <v>5543.349293667503</v>
       </c>
       <c r="J24">
-        <v>122858.3463621016</v>
+        <v>17511.44041869564</v>
       </c>
       <c r="K24">
-        <v>746.6657672723799</v>
+        <v>63.84679796003964</v>
       </c>
       <c r="L24">
-        <v>5.989608118830891</v>
+        <v>0.7192283421315753</v>
       </c>
       <c r="M24">
-        <v>0.7778306195764582</v>
+        <v>0.11086698587335</v>
       </c>
       <c r="N24">
-        <v>47836.58310395218</v>
+        <v>6818.319631211028</v>
       </c>
       <c r="O24">
-        <v>46.66983717458749</v>
+        <v>6.652019152401003</v>
       </c>
       <c r="P24">
-        <v>0.9524456566242346</v>
+        <v>0.1357554929061429</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2212,49 +2203,49 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F25">
-        <v>2024.027070811464</v>
+        <v>1397.800079438805</v>
       </c>
       <c r="G25">
         <v>0.5245896810666667</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I25">
-        <v>5543.349293667503</v>
+        <v>4554.152639552325</v>
       </c>
       <c r="J25">
-        <v>17511.44041869564</v>
+        <v>14386.56818834579</v>
       </c>
       <c r="K25">
-        <v>63.84679796003964</v>
+        <v>57.64633569083733</v>
       </c>
       <c r="L25">
-        <v>0.7192283421315753</v>
+        <v>0.5452762810473737</v>
       </c>
       <c r="M25">
-        <v>0.11086698587335</v>
+        <v>0.09108305279104649</v>
       </c>
       <c r="N25">
-        <v>6818.319631211028</v>
+        <v>5601.607746649361</v>
       </c>
       <c r="O25">
-        <v>6.652019152401003</v>
+        <v>5.46498316746279</v>
       </c>
       <c r="P25">
-        <v>0.1357554929061429</v>
+        <v>0.1115302687237304</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2262,49 +2253,49 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F26">
-        <v>1397.800079438805</v>
+        <v>874.4948200511059</v>
       </c>
       <c r="G26">
         <v>0.5245896810666667</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I26">
-        <v>4554.152639552325</v>
+        <v>5839.876918140762</v>
       </c>
       <c r="J26">
-        <v>14386.56818834579</v>
+        <v>18448.17118440666</v>
       </c>
       <c r="K26">
-        <v>57.64633569083733</v>
+        <v>93.29423264015443</v>
       </c>
       <c r="L26">
-        <v>0.5452762810473737</v>
+        <v>3.1973497490013</v>
       </c>
       <c r="M26">
-        <v>0.09108305279104649</v>
+        <v>0.1167975383628152</v>
       </c>
       <c r="N26">
-        <v>5601.607746649361</v>
+        <v>7183.048609313137</v>
       </c>
       <c r="O26">
-        <v>5.46498316746279</v>
+        <v>7.007852301768914</v>
       </c>
       <c r="P26">
-        <v>0.1115302687237304</v>
+        <v>0.1430173939136513</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2312,49 +2303,49 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>426</v>
+        <v>1011</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
       <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27">
+        <v>6389.737587068435</v>
+      </c>
+      <c r="G27">
+        <v>0.6060793402</v>
+      </c>
+      <c r="H27" t="s">
         <v>189</v>
       </c>
-      <c r="F27">
-        <v>874.4948200511059</v>
-      </c>
-      <c r="G27">
-        <v>0.5245896810666667</v>
-      </c>
-      <c r="H27" t="s">
-        <v>201</v>
-      </c>
       <c r="I27">
-        <v>5839.876918140762</v>
+        <v>55958.11085639045</v>
       </c>
       <c r="J27">
-        <v>18448.17118440666</v>
+        <v>176771.6721953374</v>
       </c>
       <c r="K27">
-        <v>93.29423264015443</v>
+        <v>1166.411679180642</v>
       </c>
       <c r="L27">
-        <v>3.1973497490013</v>
+        <v>6.291849625474511</v>
       </c>
       <c r="M27">
-        <v>0.1167975383628152</v>
+        <v>1.119162217127809</v>
       </c>
       <c r="N27">
-        <v>7183.048609313137</v>
+        <v>68828.47635336025</v>
       </c>
       <c r="O27">
-        <v>7.007852301768914</v>
+        <v>67.14973302766853</v>
       </c>
       <c r="P27">
-        <v>0.1430173939136513</v>
+        <v>1.370402714850378</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2362,49 +2353,49 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>410</v>
+        <v>996</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28">
+        <v>12038.86144273792</v>
+      </c>
+      <c r="G28">
+        <v>0.6385780525666667</v>
+      </c>
+      <c r="H28" t="s">
         <v>189</v>
       </c>
-      <c r="F28">
-        <v>6389.737587068435</v>
-      </c>
-      <c r="G28">
-        <v>0.6060793402</v>
-      </c>
-      <c r="H28" t="s">
-        <v>191</v>
-      </c>
       <c r="I28">
-        <v>55958.11085639045</v>
+        <v>120788.2398253462</v>
       </c>
       <c r="J28">
-        <v>176771.6721953374</v>
+        <v>381570.0496082685</v>
       </c>
       <c r="K28">
-        <v>1166.411679180642</v>
+        <v>2741.51609845646</v>
       </c>
       <c r="L28">
-        <v>6.291849625474511</v>
+        <v>7.839537146565072</v>
       </c>
       <c r="M28">
-        <v>1.119162217127809</v>
+        <v>2.415764796506924</v>
       </c>
       <c r="N28">
-        <v>68828.47635336025</v>
+        <v>148569.5349851758</v>
       </c>
       <c r="O28">
-        <v>67.14973302766853</v>
+        <v>144.9458877904154</v>
       </c>
       <c r="P28">
-        <v>1.370402714850378</v>
+        <v>2.958079342661539</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2412,49 +2403,49 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29">
-        <v>12038.86144273792</v>
+        <v>3173.831734839541</v>
       </c>
       <c r="G29">
-        <v>0.6385780525666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H29" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I29">
-        <v>120788.2398253462</v>
+        <v>10037.61272331504</v>
       </c>
       <c r="J29">
-        <v>381570.0496082685</v>
+        <v>31708.81859295222</v>
       </c>
       <c r="K29">
-        <v>2741.51609845646</v>
+        <v>138.6818225042965</v>
       </c>
       <c r="L29">
-        <v>7.839537146565072</v>
+        <v>0.6122390846003914</v>
       </c>
       <c r="M29">
-        <v>2.415764796506924</v>
+        <v>0.2007522544663009</v>
       </c>
       <c r="N29">
-        <v>148569.5349851758</v>
+        <v>12346.2636496775</v>
       </c>
       <c r="O29">
-        <v>144.9458877904154</v>
+        <v>12.04513526797805</v>
       </c>
       <c r="P29">
-        <v>2.958079342661539</v>
+        <v>0.2458190871015929</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2462,49 +2453,49 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>403</v>
+        <v>977</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30">
+        <v>5153.319825418274</v>
+      </c>
+      <c r="G30">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H30" t="s">
         <v>189</v>
       </c>
-      <c r="F30">
-        <v>3173.831734839541</v>
-      </c>
-      <c r="G30">
-        <v>0.6376565835333333</v>
-      </c>
-      <c r="H30" t="s">
-        <v>202</v>
-      </c>
       <c r="I30">
-        <v>10037.61272331504</v>
+        <v>39510.12253171321</v>
       </c>
       <c r="J30">
-        <v>31708.81859295222</v>
+        <v>124812.477077682</v>
       </c>
       <c r="K30">
-        <v>138.6818225042965</v>
+        <v>791.6317860143923</v>
       </c>
       <c r="L30">
-        <v>0.6122390846003914</v>
+        <v>6.280813728249025</v>
       </c>
       <c r="M30">
-        <v>0.2007522544663009</v>
+        <v>0.7902024506342642</v>
       </c>
       <c r="N30">
-        <v>12346.2636496775</v>
+        <v>48597.45071400725</v>
       </c>
       <c r="O30">
-        <v>12.04513526797805</v>
+        <v>47.41214703805584</v>
       </c>
       <c r="P30">
-        <v>0.2458190871015929</v>
+        <v>0.9675948375113439</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2512,49 +2503,49 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
       </c>
       <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31">
+        <v>348.5265608189779</v>
+      </c>
+      <c r="G31">
+        <v>0.5245896810666667</v>
+      </c>
+      <c r="H31" t="s">
         <v>189</v>
       </c>
-      <c r="F31">
-        <v>5153.319825418274</v>
-      </c>
-      <c r="G31">
-        <v>0.6987738282666667</v>
-      </c>
-      <c r="H31" t="s">
-        <v>191</v>
-      </c>
       <c r="I31">
-        <v>39510.12253171321</v>
+        <v>4055.943813011612</v>
       </c>
       <c r="J31">
-        <v>124812.477077682</v>
+        <v>12812.72650530368</v>
       </c>
       <c r="K31">
-        <v>791.6317860143923</v>
+        <v>96.33095998898</v>
       </c>
       <c r="L31">
-        <v>6.280813728249025</v>
+        <v>2.0437801617239</v>
       </c>
       <c r="M31">
-        <v>0.7902024506342642</v>
+        <v>0.08111887626023224</v>
       </c>
       <c r="N31">
-        <v>48597.45071400725</v>
+        <v>4988.810890004283</v>
       </c>
       <c r="O31">
-        <v>47.41214703805584</v>
+        <v>4.867132575613935</v>
       </c>
       <c r="P31">
-        <v>0.9675948375113439</v>
+        <v>0.09932923623701906</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2562,49 +2553,49 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32">
+        <v>5152.397818559508</v>
+      </c>
+      <c r="G32">
+        <v>0.6376565835333333</v>
+      </c>
+      <c r="H32" t="s">
         <v>189</v>
       </c>
-      <c r="F32">
-        <v>348.5265608189779</v>
-      </c>
-      <c r="G32">
-        <v>0.5245896810666667</v>
-      </c>
-      <c r="H32" t="s">
-        <v>191</v>
-      </c>
       <c r="I32">
-        <v>4055.943813011612</v>
+        <v>48471.15578535611</v>
       </c>
       <c r="J32">
-        <v>12812.72650530368</v>
+        <v>153120.38112594</v>
       </c>
       <c r="K32">
-        <v>96.33095998898</v>
+        <v>1094.21694064091</v>
       </c>
       <c r="L32">
-        <v>2.0437801617239</v>
+        <v>6.44147595986052</v>
       </c>
       <c r="M32">
-        <v>0.08111887626023224</v>
+        <v>0.9694231157071221</v>
       </c>
       <c r="N32">
-        <v>4988.810890004283</v>
+        <v>59619.52161598802</v>
       </c>
       <c r="O32">
-        <v>4.867132575613935</v>
+        <v>58.16538694242733</v>
       </c>
       <c r="P32">
-        <v>0.09932923623701906</v>
+        <v>1.187048713110762</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2612,49 +2603,49 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F33">
-        <v>5152.397818559508</v>
+        <v>2788.756114086932</v>
       </c>
       <c r="G33">
-        <v>0.6376565835333333</v>
+        <v>0.6122102006</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="I33">
-        <v>48471.15578535611</v>
+        <v>14440.20797158322</v>
       </c>
       <c r="J33">
-        <v>153120.38112594</v>
+        <v>45616.61698223137</v>
       </c>
       <c r="K33">
-        <v>1094.21694064091</v>
+        <v>171.9944625778073</v>
       </c>
       <c r="L33">
-        <v>6.44147595986052</v>
+        <v>1.413582060846369</v>
       </c>
       <c r="M33">
-        <v>0.9694231157071221</v>
+        <v>0.2888041594316643</v>
       </c>
       <c r="N33">
-        <v>59619.52161598802</v>
+        <v>17761.45580504736</v>
       </c>
       <c r="O33">
-        <v>58.16538694242733</v>
+        <v>17.32824956589985</v>
       </c>
       <c r="P33">
-        <v>1.187048713110762</v>
+        <v>0.3536377462428541</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2662,49 +2653,49 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34">
+        <v>5846.919986864199</v>
+      </c>
+      <c r="G34">
+        <v>0.6376565835333333</v>
+      </c>
+      <c r="H34" t="s">
         <v>189</v>
       </c>
-      <c r="F34">
-        <v>2788.756114086932</v>
-      </c>
-      <c r="G34">
-        <v>0.6122102006</v>
-      </c>
-      <c r="H34" t="s">
-        <v>203</v>
-      </c>
       <c r="I34">
-        <v>14440.20797158322</v>
+        <v>44007.99498257568</v>
       </c>
       <c r="J34">
-        <v>45616.61698223137</v>
+        <v>139021.2561499566</v>
       </c>
       <c r="K34">
-        <v>171.9944625778073</v>
+        <v>888.0180975200055</v>
       </c>
       <c r="L34">
-        <v>1.413582060846369</v>
+        <v>6.032924372280479</v>
       </c>
       <c r="M34">
-        <v>0.2888041594316643</v>
+        <v>0.8801598996515135</v>
       </c>
       <c r="N34">
-        <v>17761.45580504736</v>
+        <v>54129.83382856808</v>
       </c>
       <c r="O34">
-        <v>17.32824956589985</v>
+        <v>52.80959397909081</v>
       </c>
       <c r="P34">
-        <v>0.3536377462428541</v>
+        <v>1.077746815899812</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2712,49 +2703,49 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F35">
-        <v>5846.919986864199</v>
+        <v>6915.22964462913</v>
       </c>
       <c r="G35">
         <v>0.6376565835333333</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I35">
-        <v>44007.99498257568</v>
+        <v>59954.74120228724</v>
       </c>
       <c r="J35">
-        <v>139021.2561499566</v>
+        <v>189397.0274580254</v>
       </c>
       <c r="K35">
-        <v>888.0180975200055</v>
+        <v>1256.633190147787</v>
       </c>
       <c r="L35">
-        <v>6.032924372280479</v>
+        <v>6.853052656352796</v>
       </c>
       <c r="M35">
-        <v>0.8801598996515135</v>
+        <v>1.199094824045745</v>
       </c>
       <c r="N35">
-        <v>54129.83382856808</v>
+        <v>73744.33167881331</v>
       </c>
       <c r="O35">
-        <v>52.80959397909081</v>
+        <v>71.94568944274468</v>
       </c>
       <c r="P35">
-        <v>1.077746815899812</v>
+        <v>1.468279376382545</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2762,49 +2753,49 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F36">
-        <v>6915.22964462913</v>
+        <v>1758.310554468182</v>
       </c>
       <c r="G36">
         <v>0.6376565835333333</v>
       </c>
       <c r="H36" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="I36">
-        <v>59954.74120228724</v>
+        <v>6074.689123925982</v>
       </c>
       <c r="J36">
-        <v>189397.0274580254</v>
+        <v>19189.94294248218</v>
       </c>
       <c r="K36">
-        <v>1256.633190147787</v>
+        <v>69.08145577059965</v>
       </c>
       <c r="L36">
-        <v>6.853052656352796</v>
+        <v>0.5871803577384578</v>
       </c>
       <c r="M36">
-        <v>1.199094824045745</v>
+        <v>0.1214937824785196</v>
       </c>
       <c r="N36">
-        <v>73744.33167881331</v>
+        <v>7471.867622428957</v>
       </c>
       <c r="O36">
-        <v>71.94568944274468</v>
+        <v>7.289626948711177</v>
       </c>
       <c r="P36">
-        <v>1.468279376382545</v>
+        <v>0.148767896912473</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2812,49 +2803,49 @@
         <v>51</v>
       </c>
       <c r="B37">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F37">
-        <v>1758.310554468182</v>
+        <v>2192.081291234527</v>
       </c>
       <c r="G37">
         <v>0.6376565835333333</v>
       </c>
       <c r="H37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I37">
-        <v>6074.689123925982</v>
+        <v>13891.40789117897</v>
       </c>
       <c r="J37">
-        <v>19189.94294248218</v>
+        <v>43882.95752823437</v>
       </c>
       <c r="K37">
-        <v>69.08145577059965</v>
+        <v>194.1128291484031</v>
       </c>
       <c r="L37">
-        <v>0.5871803577384578</v>
+        <v>2.007597231015006</v>
       </c>
       <c r="M37">
-        <v>0.1214937824785196</v>
+        <v>0.2778281578235794</v>
       </c>
       <c r="N37">
-        <v>7471.867622428957</v>
+        <v>17086.43170615014</v>
       </c>
       <c r="O37">
-        <v>7.289626948711177</v>
+        <v>16.66968946941476</v>
       </c>
       <c r="P37">
-        <v>0.148767896912473</v>
+        <v>0.3401977442737707</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2862,49 +2853,49 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38">
-        <v>2192.081291234527</v>
+        <v>4909.055102355495</v>
       </c>
       <c r="G38">
         <v>0.6376565835333333</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I38">
-        <v>13891.40789117897</v>
+        <v>38861.08175405536</v>
       </c>
       <c r="J38">
-        <v>43882.95752823437</v>
+        <v>122762.1572610609</v>
       </c>
       <c r="K38">
-        <v>194.1128291484031</v>
+        <v>814.5749275844031</v>
       </c>
       <c r="L38">
-        <v>2.007597231015006</v>
+        <v>5.797644177875143</v>
       </c>
       <c r="M38">
-        <v>0.2778281578235794</v>
+        <v>0.7772216350811071</v>
       </c>
       <c r="N38">
-        <v>17086.43170615014</v>
+        <v>47799.13055748808</v>
       </c>
       <c r="O38">
-        <v>16.66968946941476</v>
+        <v>46.63329810486643</v>
       </c>
       <c r="P38">
-        <v>0.3401977442737707</v>
+        <v>0.9516999613238044</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2912,49 +2903,49 @@
         <v>53</v>
       </c>
       <c r="B39">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>53</v>
       </c>
       <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39">
+        <v>5923.617457828617</v>
+      </c>
+      <c r="G39">
+        <v>0.6078310146</v>
+      </c>
+      <c r="H39" t="s">
         <v>189</v>
       </c>
-      <c r="F39">
-        <v>4909.055102355495</v>
-      </c>
-      <c r="G39">
-        <v>0.6376565835333333</v>
-      </c>
-      <c r="H39" t="s">
-        <v>191</v>
-      </c>
       <c r="I39">
-        <v>38861.08175405536</v>
+        <v>55414.02905754787</v>
       </c>
       <c r="J39">
-        <v>122762.1572610609</v>
+        <v>175052.9177927937</v>
       </c>
       <c r="K39">
-        <v>814.5749275844031</v>
+        <v>1150.492913088198</v>
       </c>
       <c r="L39">
-        <v>5.797644177875143</v>
+        <v>6.87620369122746</v>
       </c>
       <c r="M39">
-        <v>0.7772216350811071</v>
+        <v>1.108280581150957</v>
       </c>
       <c r="N39">
-        <v>47799.13055748808</v>
+        <v>68159.25574078388</v>
       </c>
       <c r="O39">
-        <v>46.63329810486643</v>
+        <v>66.49683486905744</v>
       </c>
       <c r="P39">
-        <v>0.9516999613238044</v>
+        <v>1.357078262633825</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2962,49 +2953,49 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>290</v>
+        <v>710</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40">
+        <v>3275.593150332669</v>
+      </c>
+      <c r="G40">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H40" t="s">
         <v>189</v>
       </c>
-      <c r="F40">
-        <v>5923.617457828617</v>
-      </c>
-      <c r="G40">
-        <v>0.6078310146</v>
-      </c>
-      <c r="H40" t="s">
-        <v>191</v>
-      </c>
       <c r="I40">
-        <v>55414.02905754787</v>
+        <v>26888.28390362976</v>
       </c>
       <c r="J40">
-        <v>175052.9177927937</v>
+        <v>84940.08885156638</v>
       </c>
       <c r="K40">
-        <v>1150.492913088198</v>
+        <v>557.5256160816614</v>
       </c>
       <c r="L40">
-        <v>6.87620369122746</v>
+        <v>5.132067105758</v>
       </c>
       <c r="M40">
-        <v>1.108280581150957</v>
+        <v>0.537765678072595</v>
       </c>
       <c r="N40">
-        <v>68159.25574078388</v>
+        <v>33072.58920146461</v>
       </c>
       <c r="O40">
-        <v>66.49683486905744</v>
+        <v>32.26594068435571</v>
       </c>
       <c r="P40">
-        <v>1.357078262633825</v>
+        <v>0.6584885853950145</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3012,49 +3003,49 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
         <v>55</v>
       </c>
       <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41">
+        <v>854.3229666268791</v>
+      </c>
+      <c r="G41">
+        <v>0.5245896810666667</v>
+      </c>
+      <c r="H41" t="s">
         <v>189</v>
       </c>
-      <c r="F41">
-        <v>3275.593150332669</v>
-      </c>
-      <c r="G41">
-        <v>0.6987738282666667</v>
-      </c>
-      <c r="H41" t="s">
-        <v>191</v>
-      </c>
       <c r="I41">
-        <v>26888.28390362976</v>
+        <v>9642.37813545332</v>
       </c>
       <c r="J41">
-        <v>84940.08885156638</v>
+        <v>30460.27252989704</v>
       </c>
       <c r="K41">
-        <v>557.5256160816614</v>
+        <v>235.3178872999452</v>
       </c>
       <c r="L41">
-        <v>5.132067105758</v>
+        <v>3.772347434218042</v>
       </c>
       <c r="M41">
-        <v>0.537765678072595</v>
+        <v>0.1928475627090664</v>
       </c>
       <c r="N41">
-        <v>33072.58920146461</v>
+        <v>11860.12510660759</v>
       </c>
       <c r="O41">
-        <v>32.26594068435571</v>
+        <v>11.57085376254398</v>
       </c>
       <c r="P41">
-        <v>0.6584885853950145</v>
+        <v>0.2361398727049792</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3062,49 +3053,49 @@
         <v>56</v>
       </c>
       <c r="B42">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
         <v>56</v>
       </c>
       <c r="E42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42">
+        <v>2514.649386881819</v>
+      </c>
+      <c r="G42">
+        <v>0.6060793402</v>
+      </c>
+      <c r="H42" t="s">
         <v>189</v>
       </c>
-      <c r="F42">
-        <v>854.3229666268791</v>
-      </c>
-      <c r="G42">
-        <v>0.5245896810666667</v>
-      </c>
-      <c r="H42" t="s">
-        <v>191</v>
-      </c>
       <c r="I42">
-        <v>9642.37813545332</v>
+        <v>24058.50779562063</v>
       </c>
       <c r="J42">
-        <v>30460.27252989704</v>
+        <v>76000.82612636556</v>
       </c>
       <c r="K42">
-        <v>235.3178872999452</v>
+        <v>497.0575173213799</v>
       </c>
       <c r="L42">
-        <v>3.772347434218042</v>
+        <v>4.04124220233196</v>
       </c>
       <c r="M42">
-        <v>0.1928475627090664</v>
+        <v>0.4811701559124125</v>
       </c>
       <c r="N42">
-        <v>11860.12510660759</v>
+        <v>29591.96458861337</v>
       </c>
       <c r="O42">
-        <v>11.57085376254398</v>
+        <v>28.87020935474476</v>
       </c>
       <c r="P42">
-        <v>0.2361398727049792</v>
+        <v>0.589187946015199</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3112,49 +3103,49 @@
         <v>57</v>
       </c>
       <c r="B43">
-        <v>275</v>
+        <v>668</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
       </c>
       <c r="E43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43">
+        <v>4821.316738145491</v>
+      </c>
+      <c r="G43">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H43" t="s">
         <v>189</v>
       </c>
-      <c r="F43">
-        <v>2514.649386881819</v>
-      </c>
-      <c r="G43">
-        <v>0.6060793402</v>
-      </c>
-      <c r="H43" t="s">
-        <v>191</v>
-      </c>
       <c r="I43">
-        <v>24058.50779562063</v>
+        <v>40996.87833958282</v>
       </c>
       <c r="J43">
-        <v>76000.82612636556</v>
+        <v>129509.1386747421</v>
       </c>
       <c r="K43">
-        <v>497.0575173213799</v>
+        <v>832.4476067883168</v>
       </c>
       <c r="L43">
-        <v>4.04124220233196</v>
+        <v>4.396920840907404</v>
       </c>
       <c r="M43">
-        <v>0.4811701559124125</v>
+        <v>0.8199375667916564</v>
       </c>
       <c r="N43">
-        <v>29591.96458861337</v>
+        <v>50426.16035768687</v>
       </c>
       <c r="O43">
-        <v>28.87020935474476</v>
+        <v>49.19625400749938</v>
       </c>
       <c r="P43">
-        <v>0.589187946015199</v>
+        <v>1.004005183826518</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3162,49 +3153,49 @@
         <v>58</v>
       </c>
       <c r="B44">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F44">
-        <v>4821.316738145491</v>
+        <v>378.3820333775132</v>
       </c>
       <c r="G44">
-        <v>0.6987738282666667</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="H44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I44">
-        <v>40996.87833958282</v>
+        <v>2003.073409529189</v>
       </c>
       <c r="J44">
-        <v>129509.1386747421</v>
+        <v>6327.708900702708</v>
       </c>
       <c r="K44">
-        <v>832.4476067883168</v>
+        <v>28.9219016893548</v>
       </c>
       <c r="L44">
-        <v>4.396920840907404</v>
+        <v>0.3143511087609415</v>
       </c>
       <c r="M44">
-        <v>0.8199375667916564</v>
+        <v>0.04006146819058379</v>
       </c>
       <c r="N44">
-        <v>50426.16035768687</v>
+        <v>2463.780293720903</v>
       </c>
       <c r="O44">
-        <v>49.19625400749938</v>
+        <v>2.403688091435026</v>
       </c>
       <c r="P44">
-        <v>1.004005183826518</v>
+        <v>0.0490548590088781</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3212,49 +3203,49 @@
         <v>59</v>
       </c>
       <c r="B45">
-        <v>264</v>
+        <v>626</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
       </c>
       <c r="E45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45">
+        <v>4786.526838419995</v>
+      </c>
+      <c r="G45">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H45" t="s">
         <v>189</v>
       </c>
-      <c r="F45">
-        <v>378.3820333775132</v>
-      </c>
-      <c r="G45">
-        <v>0.5245896810666667</v>
-      </c>
-      <c r="H45" t="s">
-        <v>195</v>
-      </c>
       <c r="I45">
-        <v>2003.073409529189</v>
+        <v>42193.379753624</v>
       </c>
       <c r="J45">
-        <v>6327.708900702708</v>
+        <v>133288.8866416982</v>
       </c>
       <c r="K45">
-        <v>28.9219016893548</v>
+        <v>859.2019273136793</v>
       </c>
       <c r="L45">
-        <v>0.3143511087609415</v>
+        <v>5.534572325893548</v>
       </c>
       <c r="M45">
-        <v>0.04006146819058379</v>
+        <v>0.8438675950724799</v>
       </c>
       <c r="N45">
-        <v>2463.780293720903</v>
+        <v>51897.85709695752</v>
       </c>
       <c r="O45">
-        <v>2.403688091435026</v>
+        <v>50.63205570434879</v>
       </c>
       <c r="P45">
-        <v>0.0490548590088781</v>
+        <v>1.033307259272424</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3262,49 +3253,49 @@
         <v>60</v>
       </c>
       <c r="B46">
-        <v>254</v>
+        <v>607</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F46">
-        <v>4786.526838419995</v>
+        <v>5658.302680814584</v>
       </c>
       <c r="G46">
         <v>0.6987738282666667</v>
       </c>
       <c r="H46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I46">
-        <v>42193.379753624</v>
+        <v>46417.39414526589</v>
       </c>
       <c r="J46">
-        <v>133288.8866416982</v>
+        <v>146632.548104895</v>
       </c>
       <c r="K46">
-        <v>859.2019273136793</v>
+        <v>965.0733619575674</v>
       </c>
       <c r="L46">
-        <v>5.534572325893548</v>
+        <v>6.18994336766758</v>
       </c>
       <c r="M46">
-        <v>0.8438675950724799</v>
+        <v>0.9283478829053178</v>
       </c>
       <c r="N46">
-        <v>51897.85709695752</v>
+        <v>57093.39479867705</v>
       </c>
       <c r="O46">
-        <v>50.63205570434879</v>
+        <v>55.70087297431907</v>
       </c>
       <c r="P46">
-        <v>1.033307259272424</v>
+        <v>1.136752509679981</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3312,49 +3303,49 @@
         <v>61</v>
       </c>
       <c r="B47">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
         <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47">
-        <v>5658.302680814584</v>
+        <v>2995.756300767673</v>
       </c>
       <c r="G47">
-        <v>0.6987738282666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I47">
-        <v>46417.39414526589</v>
+        <v>9156.410365895263</v>
       </c>
       <c r="J47">
-        <v>146632.548104895</v>
+        <v>28925.10034586312</v>
       </c>
       <c r="K47">
-        <v>965.0733619575674</v>
+        <v>102.1500433087946</v>
       </c>
       <c r="L47">
-        <v>6.18994336766758</v>
+        <v>0.9044795354253171</v>
       </c>
       <c r="M47">
-        <v>0.9283478829053178</v>
+        <v>0.1831282073179052</v>
       </c>
       <c r="N47">
-        <v>57093.39479867705</v>
+        <v>11262.38475005117</v>
       </c>
       <c r="O47">
-        <v>55.70087297431907</v>
+        <v>10.98769243907431</v>
       </c>
       <c r="P47">
-        <v>1.136752509679981</v>
+        <v>0.2242386212055982</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3362,49 +3353,49 @@
         <v>62</v>
       </c>
       <c r="B48">
-        <v>241</v>
+        <v>587</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
         <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F48">
-        <v>2995.756300767673</v>
+        <v>4537.373869400612</v>
       </c>
       <c r="G48">
-        <v>0.6376565835333333</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I48">
-        <v>9156.410365895263</v>
+        <v>11160.59641453068</v>
       </c>
       <c r="J48">
-        <v>28925.10034586312</v>
+        <v>35256.32407350242</v>
       </c>
       <c r="K48">
-        <v>102.1500433087946</v>
+        <v>161.3367417997575</v>
       </c>
       <c r="L48">
-        <v>0.9044795354253171</v>
+        <v>1.148783418018889</v>
       </c>
       <c r="M48">
-        <v>0.1831282073179052</v>
+        <v>0.2232119282906136</v>
       </c>
       <c r="N48">
-        <v>11262.38475005117</v>
+        <v>13727.53358987274</v>
       </c>
       <c r="O48">
-        <v>10.98769243907431</v>
+        <v>13.39271569743682</v>
       </c>
       <c r="P48">
-        <v>0.2242386212055982</v>
+        <v>0.2733207285191187</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3415,46 +3406,46 @@
         <v>238</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
         <v>63</v>
       </c>
       <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49">
+        <v>1926.983005777511</v>
+      </c>
+      <c r="G49">
+        <v>0.5245896810666667</v>
+      </c>
+      <c r="H49" t="s">
         <v>189</v>
       </c>
-      <c r="F49">
-        <v>4537.373869400612</v>
-      </c>
-      <c r="G49">
-        <v>0.6997836170333334</v>
-      </c>
-      <c r="H49" t="s">
-        <v>197</v>
-      </c>
       <c r="I49">
-        <v>11160.59641453068</v>
+        <v>19282.05855396539</v>
       </c>
       <c r="J49">
-        <v>35256.32407350242</v>
+        <v>60912.02297197666</v>
       </c>
       <c r="K49">
-        <v>161.3367417997575</v>
+        <v>423.5878609168391</v>
       </c>
       <c r="L49">
-        <v>1.148783418018889</v>
+        <v>4.262243114620417</v>
       </c>
       <c r="M49">
-        <v>0.2232119282906136</v>
+        <v>0.3856411710793077</v>
       </c>
       <c r="N49">
-        <v>13727.53358987274</v>
+        <v>23716.93202137743</v>
       </c>
       <c r="O49">
-        <v>13.39271569743682</v>
+        <v>23.13847026475846</v>
       </c>
       <c r="P49">
-        <v>0.2733207285191187</v>
+        <v>0.4722136788726217</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3462,49 +3453,49 @@
         <v>64</v>
       </c>
       <c r="B50">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F50">
-        <v>1926.983005777511</v>
+        <v>3497.273675198606</v>
       </c>
       <c r="G50">
-        <v>0.5245896810666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I50">
-        <v>19282.05855396539</v>
+        <v>8439.818709618816</v>
       </c>
       <c r="J50">
-        <v>60912.02297197666</v>
+        <v>26661.38730368583</v>
       </c>
       <c r="K50">
-        <v>423.5878609168391</v>
+        <v>121.9031667200459</v>
       </c>
       <c r="L50">
-        <v>4.262243114620417</v>
+        <v>0.9014048399940953</v>
       </c>
       <c r="M50">
-        <v>0.3856411710793077</v>
+        <v>0.1687963741923763</v>
       </c>
       <c r="N50">
-        <v>23716.93202137743</v>
+        <v>10380.97701283114</v>
       </c>
       <c r="O50">
-        <v>23.13847026475846</v>
+        <v>10.12778245154258</v>
       </c>
       <c r="P50">
-        <v>0.4722136788726217</v>
+        <v>0.2066894377865832</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3515,46 +3506,46 @@
         <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F51">
-        <v>3497.273675198606</v>
+        <v>3285.245755639002</v>
       </c>
       <c r="G51">
-        <v>0.6987738282666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H51" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I51">
-        <v>8439.818709618816</v>
+        <v>9938.097261424231</v>
       </c>
       <c r="J51">
-        <v>26661.38730368583</v>
+        <v>31394.44924883914</v>
       </c>
       <c r="K51">
-        <v>121.9031667200459</v>
+        <v>114.1731881534864</v>
       </c>
       <c r="L51">
-        <v>0.9014048399940953</v>
+        <v>0.8703196015771016</v>
       </c>
       <c r="M51">
-        <v>0.1687963741923763</v>
+        <v>0.1987619452284846</v>
       </c>
       <c r="N51">
-        <v>10380.97701283114</v>
+        <v>12223.8596315518</v>
       </c>
       <c r="O51">
-        <v>10.12778245154258</v>
+        <v>11.92571671370908</v>
       </c>
       <c r="P51">
-        <v>0.2066894377865832</v>
+        <v>0.2433819737491648</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3562,49 +3553,49 @@
         <v>66</v>
       </c>
       <c r="B52">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F52">
-        <v>3285.245755639002</v>
+        <v>4058.358801134944</v>
       </c>
       <c r="G52">
-        <v>0.6376565835333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I52">
-        <v>9938.097261424231</v>
+        <v>26776.62289742479</v>
       </c>
       <c r="J52">
-        <v>31394.44924883914</v>
+        <v>84587.35173296492</v>
       </c>
       <c r="K52">
-        <v>114.1731881534864</v>
+        <v>374.1524896696622</v>
       </c>
       <c r="L52">
-        <v>0.8703196015771016</v>
+        <v>2.358691548933191</v>
       </c>
       <c r="M52">
-        <v>0.1987619452284846</v>
+        <v>0.5355324579484957</v>
       </c>
       <c r="N52">
-        <v>12223.8596315518</v>
+        <v>32935.2461638325</v>
       </c>
       <c r="O52">
-        <v>11.92571671370908</v>
+        <v>32.13194747690975</v>
       </c>
       <c r="P52">
-        <v>0.2433819737491648</v>
+        <v>0.6557540301410153</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3612,49 +3603,49 @@
         <v>67</v>
       </c>
       <c r="B53">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
         <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F53">
-        <v>4058.358801134944</v>
+        <v>4451.568919838058</v>
       </c>
       <c r="G53">
         <v>0.6060793402</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="I53">
-        <v>26776.62289742479</v>
+        <v>34848.32284841596</v>
       </c>
       <c r="J53">
-        <v>84587.35173296492</v>
+        <v>110085.851878146</v>
       </c>
       <c r="K53">
-        <v>374.1524896696622</v>
+        <v>700.7451988569662</v>
       </c>
       <c r="L53">
-        <v>2.358691548933191</v>
+        <v>5.283775875516542</v>
       </c>
       <c r="M53">
-        <v>0.5355324579484957</v>
+        <v>0.6969664569683189</v>
       </c>
       <c r="N53">
-        <v>32935.2461638325</v>
+        <v>42863.43710355162</v>
       </c>
       <c r="O53">
-        <v>32.13194747690975</v>
+        <v>41.81798741809914</v>
       </c>
       <c r="P53">
-        <v>0.6557540301410153</v>
+        <v>0.8534283146550847</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3662,49 +3653,49 @@
         <v>68</v>
       </c>
       <c r="B54">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
       </c>
       <c r="E54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54">
+        <v>487.7687986788414</v>
+      </c>
+      <c r="G54">
+        <v>0.5245896810666667</v>
+      </c>
+      <c r="H54" t="s">
         <v>189</v>
       </c>
-      <c r="F54">
-        <v>4451.568919838058</v>
-      </c>
-      <c r="G54">
-        <v>0.6060793402</v>
-      </c>
-      <c r="H54" t="s">
-        <v>191</v>
-      </c>
       <c r="I54">
-        <v>34848.32284841596</v>
+        <v>6266.039789383753</v>
       </c>
       <c r="J54">
-        <v>110085.851878146</v>
+        <v>19794.41969466327</v>
       </c>
       <c r="K54">
-        <v>700.7451988569662</v>
+        <v>161.1217285021753</v>
       </c>
       <c r="L54">
-        <v>5.283775875516542</v>
+        <v>2.300017565590628</v>
       </c>
       <c r="M54">
-        <v>0.6969664569683189</v>
+        <v>0.125320795787675</v>
       </c>
       <c r="N54">
-        <v>42863.43710355162</v>
+        <v>7707.228940942016</v>
       </c>
       <c r="O54">
-        <v>41.81798741809914</v>
+        <v>7.519247747260502</v>
       </c>
       <c r="P54">
-        <v>0.8534283146550847</v>
+        <v>0.1534540356583776</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3712,49 +3703,49 @@
         <v>69</v>
       </c>
       <c r="B55">
-        <v>218</v>
+        <v>528</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F55">
-        <v>487.7687986788414</v>
+        <v>5174.013327477973</v>
       </c>
       <c r="G55">
-        <v>0.5245896810666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I55">
-        <v>6266.039789383753</v>
+        <v>39969.66356473222</v>
       </c>
       <c r="J55">
-        <v>19794.41969466327</v>
+        <v>126264.1672009891</v>
       </c>
       <c r="K55">
-        <v>161.1217285021753</v>
+        <v>733.4131104023795</v>
       </c>
       <c r="L55">
-        <v>2.300017565590628</v>
+        <v>5.463575384396974</v>
       </c>
       <c r="M55">
-        <v>0.125320795787675</v>
+        <v>0.7993932712946443</v>
       </c>
       <c r="N55">
-        <v>7707.228940942016</v>
+        <v>49162.68618462063</v>
       </c>
       <c r="O55">
-        <v>7.519247747260502</v>
+        <v>47.96359627767865</v>
       </c>
       <c r="P55">
-        <v>0.1534540356583776</v>
+        <v>0.978848903626095</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3762,49 +3753,49 @@
         <v>70</v>
       </c>
       <c r="B56">
-        <v>214</v>
+        <v>520</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
         <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F56">
-        <v>5174.013327477973</v>
+        <v>6148.629185201377</v>
       </c>
       <c r="G56">
         <v>0.6987738282666667</v>
       </c>
       <c r="H56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I56">
-        <v>39969.66356473222</v>
+        <v>50885.12793139396</v>
       </c>
       <c r="J56">
-        <v>126264.1672009891</v>
+        <v>160746.1191352735</v>
       </c>
       <c r="K56">
-        <v>733.4131104023795</v>
+        <v>1040.930977309132</v>
       </c>
       <c r="L56">
-        <v>5.463575384396974</v>
+        <v>6.064645061009233</v>
       </c>
       <c r="M56">
-        <v>0.7993932712946443</v>
+        <v>1.017702558627879</v>
       </c>
       <c r="N56">
-        <v>49162.68618462063</v>
+        <v>62588.70735561457</v>
       </c>
       <c r="O56">
-        <v>47.96359627767865</v>
+        <v>61.06215351767274</v>
       </c>
       <c r="P56">
-        <v>0.978848903626095</v>
+        <v>1.246166398319852</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3812,49 +3803,49 @@
         <v>71</v>
       </c>
       <c r="B57">
-        <v>211</v>
+        <v>451</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F57">
-        <v>6148.629185201377</v>
+        <v>5140.270652699632</v>
       </c>
       <c r="G57">
         <v>0.6987738282666667</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I57">
-        <v>50885.12793139396</v>
+        <v>45351.61952464518</v>
       </c>
       <c r="J57">
-        <v>160746.1191352735</v>
+        <v>143265.7660783541</v>
       </c>
       <c r="K57">
-        <v>1040.930977309132</v>
+        <v>914.8078515245599</v>
       </c>
       <c r="L57">
-        <v>6.064645061009233</v>
+        <v>5.946322975240317</v>
       </c>
       <c r="M57">
-        <v>1.017702558627879</v>
+        <v>0.9070323904929034</v>
       </c>
       <c r="N57">
-        <v>62588.70735561457</v>
+        <v>55782.49201531357</v>
       </c>
       <c r="O57">
-        <v>61.06215351767274</v>
+        <v>54.42194342957421</v>
       </c>
       <c r="P57">
-        <v>1.246166398319852</v>
+        <v>1.110651906726004</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3862,49 +3853,49 @@
         <v>72</v>
       </c>
       <c r="B58">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
         <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F58">
-        <v>5140.270652699632</v>
+        <v>2142.676062220869</v>
       </c>
       <c r="G58">
-        <v>0.6987738282666667</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="H58" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I58">
-        <v>45351.61952464518</v>
+        <v>7918.290229706974</v>
       </c>
       <c r="J58">
-        <v>143265.7660783541</v>
+        <v>25013.87883564433</v>
       </c>
       <c r="K58">
-        <v>914.8078515245599</v>
+        <v>136.7297691089319</v>
       </c>
       <c r="L58">
-        <v>5.946322975240317</v>
+        <v>0.500814395538723</v>
       </c>
       <c r="M58">
-        <v>0.9070323904929034</v>
+        <v>0.1583658045941395</v>
       </c>
       <c r="N58">
-        <v>55782.49201531357</v>
+        <v>9739.49698253958</v>
       </c>
       <c r="O58">
-        <v>54.42194342957421</v>
+        <v>9.501948275648367</v>
       </c>
       <c r="P58">
-        <v>1.110651906726004</v>
+        <v>0.1939173117479259</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3912,49 +3903,49 @@
         <v>73</v>
       </c>
       <c r="B59">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
         <v>160</v>
-      </c>
-      <c r="C59" t="s">
-        <v>161</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F59">
-        <v>2142.676062220869</v>
+        <v>3394.714651416399</v>
       </c>
       <c r="G59">
-        <v>0.5245896810666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="H59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I59">
-        <v>7918.290229706974</v>
+        <v>9542.584277205944</v>
       </c>
       <c r="J59">
-        <v>25013.87883564433</v>
+        <v>30145.02373169357</v>
       </c>
       <c r="K59">
-        <v>136.7297691089319</v>
+        <v>168.0037039489542</v>
       </c>
       <c r="L59">
-        <v>0.500814395538723</v>
+        <v>1.009692750922625</v>
       </c>
       <c r="M59">
-        <v>0.1583658045941395</v>
+        <v>0.1908516855441189</v>
       </c>
       <c r="N59">
-        <v>9739.49698253958</v>
+        <v>11737.37866096331</v>
       </c>
       <c r="O59">
-        <v>9.501948275648367</v>
+        <v>11.45110113264713</v>
       </c>
       <c r="P59">
-        <v>0.1939173117479259</v>
+        <v>0.2336959414825945</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3962,49 +3953,49 @@
         <v>74</v>
       </c>
       <c r="B60">
-        <v>158</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
         <v>74</v>
       </c>
       <c r="E60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60">
+        <v>4157.10634709943</v>
+      </c>
+      <c r="G60">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H60" t="s">
         <v>189</v>
       </c>
-      <c r="F60">
-        <v>3394.714651416399</v>
-      </c>
-      <c r="G60">
-        <v>0.6060793402</v>
-      </c>
-      <c r="H60" t="s">
-        <v>207</v>
-      </c>
       <c r="I60">
-        <v>9542.584277205944</v>
+        <v>34609.44465013338</v>
       </c>
       <c r="J60">
-        <v>30145.02373169357</v>
+        <v>109331.2356497713</v>
       </c>
       <c r="K60">
-        <v>168.0037039489542</v>
+        <v>691.8368799101422</v>
       </c>
       <c r="L60">
-        <v>1.009692750922625</v>
+        <v>5.862142490648479</v>
       </c>
       <c r="M60">
-        <v>0.1908516855441189</v>
+        <v>0.6921888930026674</v>
       </c>
       <c r="N60">
-        <v>11737.37866096331</v>
+        <v>42569.61691966405</v>
       </c>
       <c r="O60">
-        <v>11.45110113264713</v>
+        <v>41.53133358016004</v>
       </c>
       <c r="P60">
-        <v>0.2336959414825945</v>
+        <v>0.847578236329797</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4012,49 +4003,49 @@
         <v>75</v>
       </c>
       <c r="B61">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
         <v>75</v>
       </c>
       <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61">
+        <v>3542.905550034026</v>
+      </c>
+      <c r="G61">
+        <v>0.6376565835333333</v>
+      </c>
+      <c r="H61" t="s">
         <v>189</v>
       </c>
-      <c r="F61">
-        <v>4157.10634709943</v>
-      </c>
-      <c r="G61">
-        <v>0.6987738282666667</v>
-      </c>
-      <c r="H61" t="s">
-        <v>191</v>
-      </c>
       <c r="I61">
-        <v>34609.44465013338</v>
+        <v>34865.90080128709</v>
       </c>
       <c r="J61">
-        <v>109331.2356497713</v>
+        <v>110141.3806312659</v>
       </c>
       <c r="K61">
-        <v>691.8368799101422</v>
+        <v>760.1294432271568</v>
       </c>
       <c r="L61">
-        <v>5.862142490648479</v>
+        <v>4.61659631086561</v>
       </c>
       <c r="M61">
-        <v>0.6921888930026674</v>
+        <v>0.6973180160257416</v>
       </c>
       <c r="N61">
-        <v>42569.61691966405</v>
+        <v>42885.05798558312</v>
       </c>
       <c r="O61">
-        <v>41.53133358016004</v>
+        <v>41.8390809615445</v>
       </c>
       <c r="P61">
-        <v>0.847578236329797</v>
+        <v>0.8538587951335612</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4062,49 +4053,49 @@
         <v>76</v>
       </c>
       <c r="B62">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
       </c>
       <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62">
+        <v>5926.323546573898</v>
+      </c>
+      <c r="G62">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H62" t="s">
         <v>189</v>
       </c>
-      <c r="F62">
-        <v>3542.905550034026</v>
-      </c>
-      <c r="G62">
-        <v>0.6376565835333333</v>
-      </c>
-      <c r="H62" t="s">
-        <v>191</v>
-      </c>
       <c r="I62">
-        <v>34865.90080128709</v>
+        <v>48847.55323703054</v>
       </c>
       <c r="J62">
-        <v>110141.3806312659</v>
+        <v>154309.4206757794</v>
       </c>
       <c r="K62">
-        <v>760.1294432271568</v>
+        <v>968.866583080207</v>
       </c>
       <c r="L62">
-        <v>4.61659631086561</v>
+        <v>6.763730971281797</v>
       </c>
       <c r="M62">
-        <v>0.6973180160257416</v>
+        <v>0.9769510647406106</v>
       </c>
       <c r="N62">
-        <v>42885.05798558312</v>
+        <v>60082.49048154756</v>
       </c>
       <c r="O62">
-        <v>41.8390809615445</v>
+        <v>58.61706388443664</v>
       </c>
       <c r="P62">
-        <v>0.8538587951335612</v>
+        <v>1.196266609886462</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4112,49 +4103,49 @@
         <v>77</v>
       </c>
       <c r="B63">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
         <v>77</v>
       </c>
       <c r="E63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63">
+        <v>3310.975061295877</v>
+      </c>
+      <c r="G63">
+        <v>0.6060793402</v>
+      </c>
+      <c r="H63" t="s">
         <v>189</v>
       </c>
-      <c r="F63">
-        <v>5926.323546573898</v>
-      </c>
-      <c r="G63">
-        <v>0.6987738282666667</v>
-      </c>
-      <c r="H63" t="s">
-        <v>191</v>
-      </c>
       <c r="I63">
-        <v>48847.55323703054</v>
+        <v>27362.43238027314</v>
       </c>
       <c r="J63">
-        <v>154309.4206757794</v>
+        <v>86437.92388928281</v>
       </c>
       <c r="K63">
-        <v>968.866583080207</v>
+        <v>601.3312457007374</v>
       </c>
       <c r="L63">
-        <v>6.763730971281797</v>
+        <v>5.012445041408207</v>
       </c>
       <c r="M63">
-        <v>0.9769510647406106</v>
+        <v>0.5472486476054627</v>
       </c>
       <c r="N63">
-        <v>60082.49048154756</v>
+        <v>33655.79182773596</v>
       </c>
       <c r="O63">
-        <v>58.61706388443664</v>
+        <v>32.83491885632776</v>
       </c>
       <c r="P63">
-        <v>1.196266609886462</v>
+        <v>0.6701003848230155</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4162,49 +4153,49 @@
         <v>78</v>
       </c>
       <c r="B64">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" t="s">
         <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64">
-        <v>3310.975061295877</v>
+        <v>1943.052710065926</v>
       </c>
       <c r="G64">
-        <v>0.6060793402</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="H64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I64">
-        <v>27362.43238027314</v>
+        <v>6852.037840429583</v>
       </c>
       <c r="J64">
-        <v>86437.92388928281</v>
+        <v>21645.58753791705</v>
       </c>
       <c r="K64">
-        <v>601.3312457007374</v>
+        <v>80.45347725019113</v>
       </c>
       <c r="L64">
-        <v>5.012445041408207</v>
+        <v>0.7268112463285873</v>
       </c>
       <c r="M64">
-        <v>0.5472486476054627</v>
+        <v>0.1370407568085917</v>
       </c>
       <c r="N64">
-        <v>33655.79182773596</v>
+        <v>8428.006543728388</v>
       </c>
       <c r="O64">
-        <v>32.83491885632776</v>
+        <v>8.222445408515499</v>
       </c>
       <c r="P64">
-        <v>0.6701003848230155</v>
+        <v>0.167805008337051</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4212,49 +4203,49 @@
         <v>79</v>
       </c>
       <c r="B65">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
         <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F65">
-        <v>1943.052710065926</v>
+        <v>4226.079272716002</v>
       </c>
       <c r="G65">
-        <v>0.6385780525666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I65">
-        <v>6852.037840429583</v>
+        <v>56176.18005447517</v>
       </c>
       <c r="J65">
-        <v>21645.58753791705</v>
+        <v>177460.5527920871</v>
       </c>
       <c r="K65">
-        <v>80.45347725019113</v>
+        <v>1077.073989071403</v>
       </c>
       <c r="L65">
-        <v>0.7268112463285873</v>
+        <v>8.275868945165563</v>
       </c>
       <c r="M65">
-        <v>0.1370407568085917</v>
+        <v>1.123523601089504</v>
       </c>
       <c r="N65">
-        <v>8428.006543728388</v>
+        <v>69096.70146700446</v>
       </c>
       <c r="O65">
-        <v>8.222445408515499</v>
+        <v>67.4114160653702</v>
       </c>
       <c r="P65">
-        <v>0.167805008337051</v>
+        <v>1.375743185007555</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4262,49 +4253,49 @@
         <v>80</v>
       </c>
       <c r="B66">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F66">
-        <v>4226.079272716002</v>
+        <v>4999.934295476166</v>
       </c>
       <c r="G66">
-        <v>0.6987738282666667</v>
+        <v>0.7018031945666666</v>
       </c>
       <c r="H66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I66">
-        <v>56176.18005447517</v>
+        <v>14473.09251679819</v>
       </c>
       <c r="J66">
-        <v>177460.5527920871</v>
+        <v>45720.49926056548</v>
       </c>
       <c r="K66">
-        <v>1077.073989071403</v>
+        <v>154.4323706267818</v>
       </c>
       <c r="L66">
-        <v>8.275868945165563</v>
+        <v>1.012024660143025</v>
       </c>
       <c r="M66">
-        <v>1.123523601089504</v>
+        <v>0.2894618503359638</v>
       </c>
       <c r="N66">
-        <v>69096.70146700446</v>
+        <v>17801.90379566178</v>
       </c>
       <c r="O66">
-        <v>67.4114160653702</v>
+        <v>17.36771102015783</v>
       </c>
       <c r="P66">
-        <v>1.375743185007555</v>
+        <v>0.3544430820440373</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4312,49 +4303,49 @@
         <v>81</v>
       </c>
       <c r="B67">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
       </c>
       <c r="E67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67">
+        <v>5410.958478050406</v>
+      </c>
+      <c r="G67">
+        <v>0.6394995216</v>
+      </c>
+      <c r="H67" t="s">
         <v>189</v>
       </c>
-      <c r="F67">
-        <v>4999.934295476166</v>
-      </c>
-      <c r="G67">
-        <v>0.7018031945666666</v>
-      </c>
-      <c r="H67" t="s">
-        <v>195</v>
-      </c>
       <c r="I67">
-        <v>14473.09251679819</v>
+        <v>46500.96747601601</v>
       </c>
       <c r="J67">
-        <v>45720.49926056548</v>
+        <v>146896.5562567346</v>
       </c>
       <c r="K67">
-        <v>154.4323706267818</v>
+        <v>995.1617958546387</v>
       </c>
       <c r="L67">
-        <v>1.012024660143025</v>
+        <v>5.920640948749657</v>
       </c>
       <c r="M67">
-        <v>0.2894618503359638</v>
+        <v>0.9300193495203202</v>
       </c>
       <c r="N67">
-        <v>17801.90379566178</v>
+        <v>57196.18999549968</v>
       </c>
       <c r="O67">
-        <v>17.36771102015783</v>
+        <v>55.8011609712192</v>
       </c>
       <c r="P67">
-        <v>0.3544430820440373</v>
+        <v>1.13879920349427</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4362,49 +4353,49 @@
         <v>82</v>
       </c>
       <c r="B68">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68" t="s">
         <v>82</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F68">
-        <v>5410.958478050406</v>
+        <v>3395.956728747976</v>
       </c>
       <c r="G68">
-        <v>0.6394995216</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H68" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I68">
-        <v>46500.96747601601</v>
+        <v>8147.357014123172</v>
       </c>
       <c r="J68">
-        <v>146896.5562567346</v>
+        <v>25737.5008076151</v>
       </c>
       <c r="K68">
-        <v>995.1617958546387</v>
+        <v>120.042470069938</v>
       </c>
       <c r="L68">
-        <v>5.920640948749657</v>
+        <v>0.8632957306902103</v>
       </c>
       <c r="M68">
-        <v>0.9300193495203202</v>
+        <v>0.1629471402824634</v>
       </c>
       <c r="N68">
-        <v>57196.18999549968</v>
+        <v>10021.2491273715</v>
       </c>
       <c r="O68">
-        <v>55.8011609712192</v>
+        <v>9.776828416947804</v>
       </c>
       <c r="P68">
-        <v>1.13879920349427</v>
+        <v>0.1995271105499553</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4412,49 +4403,49 @@
         <v>83</v>
       </c>
       <c r="B69">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F69">
-        <v>3395.956728747976</v>
+        <v>1942.165193943087</v>
       </c>
       <c r="G69">
-        <v>0.6987738282666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I69">
-        <v>8147.357014123172</v>
+        <v>6368.373580578077</v>
       </c>
       <c r="J69">
-        <v>25737.5008076151</v>
+        <v>20117.69214104614</v>
       </c>
       <c r="K69">
-        <v>120.042470069938</v>
+        <v>76.91397566807329</v>
       </c>
       <c r="L69">
-        <v>0.8632957306902103</v>
+        <v>0.7233671509808468</v>
       </c>
       <c r="M69">
-        <v>0.1629471402824634</v>
+        <v>0.1273674716115615</v>
       </c>
       <c r="N69">
-        <v>10021.2491273715</v>
+        <v>7833.099504111035</v>
       </c>
       <c r="O69">
-        <v>9.776828416947804</v>
+        <v>7.642048296693692</v>
       </c>
       <c r="P69">
-        <v>0.1995271105499553</v>
+        <v>0.1559601693202794</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4462,49 +4453,49 @@
         <v>84</v>
       </c>
       <c r="B70">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
         <v>84</v>
       </c>
       <c r="E70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70">
+        <v>4011.001895984378</v>
+      </c>
+      <c r="G70">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H70" t="s">
         <v>189</v>
       </c>
-      <c r="F70">
-        <v>1942.165193943087</v>
-      </c>
-      <c r="G70">
-        <v>0.6376565835333333</v>
-      </c>
-      <c r="H70" t="s">
-        <v>195</v>
-      </c>
       <c r="I70">
-        <v>6368.373580578077</v>
+        <v>32777.21189450606</v>
       </c>
       <c r="J70">
-        <v>20117.69214104614</v>
+        <v>103543.2123747446</v>
       </c>
       <c r="K70">
-        <v>76.91397566807329</v>
+        <v>663.8285216216468</v>
       </c>
       <c r="L70">
-        <v>0.7233671509808468</v>
+        <v>6.296945603073506</v>
       </c>
       <c r="M70">
-        <v>0.1273674716115615</v>
+        <v>0.6555442378901212</v>
       </c>
       <c r="N70">
-        <v>7833.099504111035</v>
+        <v>40315.97063024246</v>
       </c>
       <c r="O70">
-        <v>7.642048296693692</v>
+        <v>39.33265427340727</v>
       </c>
       <c r="P70">
-        <v>0.1559601693202794</v>
+        <v>0.8027072300695363</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4512,49 +4503,49 @@
         <v>85</v>
       </c>
       <c r="B71">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71">
-        <v>4011.001895984378</v>
+        <v>1988.305231491353</v>
       </c>
       <c r="G71">
-        <v>0.6987738282666667</v>
+        <v>0.6078310146</v>
       </c>
       <c r="H71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I71">
-        <v>32777.21189450606</v>
+        <v>6753.90120629683</v>
       </c>
       <c r="J71">
-        <v>103543.2123747446</v>
+        <v>21335.57391069168</v>
       </c>
       <c r="K71">
-        <v>663.8285216216468</v>
+        <v>78.12512280165716</v>
       </c>
       <c r="L71">
-        <v>6.296945603073506</v>
+        <v>0.7716469856467573</v>
       </c>
       <c r="M71">
-        <v>0.6555442378901212</v>
+        <v>0.1350780241259366</v>
       </c>
       <c r="N71">
-        <v>40315.97063024246</v>
+        <v>8307.298483745102</v>
       </c>
       <c r="O71">
-        <v>39.33265427340727</v>
+        <v>8.104681447556196</v>
       </c>
       <c r="P71">
-        <v>0.8027072300695363</v>
+        <v>0.1654016621950244</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4562,49 +4553,49 @@
         <v>86</v>
       </c>
       <c r="B72">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
         <v>86</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F72">
-        <v>1988.305231491353</v>
+        <v>1220.288260261259</v>
       </c>
       <c r="G72">
-        <v>0.6078310146</v>
+        <v>0.5261058362000001</v>
       </c>
       <c r="H72" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I72">
-        <v>6753.90120629683</v>
+        <v>4038.085151282208</v>
       </c>
       <c r="J72">
-        <v>21335.57391069168</v>
+        <v>12756.31099290049</v>
       </c>
       <c r="K72">
-        <v>78.12512280165716</v>
+        <v>49.90017846054127</v>
       </c>
       <c r="L72">
-        <v>0.7716469856467573</v>
+        <v>0.5282755499768598</v>
       </c>
       <c r="M72">
-        <v>0.1350780241259366</v>
+        <v>0.08076170302564414</v>
       </c>
       <c r="N72">
-        <v>8307.298483745102</v>
+        <v>4966.844736077115</v>
       </c>
       <c r="O72">
-        <v>8.104681447556196</v>
+        <v>4.845702181538648</v>
       </c>
       <c r="P72">
-        <v>0.1654016621950244</v>
+        <v>0.09889188125589081</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4612,49 +4603,49 @@
         <v>87</v>
       </c>
       <c r="B73">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
         <v>87</v>
       </c>
       <c r="E73" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73">
+        <v>3033.748862710535</v>
+      </c>
+      <c r="G73">
+        <v>0.6376565835333333</v>
+      </c>
+      <c r="H73" t="s">
         <v>189</v>
       </c>
-      <c r="F73">
-        <v>1220.288260261259</v>
-      </c>
-      <c r="G73">
-        <v>0.5261058362000001</v>
-      </c>
-      <c r="H73" t="s">
-        <v>204</v>
-      </c>
       <c r="I73">
-        <v>4038.085151282208</v>
+        <v>24099.43141678929</v>
       </c>
       <c r="J73">
-        <v>12756.31099290049</v>
+        <v>76130.10384563738</v>
       </c>
       <c r="K73">
-        <v>49.90017846054127</v>
+        <v>518.5598014095231</v>
       </c>
       <c r="L73">
-        <v>0.5282755499768598</v>
+        <v>4.434829138728756</v>
       </c>
       <c r="M73">
-        <v>0.08076170302564414</v>
+        <v>0.4819886283357858</v>
       </c>
       <c r="N73">
-        <v>4966.844736077115</v>
+        <v>29642.30064265083</v>
       </c>
       <c r="O73">
-        <v>4.845702181538648</v>
+        <v>28.91931770014715</v>
       </c>
       <c r="P73">
-        <v>0.09889188125589081</v>
+        <v>0.5901901571458603</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4662,49 +4653,49 @@
         <v>88</v>
       </c>
       <c r="B74">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
         <v>88</v>
       </c>
       <c r="E74" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74">
+        <v>4467.175522335179</v>
+      </c>
+      <c r="G74">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H74" t="s">
         <v>189</v>
       </c>
-      <c r="F74">
-        <v>3033.748862710535</v>
-      </c>
-      <c r="G74">
-        <v>0.6376565835333333</v>
-      </c>
-      <c r="H74" t="s">
-        <v>191</v>
-      </c>
       <c r="I74">
-        <v>24099.43141678929</v>
+        <v>36873.26924792145</v>
       </c>
       <c r="J74">
-        <v>76130.10384563738</v>
+        <v>116482.6575541838</v>
       </c>
       <c r="K74">
-        <v>518.5598014095231</v>
+        <v>739.4821662455646</v>
       </c>
       <c r="L74">
-        <v>4.434829138728756</v>
+        <v>6.212246135648654</v>
       </c>
       <c r="M74">
-        <v>0.4819886283357858</v>
+        <v>0.7374653849584288</v>
       </c>
       <c r="N74">
-        <v>29642.30064265083</v>
+        <v>45354.12117494338</v>
       </c>
       <c r="O74">
-        <v>28.91931770014715</v>
+        <v>44.24792309750573</v>
       </c>
       <c r="P74">
-        <v>0.5901901571458603</v>
+        <v>0.903018838724607</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4712,49 +4703,49 @@
         <v>89</v>
       </c>
       <c r="B75">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F75">
-        <v>4467.175522335179</v>
+        <v>2058.222099325025</v>
       </c>
       <c r="G75">
-        <v>0.6987738282666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I75">
-        <v>36873.26924792145</v>
+        <v>5543.150945394326</v>
       </c>
       <c r="J75">
-        <v>116482.6575541838</v>
+        <v>17510.81383650068</v>
       </c>
       <c r="K75">
-        <v>739.4821662455646</v>
+        <v>61.20427880164866</v>
       </c>
       <c r="L75">
-        <v>6.212246135648654</v>
+        <v>0.7212933218762775</v>
       </c>
       <c r="M75">
-        <v>0.7374653849584288</v>
+        <v>0.1108630189078866</v>
       </c>
       <c r="N75">
-        <v>45354.12117494338</v>
+        <v>6818.075662835024</v>
       </c>
       <c r="O75">
-        <v>44.24792309750573</v>
+        <v>6.651781134473193</v>
       </c>
       <c r="P75">
-        <v>0.903018838724607</v>
+        <v>0.1357506353974121</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4762,49 +4753,49 @@
         <v>90</v>
       </c>
       <c r="B76">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
         <v>90</v>
       </c>
       <c r="E76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F76">
-        <v>2058.222099325025</v>
+        <v>5060.276656340373</v>
       </c>
       <c r="G76">
-        <v>0.6376565835333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="H76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I76">
-        <v>5543.150945394326</v>
+        <v>67405.56933532702</v>
       </c>
       <c r="J76">
-        <v>17510.81383650068</v>
+        <v>212934.1935302981</v>
       </c>
       <c r="K76">
-        <v>61.20427880164866</v>
+        <v>1330.9005080398</v>
       </c>
       <c r="L76">
-        <v>0.7212933218762775</v>
+        <v>8.902769351641602</v>
       </c>
       <c r="M76">
-        <v>0.1108630189078866</v>
+        <v>1.34811138670654</v>
       </c>
       <c r="N76">
-        <v>6818.075662835024</v>
+        <v>82908.85028245224</v>
       </c>
       <c r="O76">
-        <v>6.651781134473193</v>
+        <v>80.88668320239243</v>
       </c>
       <c r="P76">
-        <v>0.1357506353974121</v>
+        <v>1.650748636783519</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4812,49 +4803,49 @@
         <v>91</v>
       </c>
       <c r="B77">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
         <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F77">
-        <v>5060.276656340373</v>
+        <v>4302.14030831915</v>
       </c>
       <c r="G77">
-        <v>0.6060793402</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H77" t="s">
         <v>194</v>
       </c>
       <c r="I77">
-        <v>67405.56933532702</v>
+        <v>9996.998919933161</v>
       </c>
       <c r="J77">
-        <v>212934.1935302981</v>
+        <v>31580.51958806886</v>
       </c>
       <c r="K77">
-        <v>1330.9005080398</v>
+        <v>145.8300964093327</v>
       </c>
       <c r="L77">
-        <v>8.902769351641602</v>
+        <v>1.067252853923054</v>
       </c>
       <c r="M77">
-        <v>1.34811138670654</v>
+        <v>0.1999399783986632</v>
       </c>
       <c r="N77">
-        <v>82908.85028245224</v>
+        <v>12296.30867151779</v>
       </c>
       <c r="O77">
-        <v>80.88668320239243</v>
+        <v>11.99639870391979</v>
       </c>
       <c r="P77">
-        <v>1.650748636783519</v>
+        <v>0.2448244633453019</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4862,49 +4853,49 @@
         <v>92</v>
       </c>
       <c r="B78">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
         <v>92</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F78">
-        <v>4302.14030831915</v>
+        <v>4773.283196580763</v>
       </c>
       <c r="G78">
         <v>0.6987738282666667</v>
       </c>
       <c r="H78" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I78">
-        <v>9996.998919933161</v>
+        <v>30290.60310063492</v>
       </c>
       <c r="J78">
-        <v>31580.51958806886</v>
+        <v>95688.01519490573</v>
       </c>
       <c r="K78">
-        <v>145.8300964093327</v>
+        <v>425.0693011306404</v>
       </c>
       <c r="L78">
-        <v>1.067252853923054</v>
+        <v>2.759609323344139</v>
       </c>
       <c r="M78">
-        <v>0.1999399783986632</v>
+        <v>0.6058120620126985</v>
       </c>
       <c r="N78">
-        <v>12296.30867151779</v>
+        <v>37257.44181378096</v>
       </c>
       <c r="O78">
-        <v>11.99639870391979</v>
+        <v>36.3487237207619</v>
       </c>
       <c r="P78">
-        <v>0.2448244633453019</v>
+        <v>0.7418106881788145</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4912,49 +4903,49 @@
         <v>93</v>
       </c>
       <c r="B79">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D79" t="s">
         <v>93</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F79">
-        <v>4773.283196580763</v>
+        <v>4184.725593262381</v>
       </c>
       <c r="G79">
-        <v>0.6987738282666667</v>
+        <v>0.7149630222580645</v>
       </c>
       <c r="H79" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I79">
-        <v>30290.60310063492</v>
+        <v>9641.955781204655</v>
       </c>
       <c r="J79">
-        <v>95688.01519490573</v>
+        <v>30458.9383128255</v>
       </c>
       <c r="K79">
-        <v>425.0693011306404</v>
+        <v>138.1667698881967</v>
       </c>
       <c r="L79">
-        <v>2.759609323344139</v>
+        <v>0.9570380163904113</v>
       </c>
       <c r="M79">
-        <v>0.6058120620126985</v>
+        <v>0.1928391156240931</v>
       </c>
       <c r="N79">
-        <v>37257.44181378096</v>
+        <v>11859.60561088173</v>
       </c>
       <c r="O79">
-        <v>36.3487237207619</v>
+        <v>11.57034693744558</v>
       </c>
       <c r="P79">
-        <v>0.7418106881788145</v>
+        <v>0.2361295293356242</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4962,7 +4953,7 @@
         <v>94</v>
       </c>
       <c r="B80">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
         <v>180</v>
@@ -4971,40 +4962,40 @@
         <v>94</v>
       </c>
       <c r="E80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F80">
-        <v>4184.725593262381</v>
+        <v>3901.615013086867</v>
       </c>
       <c r="G80">
-        <v>0.7149630222580645</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="H80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I80">
-        <v>9641.955781204655</v>
+        <v>12060.6967687249</v>
       </c>
       <c r="J80">
-        <v>30458.9383128255</v>
+        <v>38099.74109240196</v>
       </c>
       <c r="K80">
-        <v>138.1667698881967</v>
+        <v>132.9345524880242</v>
       </c>
       <c r="L80">
-        <v>0.9570380163904113</v>
+        <v>0.8888644175035223</v>
       </c>
       <c r="M80">
-        <v>0.1928391156240931</v>
+        <v>0.241213935374498</v>
       </c>
       <c r="N80">
-        <v>11859.60561088173</v>
+        <v>14834.65702553163</v>
       </c>
       <c r="O80">
-        <v>11.57034693744558</v>
+        <v>14.47283612246988</v>
       </c>
       <c r="P80">
-        <v>0.2361295293356242</v>
+        <v>0.2953640024993853</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5012,49 +5003,49 @@
         <v>95</v>
       </c>
       <c r="B81">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D81" t="s">
         <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F81">
-        <v>3901.615013086867</v>
+        <v>3927.00487646895</v>
       </c>
       <c r="G81">
-        <v>0.6376565835333333</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I81">
-        <v>12060.6967687249</v>
+        <v>11673.78845867914</v>
       </c>
       <c r="J81">
-        <v>38099.74109240196</v>
+        <v>36877.49774096741</v>
       </c>
       <c r="K81">
-        <v>132.9345524880242</v>
+        <v>132.4198450972083</v>
       </c>
       <c r="L81">
-        <v>0.8888644175035223</v>
+        <v>0.9712734183988198</v>
       </c>
       <c r="M81">
-        <v>0.241213935374498</v>
+        <v>0.2334757691735829</v>
       </c>
       <c r="N81">
-        <v>14834.65702553163</v>
+        <v>14358.75980417535</v>
       </c>
       <c r="O81">
-        <v>14.47283612246988</v>
+        <v>14.00854615041497</v>
       </c>
       <c r="P81">
-        <v>0.2953640024993853</v>
+        <v>0.2858886969472443</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5062,49 +5053,49 @@
         <v>96</v>
       </c>
       <c r="B82">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
         <v>96</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F82">
-        <v>3927.00487646895</v>
+        <v>4319.755726612008</v>
       </c>
       <c r="G82">
         <v>0.6987738282666667</v>
       </c>
       <c r="H82" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I82">
-        <v>11673.78845867914</v>
+        <v>12562.64959455429</v>
       </c>
       <c r="J82">
-        <v>36877.49774096741</v>
+        <v>39685.41006919699</v>
       </c>
       <c r="K82">
-        <v>132.4198450972083</v>
+        <v>186.390359743092</v>
       </c>
       <c r="L82">
-        <v>0.9712734183988198</v>
+        <v>0.04785045969585611</v>
       </c>
       <c r="M82">
-        <v>0.2334757691735829</v>
+        <v>0.2512529918910857</v>
       </c>
       <c r="N82">
-        <v>14358.75980417535</v>
+        <v>15452.05900130177</v>
       </c>
       <c r="O82">
-        <v>14.00854615041497</v>
+        <v>15.07517951346514</v>
       </c>
       <c r="P82">
-        <v>0.2858886969472443</v>
+        <v>0.3076567247645948</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5115,46 +5106,46 @@
         <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s">
         <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F83">
-        <v>4319.755726612008</v>
+        <v>3819.387206090362</v>
       </c>
       <c r="G83">
         <v>0.6987738282666667</v>
       </c>
       <c r="H83" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="I83">
-        <v>12562.64959455429</v>
+        <v>10900.73325589083</v>
       </c>
       <c r="J83">
-        <v>39685.41006919699</v>
+        <v>34435.41635535912</v>
       </c>
       <c r="K83">
-        <v>186.390359743092</v>
+        <v>121.114451173051</v>
       </c>
       <c r="L83">
-        <v>0.04785045969585611</v>
+        <v>1.023741734157675</v>
       </c>
       <c r="M83">
-        <v>0.2512529918910857</v>
+        <v>0.2180146651178165</v>
       </c>
       <c r="N83">
-        <v>15452.05900130177</v>
+        <v>13407.90190474572</v>
       </c>
       <c r="O83">
-        <v>15.07517951346514</v>
+        <v>13.08087990706899</v>
       </c>
       <c r="P83">
-        <v>0.3076567247645948</v>
+        <v>0.2669567327973263</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5162,49 +5153,49 @@
         <v>98</v>
       </c>
       <c r="B84">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
         <v>98</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F84">
-        <v>3819.387206090362</v>
+        <v>3734.448998311077</v>
       </c>
       <c r="G84">
         <v>0.6987738282666667</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I84">
-        <v>10900.73325589083</v>
+        <v>8783.294862785146</v>
       </c>
       <c r="J84">
-        <v>34435.41635535912</v>
+        <v>27746.42847153827</v>
       </c>
       <c r="K84">
-        <v>121.114451173051</v>
+        <v>131.278370337812</v>
       </c>
       <c r="L84">
-        <v>1.023741734157675</v>
+        <v>0.988350007654772</v>
       </c>
       <c r="M84">
-        <v>0.2180146651178165</v>
+        <v>0.1756658972557029</v>
       </c>
       <c r="N84">
-        <v>13407.90190474572</v>
+        <v>10803.45268122573</v>
       </c>
       <c r="O84">
-        <v>13.08087990706899</v>
+        <v>10.53995383534217</v>
       </c>
       <c r="P84">
-        <v>0.2669567327973263</v>
+        <v>0.2151010986804525</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5212,49 +5203,49 @@
         <v>99</v>
       </c>
       <c r="B85">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D85" t="s">
         <v>99</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F85">
-        <v>3734.448998311077</v>
+        <v>5076.841503918451</v>
       </c>
       <c r="G85">
-        <v>0.6987738282666667</v>
+        <v>0.6148377121999999</v>
       </c>
       <c r="H85" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I85">
-        <v>8783.294862785146</v>
+        <v>31490.56314555978</v>
       </c>
       <c r="J85">
-        <v>27746.42847153827</v>
+        <v>99478.68897682334</v>
       </c>
       <c r="K85">
-        <v>131.278370337812</v>
+        <v>440.7964351245197</v>
       </c>
       <c r="L85">
-        <v>0.988350007654772</v>
+        <v>3.0421080001607</v>
       </c>
       <c r="M85">
-        <v>0.1756658972557029</v>
+        <v>0.6298112629111956</v>
       </c>
       <c r="N85">
-        <v>10803.45268122573</v>
+        <v>38733.39266903853</v>
       </c>
       <c r="O85">
-        <v>10.53995383534217</v>
+        <v>37.78867577467173</v>
       </c>
       <c r="P85">
-        <v>0.2151010986804525</v>
+        <v>0.771197464789219</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5262,49 +5253,49 @@
         <v>100</v>
       </c>
       <c r="B86">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
         <v>100</v>
       </c>
       <c r="E86" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86">
+        <v>4790.372978185585</v>
+      </c>
+      <c r="G86">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="H86" t="s">
         <v>189</v>
       </c>
-      <c r="F86">
-        <v>5076.841503918451</v>
-      </c>
-      <c r="G86">
-        <v>0.6148377121999999</v>
-      </c>
-      <c r="H86" t="s">
-        <v>206</v>
-      </c>
       <c r="I86">
-        <v>31490.56314555978</v>
+        <v>38234.2315498001</v>
       </c>
       <c r="J86">
-        <v>99478.68897682334</v>
+        <v>120781.9374658185</v>
       </c>
       <c r="K86">
-        <v>440.7964351245197</v>
+        <v>769.8449188411339</v>
       </c>
       <c r="L86">
-        <v>3.0421080001607</v>
+        <v>5.736054573095494</v>
       </c>
       <c r="M86">
-        <v>0.6298112629111956</v>
+        <v>0.7646846309960016</v>
       </c>
       <c r="N86">
-        <v>38733.39266903853</v>
+        <v>47028.10480625412</v>
       </c>
       <c r="O86">
-        <v>37.78867577467173</v>
+        <v>45.88107785976011</v>
       </c>
       <c r="P86">
-        <v>0.771197464789219</v>
+        <v>0.9363485277502064</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5312,49 +5303,49 @@
         <v>101</v>
       </c>
       <c r="B87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
         <v>101</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F87">
-        <v>4790.372978185585</v>
+        <v>4166.712099726148</v>
       </c>
       <c r="G87">
-        <v>0.6987738282666667</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="H87" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I87">
-        <v>38234.2315498001</v>
+        <v>9776.092428806747</v>
       </c>
       <c r="J87">
-        <v>120781.9374658185</v>
+        <v>30882.67598260051</v>
       </c>
       <c r="K87">
-        <v>769.8449188411339</v>
+        <v>160.2017891828102</v>
       </c>
       <c r="L87">
-        <v>5.736054573095494</v>
+        <v>0.9923407066750876</v>
       </c>
       <c r="M87">
-        <v>0.7646846309960016</v>
+        <v>0.1955218485761349</v>
       </c>
       <c r="N87">
-        <v>47028.10480625412</v>
+        <v>12024.5936874323</v>
       </c>
       <c r="O87">
-        <v>45.88107785976011</v>
+        <v>11.73131091456809</v>
       </c>
       <c r="P87">
-        <v>0.9363485277502064</v>
+        <v>0.2394145084605733</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5362,98 +5353,48 @@
         <v>102</v>
       </c>
       <c r="B88">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D88" t="s">
         <v>102</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F88">
-        <v>4166.712099726148</v>
+        <v>2039.020269248904</v>
       </c>
       <c r="G88">
-        <v>0.6997836170333334</v>
+        <v>0.6069551773999999</v>
       </c>
       <c r="H88" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I88">
-        <v>9776.092428806747</v>
+        <v>6400.667851646201</v>
       </c>
       <c r="J88">
-        <v>30882.67598260051</v>
+        <v>20219.70974335034</v>
       </c>
       <c r="K88">
-        <v>160.2017891828102</v>
+        <v>74.45919118876353</v>
       </c>
       <c r="L88">
-        <v>0.9923407066750876</v>
+        <v>0.782702814723709</v>
       </c>
       <c r="M88">
-        <v>0.1955218485761349</v>
+        <v>0.128013357032924</v>
       </c>
       <c r="N88">
-        <v>12024.5936874323</v>
+        <v>7872.821457524826</v>
       </c>
       <c r="O88">
-        <v>11.73131091456809</v>
+        <v>7.680801421975439</v>
       </c>
       <c r="P88">
-        <v>0.2394145084605733</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89">
-        <v>2039.020269248904</v>
-      </c>
-      <c r="G89">
-        <v>0.6069551773999999</v>
-      </c>
-      <c r="H89" t="s">
-        <v>195</v>
-      </c>
-      <c r="I89">
-        <v>6400.667851646201</v>
-      </c>
-      <c r="J89">
-        <v>20219.70974335034</v>
-      </c>
-      <c r="K89">
-        <v>74.45919118876353</v>
-      </c>
-      <c r="L89">
-        <v>0.782702814723709</v>
-      </c>
-      <c r="M89">
-        <v>0.128013357032924</v>
-      </c>
-      <c r="N89">
-        <v>7872.821457524826</v>
-      </c>
-      <c r="O89">
-        <v>7.680801421975439</v>
-      </c>
-      <c r="P89">
         <v>0.1567510494280702</v>
       </c>
     </row>

--- a/flights_without_transit.xlsx
+++ b/flights_without_transit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="209">
   <si>
     <t>icao</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>sulphates_kg</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
   <si>
     <t>OMAA</t>
@@ -992,13 +998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,22 +1053,28 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>4409</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>115.9503975433683</v>
@@ -1071,7 +1083,7 @@
         <v>0.5298962240333334</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I2">
         <v>466.9798063784019</v>
@@ -1097,22 +1109,28 @@
       <c r="P2">
         <v>0.01143624015620576</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>24.433</v>
+      </c>
+      <c r="R2">
+        <v>54.6511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>7598</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F3">
         <v>12218.28009329243</v>
@@ -1121,7 +1139,7 @@
         <v>0.7873938323333334</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I3">
         <v>117028.0017049689</v>
@@ -1147,22 +1165,28 @@
       <c r="P3">
         <v>2.865991878489035</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>-23.4262</v>
+      </c>
+      <c r="R3">
+        <v>-46.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>3480</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F4">
         <v>5856.254969396917</v>
@@ -1171,7 +1195,7 @@
         <v>0.6413424596666667</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I4">
         <v>52082.2739568423</v>
@@ -1197,22 +1221,28 @@
       <c r="P4">
         <v>1.275484260167566</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>40.0725</v>
+      </c>
+      <c r="R4">
+        <v>116.598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1229</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F5">
         <v>6543.695620028412</v>
@@ -1221,7 +1251,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I5">
         <v>52290.48021665723</v>
@@ -1247,22 +1277,28 @@
       <c r="P5">
         <v>1.280583188979361</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>-6.12556</v>
+      </c>
+      <c r="R5">
+        <v>106.656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>2631</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F6">
         <v>7949.365153523985</v>
@@ -1271,7 +1307,7 @@
         <v>0.6450283358000001</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I6">
         <v>72779.49778602773</v>
@@ -1297,22 +1333,28 @@
       <c r="P6">
         <v>1.782355047821087</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>35.5533</v>
+      </c>
+      <c r="R6">
+        <v>139.781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>2577</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F7">
         <v>3029.889751675834</v>
@@ -1321,7 +1363,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I7">
         <v>43186.28977364769</v>
@@ -1347,22 +1389,28 @@
       <c r="P7">
         <v>1.057623423028106</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>41.2753</v>
+      </c>
+      <c r="R7">
+        <v>28.7519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>2338</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8">
         <v>2187.213855509325</v>
@@ -1371,7 +1419,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I8">
         <v>7055.490811193191</v>
@@ -1397,22 +1445,28 @@
       <c r="P8">
         <v>0.1727875300700373</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>28.5665</v>
+      </c>
+      <c r="R8">
+        <v>77.1031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1973</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F9">
         <v>5245.251801383757</v>
@@ -1421,7 +1475,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I9">
         <v>40548.76393594968</v>
@@ -1447,22 +1501,28 @@
       <c r="P9">
         <v>0.9930309535334616</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>49.0097</v>
+      </c>
+      <c r="R9">
+        <v>2.54778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1899</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F10">
         <v>11021.83931136303</v>
@@ -1471,7 +1531,7 @@
         <v>0.7517421065333333</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I10">
         <v>145152.1821008488</v>
@@ -1497,22 +1557,28 @@
       <c r="P10">
         <v>3.554747316755479</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>40.6397</v>
+      </c>
+      <c r="R10">
+        <v>-73.77889999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>765</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11">
         <v>3548.47580472309</v>
@@ -1521,7 +1587,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I11">
         <v>20466.33671418775</v>
@@ -1547,22 +1613,28 @@
       <c r="P11">
         <v>0.5012164093270468</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>-1.31924</v>
+      </c>
+      <c r="R11">
+        <v>36.9278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>763</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F12">
         <v>3962.363941158238</v>
@@ -1571,7 +1643,7 @@
         <v>0.6069551773999999</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I12">
         <v>33170.71379135179</v>
@@ -1597,22 +1669,28 @@
       <c r="P12">
         <v>0.8123440112167786</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>-6.87811</v>
+      </c>
+      <c r="R12">
+        <v>39.2026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1771</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F13">
         <v>2133.488294911567</v>
@@ -1621,7 +1699,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I13">
         <v>4872.030601899196</v>
@@ -1647,22 +1725,28 @@
       <c r="P13">
         <v>0.1193150351485517</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>32.0114</v>
+      </c>
+      <c r="R13">
+        <v>34.8867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>700</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14">
         <v>5549.655176427877</v>
@@ -1671,7 +1755,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14">
         <v>46070.27327220616</v>
@@ -1697,22 +1781,28 @@
       <c r="P14">
         <v>1.128251590339743</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>2.74558</v>
+      </c>
+      <c r="R14">
+        <v>101.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>1719</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F15">
         <v>5504.809848245329</v>
@@ -1721,7 +1811,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I15">
         <v>75411.37149037281</v>
@@ -1747,22 +1837,28 @@
       <c r="P15">
         <v>1.846809097723416</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>51.4775</v>
+      </c>
+      <c r="R15">
+        <v>-0.461389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>1699</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16">
         <v>6740.321375341186</v>
@@ -1771,7 +1867,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I16">
         <v>72795.95575479206</v>
@@ -1797,22 +1893,28 @@
       <c r="P16">
         <v>1.782758100117356</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>37.4633</v>
+      </c>
+      <c r="R16">
+        <v>126.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>618</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F17">
         <v>6292.961751932336</v>
@@ -1821,7 +1923,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I17">
         <v>54031.75456968702</v>
@@ -1847,22 +1949,28 @@
       <c r="P17">
         <v>1.323226642522947</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>5.60519</v>
+      </c>
+      <c r="R17">
+        <v>-0.166786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>606</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F18">
         <v>3723.069355778457</v>
@@ -1871,7 +1979,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I18">
         <v>33978.02077865332</v>
@@ -1897,22 +2005,28 @@
       <c r="P18">
         <v>0.8321147945792651</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0.042386</v>
+      </c>
+      <c r="R18">
+        <v>32.4435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>1455</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F19">
         <v>3709.018587953252</v>
@@ -1921,7 +2035,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I19">
         <v>25626.87831084457</v>
@@ -1947,22 +2061,28 @@
       <c r="P19">
         <v>0.6275970198574179</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>55.9728</v>
+      </c>
+      <c r="R19">
+        <v>37.4147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>565</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F20">
         <v>2419.263662672012</v>
@@ -1971,7 +2091,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I20">
         <v>5733.192367720293</v>
@@ -1997,22 +2117,28 @@
       <c r="P20">
         <v>0.1404047110462113</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>30.1219</v>
+      </c>
+      <c r="R20">
+        <v>31.4056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1314</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F21">
         <v>4349.357994219783</v>
@@ -2021,7 +2147,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I21">
         <v>35374.00815159539</v>
@@ -2047,22 +2173,28 @@
       <c r="P21">
         <v>0.8663022404472343</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>41.8003</v>
+      </c>
+      <c r="R21">
+        <v>12.2389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>1154</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F22">
         <v>4615.811779554313</v>
@@ -2071,7 +2203,7 @@
         <v>0.7048325608666667</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I22">
         <v>14928.52961288913</v>
@@ -2097,22 +2229,28 @@
       <c r="P22">
         <v>0.3655966435809583</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>52.3514</v>
+      </c>
+      <c r="R22">
+        <v>13.4939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>445</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F23">
         <v>5355.398446407949</v>
@@ -2121,7 +2259,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I23">
         <v>38891.53097882292</v>
@@ -2147,22 +2285,28 @@
       <c r="P23">
         <v>0.9524456566242346</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>-15.3308</v>
+      </c>
+      <c r="R23">
+        <v>28.4526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>444</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F24">
         <v>2024.027070811464</v>
@@ -2171,7 +2315,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I24">
         <v>5543.349293667503</v>
@@ -2197,22 +2341,28 @@
       <c r="P24">
         <v>0.1357554929061429</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>31.7226</v>
+      </c>
+      <c r="R24">
+        <v>35.9932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>442</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F25">
         <v>1397.800079438805</v>
@@ -2221,7 +2371,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I25">
         <v>4554.152639552325</v>
@@ -2247,22 +2397,28 @@
       <c r="P25">
         <v>0.1115302687237304</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>33.2625</v>
+      </c>
+      <c r="R25">
+        <v>44.2346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>426</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26">
         <v>874.4948200511059</v>
@@ -2271,7 +2427,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I26">
         <v>5839.876918140762</v>
@@ -2297,22 +2453,28 @@
       <c r="P26">
         <v>0.1430173939136513</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>24.9578</v>
+      </c>
+      <c r="R26">
+        <v>46.6989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>1011</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27">
         <v>6389.737587068435</v>
@@ -2321,7 +2483,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I27">
         <v>55958.11085639045</v>
@@ -2347,22 +2509,28 @@
       <c r="P27">
         <v>1.370402714850378</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>-26.1392</v>
+      </c>
+      <c r="R27">
+        <v>28.246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>996</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28">
         <v>12038.86144273792</v>
@@ -2371,7 +2539,7 @@
         <v>0.6385780525666667</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I28">
         <v>120788.2398253462</v>
@@ -2397,22 +2565,28 @@
       <c r="P28">
         <v>2.958079342661539</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>-33.9461</v>
+      </c>
+      <c r="R28">
+        <v>151.177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>403</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29">
         <v>3173.831734839541</v>
@@ -2421,7 +2595,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I29">
         <v>10037.61272331504</v>
@@ -2447,22 +2621,28 @@
       <c r="P29">
         <v>0.2458190871015929</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>51.0222</v>
+      </c>
+      <c r="R29">
+        <v>71.4669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>977</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F30">
         <v>5153.319825418274</v>
@@ -2471,7 +2651,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I30">
         <v>39510.12253171321</v>
@@ -2497,22 +2677,28 @@
       <c r="P30">
         <v>0.9675948375113439</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>50.9014</v>
+      </c>
+      <c r="R30">
+        <v>4.48444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>380</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F31">
         <v>348.5265608189779</v>
@@ -2521,7 +2707,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I31">
         <v>4055.943813011612</v>
@@ -2547,22 +2733,28 @@
       <c r="P31">
         <v>0.09932923623701906</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>23.5933</v>
+      </c>
+      <c r="R31">
+        <v>58.2844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>377</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F32">
         <v>5152.397818559508</v>
@@ -2571,7 +2763,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I32">
         <v>48471.15578535611</v>
@@ -2597,22 +2789,28 @@
       <c r="P32">
         <v>1.187048713110762</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>21.2212</v>
+      </c>
+      <c r="R32">
+        <v>105.807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>366</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F33">
         <v>2788.756114086932</v>
@@ -2621,7 +2819,7 @@
         <v>0.6122102006</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I33">
         <v>14440.20797158322</v>
@@ -2647,22 +2845,28 @@
       <c r="P33">
         <v>0.3536377462428541</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>2.01444</v>
+      </c>
+      <c r="R33">
+        <v>45.3047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F34">
         <v>5846.919986864199</v>
@@ -2671,7 +2875,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I34">
         <v>44007.99498257568</v>
@@ -2697,22 +2901,28 @@
       <c r="P34">
         <v>1.077746815899812</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>1.35019</v>
+      </c>
+      <c r="R34">
+        <v>103.994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F35">
         <v>6915.22964462913</v>
@@ -2721,7 +2931,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I35">
         <v>59954.74120228724</v>
@@ -2747,22 +2957,28 @@
       <c r="P35">
         <v>1.468279376382545</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>14.5086</v>
+      </c>
+      <c r="R35">
+        <v>121.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>312</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F36">
         <v>1758.310554468182</v>
@@ -2771,7 +2987,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I36">
         <v>6074.689123925982</v>
@@ -2797,22 +3013,28 @@
       <c r="P36">
         <v>0.148767896912473</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>40.4675</v>
+      </c>
+      <c r="R36">
+        <v>50.0467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>298</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F37">
         <v>2192.081291234527</v>
@@ -2821,7 +3043,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I37">
         <v>13891.40789117897</v>
@@ -2847,22 +3069,28 @@
       <c r="P37">
         <v>0.3401977442737707</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>41.2579</v>
+      </c>
+      <c r="R37">
+        <v>69.2812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>293</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F38">
         <v>4909.055102355495</v>
@@ -2871,7 +3099,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I38">
         <v>38861.08175405536</v>
@@ -2897,22 +3125,28 @@
       <c r="P38">
         <v>0.9516999613238044</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>13.6811</v>
+      </c>
+      <c r="R38">
+        <v>100.747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>290</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F39">
         <v>5923.617457828617</v>
@@ -2921,7 +3155,7 @@
         <v>0.6078310146</v>
       </c>
       <c r="H39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I39">
         <v>55414.02905754787</v>
@@ -2947,22 +3181,28 @@
       <c r="P39">
         <v>1.357078262633825</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>-8.858370000000001</v>
+      </c>
+      <c r="R39">
+        <v>13.2312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>710</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F40">
         <v>3275.593150332669</v>
@@ -2971,7 +3211,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I40">
         <v>26888.28390362976</v>
@@ -2997,22 +3237,28 @@
       <c r="P40">
         <v>0.6584885853950145</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>37.9364</v>
+      </c>
+      <c r="R40">
+        <v>23.9445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F41">
         <v>854.3229666268791</v>
@@ -3021,7 +3267,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I41">
         <v>9642.37813545332</v>
@@ -3047,22 +3293,28 @@
       <c r="P41">
         <v>0.2361398727049792</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>29.2266</v>
+      </c>
+      <c r="R41">
+        <v>47.9689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F42">
         <v>2514.649386881819</v>
@@ -3071,7 +3323,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I42">
         <v>24058.50779562063</v>
@@ -3097,22 +3349,28 @@
       <c r="P42">
         <v>0.589187946015199</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>8.977779999999999</v>
+      </c>
+      <c r="R42">
+        <v>38.7994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>668</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F43">
         <v>4821.316738145491</v>
@@ -3121,7 +3379,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I43">
         <v>40996.87833958282</v>
@@ -3147,22 +3405,28 @@
       <c r="P43">
         <v>1.004005183826518</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>55.6179</v>
+      </c>
+      <c r="R43">
+        <v>12.656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>264</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F44">
         <v>378.3820333775132</v>
@@ -3171,7 +3435,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H44" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I44">
         <v>2003.073409529189</v>
@@ -3197,22 +3461,28 @@
       <c r="P44">
         <v>0.0490548590088781</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>25.2731</v>
+      </c>
+      <c r="R44">
+        <v>51.6081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>626</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F45">
         <v>4786.526838419995</v>
@@ -3221,7 +3491,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I45">
         <v>42193.379753624</v>
@@ -3247,22 +3517,28 @@
       <c r="P45">
         <v>1.033307259272424</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>59.6519</v>
+      </c>
+      <c r="R45">
+        <v>17.9186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>607</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F46">
         <v>5658.302680814584</v>
@@ -3271,7 +3547,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I46">
         <v>46417.39414526589</v>
@@ -3297,22 +3573,28 @@
       <c r="P46">
         <v>1.136752509679981</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>40.4719</v>
+      </c>
+      <c r="R46">
+        <v>-3.56264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F47">
         <v>2995.756300767673</v>
@@ -3321,7 +3603,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I47">
         <v>9156.410365895263</v>
@@ -3347,22 +3629,28 @@
       <c r="P47">
         <v>0.2242386212055982</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>27.6966</v>
+      </c>
+      <c r="R47">
+        <v>85.3591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>587</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F48">
         <v>4537.373869400612</v>
@@ -3371,7 +3659,7 @@
         <v>0.6997836170333334</v>
       </c>
       <c r="H48" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I48">
         <v>11160.59641453068</v>
@@ -3397,22 +3685,28 @@
       <c r="P48">
         <v>0.2733207285191187</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>60.3172</v>
+      </c>
+      <c r="R48">
+        <v>24.9633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>238</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F49">
         <v>1926.983005777511</v>
@@ -3421,7 +3715,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I49">
         <v>19282.05855396539</v>
@@ -3447,22 +3741,28 @@
       <c r="P49">
         <v>0.4722136788726217</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>33.5607</v>
+      </c>
+      <c r="R49">
+        <v>72.8516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50">
         <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F50">
         <v>3497.273675198606</v>
@@ -3471,7 +3771,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I50">
         <v>8439.818709618816</v>
@@ -3497,22 +3797,28 @@
       <c r="P50">
         <v>0.2066894377865832</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>42.6967</v>
+      </c>
+      <c r="R50">
+        <v>23.4114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F51">
         <v>3285.245755639002</v>
@@ -3521,7 +3827,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I51">
         <v>9938.097261424231</v>
@@ -3547,22 +3853,28 @@
       <c r="P51">
         <v>0.2433819737491648</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>7.18076</v>
+      </c>
+      <c r="R51">
+        <v>79.8841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F52">
         <v>4058.358801134944</v>
@@ -3571,7 +3883,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I52">
         <v>26776.62289742479</v>
@@ -3597,22 +3909,28 @@
       <c r="P52">
         <v>0.6557540301410153</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>-1.96863</v>
+      </c>
+      <c r="R52">
+        <v>30.1395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F53">
         <v>4451.568919838058</v>
@@ -3621,7 +3939,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I53">
         <v>34848.32284841596</v>
@@ -3647,22 +3965,28 @@
       <c r="P53">
         <v>0.8534283146550847</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>36.851</v>
+      </c>
+      <c r="R53">
+        <v>10.2272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F54">
         <v>487.7687986788414</v>
@@ -3671,7 +3995,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I54">
         <v>6266.039789383753</v>
@@ -3697,22 +4021,28 @@
       <c r="P54">
         <v>0.1534540356583776</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>26.2708</v>
+      </c>
+      <c r="R54">
+        <v>50.6336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>528</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F55">
         <v>5174.013327477973</v>
@@ -3721,7 +4051,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H55" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I55">
         <v>39969.66356473222</v>
@@ -3747,22 +4077,28 @@
       <c r="P55">
         <v>0.978848903626095</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>52.3086</v>
+      </c>
+      <c r="R55">
+        <v>4.76389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>520</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F56">
         <v>6148.629185201377</v>
@@ -3771,7 +4107,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I56">
         <v>50885.12793139396</v>
@@ -3797,22 +4133,28 @@
       <c r="P56">
         <v>1.246166398319852</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>38.7813</v>
+      </c>
+      <c r="R56">
+        <v>-9.13592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57">
         <v>451</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F57">
         <v>5140.270652699632</v>
@@ -3821,7 +4163,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I57">
         <v>45351.61952464518</v>
@@ -3847,22 +4189,28 @@
       <c r="P57">
         <v>1.110651906726004</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>60.1939</v>
+      </c>
+      <c r="R57">
+        <v>11.1004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F58">
         <v>2142.676062220869</v>
@@ -3871,7 +4219,7 @@
         <v>0.5245896810666667</v>
       </c>
       <c r="H58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I58">
         <v>7918.290229706974</v>
@@ -3897,22 +4245,28 @@
       <c r="P58">
         <v>0.1939173117479259</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>33.8209</v>
+      </c>
+      <c r="R58">
+        <v>35.4884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59">
         <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F59">
         <v>3394.714651416399</v>
@@ -3921,7 +4275,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I59">
         <v>9542.584277205944</v>
@@ -3947,22 +4301,28 @@
       <c r="P59">
         <v>0.2336959414825945</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>4.87201</v>
+      </c>
+      <c r="R59">
+        <v>31.6011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>367</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F60">
         <v>4157.10634709943</v>
@@ -3971,7 +4331,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I60">
         <v>34609.44465013338</v>
@@ -3997,22 +4357,28 @@
       <c r="P60">
         <v>0.847578236329797</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>52.1657</v>
+      </c>
+      <c r="R60">
+        <v>20.9671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F61">
         <v>3542.905550034026</v>
@@ -4021,7 +4387,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I61">
         <v>34865.90080128709</v>
@@ -4047,22 +4413,28 @@
       <c r="P61">
         <v>0.8538587951335612</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>23.8433</v>
+      </c>
+      <c r="R61">
+        <v>90.3978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62">
         <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F62">
         <v>5926.323546573898</v>
@@ -4071,7 +4443,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I62">
         <v>48847.55323703054</v>
@@ -4097,22 +4469,28 @@
       <c r="P62">
         <v>1.196266609886462</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>53.4213</v>
+      </c>
+      <c r="R62">
+        <v>-6.27007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63">
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F63">
         <v>3310.975061295877</v>
@@ -4121,7 +4499,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I63">
         <v>27362.43238027314</v>
@@ -4147,22 +4525,28 @@
       <c r="P63">
         <v>0.6701003848230155</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>-4.67434</v>
+      </c>
+      <c r="R63">
+        <v>55.5218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64">
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F64">
         <v>1943.052710065926</v>
@@ -4171,7 +4555,7 @@
         <v>0.6385780525666667</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I64">
         <v>6852.037840429583</v>
@@ -4197,22 +4581,28 @@
       <c r="P64">
         <v>0.167805008337051</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>38.5433</v>
+      </c>
+      <c r="R64">
+        <v>68.825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F65">
         <v>4226.079272716002</v>
@@ -4221,7 +4611,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I65">
         <v>56176.18005447517</v>
@@ -4247,22 +4637,28 @@
       <c r="P65">
         <v>1.375743185007555</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>48.1103</v>
+      </c>
+      <c r="R65">
+        <v>16.5697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>284</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F66">
         <v>4999.934295476166</v>
@@ -4271,7 +4667,7 @@
         <v>0.7018031945666666</v>
       </c>
       <c r="H66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I66">
         <v>14473.09251679819</v>
@@ -4297,22 +4693,28 @@
       <c r="P66">
         <v>0.3544430820440373</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>49.6233</v>
+      </c>
+      <c r="R66">
+        <v>6.20444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F67">
         <v>5410.958478050406</v>
@@ -4321,7 +4723,7 @@
         <v>0.6394995216</v>
       </c>
       <c r="H67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I67">
         <v>46500.96747601601</v>
@@ -4347,22 +4749,28 @@
       <c r="P67">
         <v>1.13879920349427</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>11.5466</v>
+      </c>
+      <c r="R67">
+        <v>104.844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68">
         <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F68">
         <v>3395.956728747976</v>
@@ -4371,7 +4779,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H68" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I68">
         <v>8147.357014123172</v>
@@ -4397,22 +4805,28 @@
       <c r="P68">
         <v>0.1995271105499553</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>44.5711</v>
+      </c>
+      <c r="R68">
+        <v>26.085</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F69">
         <v>1942.165193943087</v>
@@ -4421,7 +4835,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H69" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I69">
         <v>6368.373580578077</v>
@@ -4447,22 +4861,28 @@
       <c r="P69">
         <v>0.1559601693202794</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>40.1473</v>
+      </c>
+      <c r="R69">
+        <v>44.3959</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F70">
         <v>4011.001895984378</v>
@@ -4471,7 +4891,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I70">
         <v>32777.21189450606</v>
@@ -4497,22 +4917,28 @@
       <c r="P70">
         <v>0.8027072300695363</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>47.4298</v>
+      </c>
+      <c r="R70">
+        <v>19.2611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F71">
         <v>1988.305231491353</v>
@@ -4521,7 +4947,7 @@
         <v>0.6078310146</v>
       </c>
       <c r="H71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I71">
         <v>6753.90120629683</v>
@@ -4547,22 +4973,28 @@
       <c r="P71">
         <v>0.1654016621950244</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>11.5473</v>
+      </c>
+      <c r="R71">
+        <v>43.1595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F72">
         <v>1220.288260261259</v>
@@ -4571,7 +5003,7 @@
         <v>0.5261058362000001</v>
       </c>
       <c r="H72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I72">
         <v>4038.085151282208</v>
@@ -4597,22 +5029,28 @@
       <c r="P72">
         <v>0.09889188125589081</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>35.6892</v>
+      </c>
+      <c r="R72">
+        <v>51.3134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F73">
         <v>3033.748862710535</v>
@@ -4621,7 +5059,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I73">
         <v>24099.43141678929</v>
@@ -4647,22 +5085,28 @@
       <c r="P73">
         <v>0.5901901571458603</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>4.19183</v>
+      </c>
+      <c r="R73">
+        <v>73.5291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F74">
         <v>4467.175522335179</v>
@@ -4671,7 +5115,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I74">
         <v>36873.26924792145</v>
@@ -4697,22 +5141,28 @@
       <c r="P74">
         <v>0.903018838724607</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>50.1008</v>
+      </c>
+      <c r="R74">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75">
         <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F75">
         <v>2058.222099325025</v>
@@ -4721,7 +5171,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I75">
         <v>5543.150945394326</v>
@@ -4747,22 +5197,28 @@
       <c r="P75">
         <v>0.1357506353974121</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>41.6692</v>
+      </c>
+      <c r="R75">
+        <v>44.9547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76">
         <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F76">
         <v>5060.276656340373</v>
@@ -4771,7 +5227,7 @@
         <v>0.6060793402</v>
       </c>
       <c r="H76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I76">
         <v>67405.56933532702</v>
@@ -4797,22 +5253,28 @@
       <c r="P76">
         <v>1.650748636783519</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>-20.4302</v>
+      </c>
+      <c r="R76">
+        <v>57.6836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F77">
         <v>4302.14030831915</v>
@@ -4821,7 +5283,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I77">
         <v>9996.998919933161</v>
@@ -4847,22 +5309,28 @@
       <c r="P77">
         <v>0.2448244633453019</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>46.2237</v>
+      </c>
+      <c r="R77">
+        <v>14.4576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78">
         <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F78">
         <v>4773.283196580763</v>
@@ -4871,7 +5339,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I78">
         <v>30290.60310063492</v>
@@ -4897,22 +5365,28 @@
       <c r="P78">
         <v>0.7418106881788145</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>47.4647</v>
+      </c>
+      <c r="R78">
+        <v>8.54917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79">
         <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F79">
         <v>4184.725593262381</v>
@@ -4921,7 +5395,7 @@
         <v>0.7149630222580645</v>
       </c>
       <c r="H79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I79">
         <v>9641.955781204655</v>
@@ -4947,22 +5421,28 @@
       <c r="P79">
         <v>0.2361295293356242</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>48.1702</v>
+      </c>
+      <c r="R79">
+        <v>17.2127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80">
         <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F80">
         <v>3901.615013086867</v>
@@ -4971,7 +5451,7 @@
         <v>0.6376565835333333</v>
       </c>
       <c r="H80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I80">
         <v>12060.6967687249</v>
@@ -4997,22 +5477,28 @@
       <c r="P80">
         <v>0.2953640024993853</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>53.8825</v>
+      </c>
+      <c r="R80">
+        <v>28.0307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81">
         <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F81">
         <v>3927.00487646895</v>
@@ -5021,7 +5507,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H81" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I81">
         <v>11673.78845867914</v>
@@ -5047,22 +5533,28 @@
       <c r="P81">
         <v>0.2858886969472443</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>43.8246</v>
+      </c>
+      <c r="R81">
+        <v>18.3315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B82">
         <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F82">
         <v>4319.755726612008</v>
@@ -5071,7 +5563,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I82">
         <v>12562.64959455429</v>
@@ -5097,22 +5589,28 @@
       <c r="P82">
         <v>0.3076567247645948</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>56.9236</v>
+      </c>
+      <c r="R82">
+        <v>23.9711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83">
         <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F83">
         <v>3819.387206090362</v>
@@ -5121,7 +5619,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I83">
         <v>10900.73325589083</v>
@@ -5147,22 +5645,28 @@
       <c r="P83">
         <v>0.2669567327973263</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>44.8184</v>
+      </c>
+      <c r="R83">
+        <v>20.3091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F84">
         <v>3734.448998311077</v>
@@ -5171,7 +5675,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H84" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I84">
         <v>8783.294862785146</v>
@@ -5197,22 +5701,28 @@
       <c r="P84">
         <v>0.2151010986804525</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>41.4147</v>
+      </c>
+      <c r="R84">
+        <v>19.7206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85">
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F85">
         <v>5076.841503918451</v>
@@ -5221,7 +5731,7 @@
         <v>0.6148377121999999</v>
       </c>
       <c r="H85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I85">
         <v>31490.56314555978</v>
@@ -5247,22 +5757,28 @@
       <c r="P85">
         <v>0.771197464789219</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>36.691</v>
+      </c>
+      <c r="R85">
+        <v>3.21541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86">
         <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F86">
         <v>4790.372978185585</v>
@@ -5271,7 +5787,7 @@
         <v>0.6987738282666667</v>
       </c>
       <c r="H86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I86">
         <v>38234.2315498001</v>
@@ -5297,22 +5813,28 @@
       <c r="P86">
         <v>0.9363485277502064</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>43.6584</v>
+      </c>
+      <c r="R86">
+        <v>7.21587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87">
         <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F87">
         <v>4166.712099726148</v>
@@ -5321,7 +5843,7 @@
         <v>0.6997836170333334</v>
       </c>
       <c r="H87" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I87">
         <v>9776.092428806747</v>
@@ -5347,22 +5869,28 @@
       <c r="P87">
         <v>0.2394145084605733</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>45.7429</v>
+      </c>
+      <c r="R87">
+        <v>16.0688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F88">
         <v>2039.020269248904</v>
@@ -5371,7 +5899,7 @@
         <v>0.6069551773999999</v>
       </c>
       <c r="H88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I88">
         <v>6400.667851646201</v>
@@ -5396,6 +5924,12 @@
       </c>
       <c r="P88">
         <v>0.1567510494280702</v>
+      </c>
+      <c r="Q88">
+        <v>15.2919</v>
+      </c>
+      <c r="R88">
+        <v>38.9107</v>
       </c>
     </row>
   </sheetData>

--- a/flights_without_transit.xlsx
+++ b/flights_without_transit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="214">
   <si>
     <t>icao</t>
   </si>
@@ -70,577 +70,592 @@
     <t>longitude</t>
   </si>
   <si>
+    <t>DAAG</t>
+  </si>
+  <si>
+    <t>DGAA</t>
+  </si>
+  <si>
+    <t>DTTA</t>
+  </si>
+  <si>
+    <t>EBBR</t>
+  </si>
+  <si>
+    <t>EDDB</t>
+  </si>
+  <si>
+    <t>EFHK</t>
+  </si>
+  <si>
+    <t>EGLL</t>
+  </si>
+  <si>
+    <t>EHAM</t>
+  </si>
+  <si>
+    <t>EIDW</t>
+  </si>
+  <si>
+    <t>EKCH</t>
+  </si>
+  <si>
+    <t>ELLX</t>
+  </si>
+  <si>
+    <t>ENGM</t>
+  </si>
+  <si>
+    <t>EPWA</t>
+  </si>
+  <si>
+    <t>ESSA</t>
+  </si>
+  <si>
+    <t>EVRA</t>
+  </si>
+  <si>
+    <t>FAOR</t>
+  </si>
+  <si>
+    <t>FIMP</t>
+  </si>
+  <si>
+    <t>FLLS</t>
+  </si>
+  <si>
+    <t>FNLU</t>
+  </si>
+  <si>
+    <t>FSIA</t>
+  </si>
+  <si>
+    <t>HAAB</t>
+  </si>
+  <si>
+    <t>HCMM</t>
+  </si>
+  <si>
+    <t>HDAM</t>
+  </si>
+  <si>
+    <t>HECA</t>
+  </si>
+  <si>
+    <t>HHAS</t>
+  </si>
+  <si>
+    <t>HJJJ</t>
+  </si>
+  <si>
+    <t>HKJK</t>
+  </si>
+  <si>
+    <t>HRYR</t>
+  </si>
+  <si>
+    <t>HTDA</t>
+  </si>
+  <si>
+    <t>HUEN</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>LATI</t>
+  </si>
+  <si>
+    <t>LBSF</t>
+  </si>
+  <si>
+    <t>LDZA</t>
+  </si>
+  <si>
+    <t>LEMD</t>
+  </si>
+  <si>
+    <t>LFMN</t>
+  </si>
+  <si>
+    <t>LFPG</t>
+  </si>
+  <si>
+    <t>LGAV</t>
+  </si>
+  <si>
+    <t>LHBP</t>
+  </si>
+  <si>
+    <t>LIRF</t>
+  </si>
+  <si>
+    <t>LJLJ</t>
+  </si>
+  <si>
+    <t>LKPR</t>
+  </si>
+  <si>
+    <t>LLBG</t>
+  </si>
+  <si>
+    <t>LOWW</t>
+  </si>
+  <si>
+    <t>LPPT</t>
+  </si>
+  <si>
+    <t>LQSA</t>
+  </si>
+  <si>
+    <t>LROP</t>
+  </si>
+  <si>
+    <t>LSZH</t>
+  </si>
+  <si>
+    <t>LTFM</t>
+  </si>
+  <si>
+    <t>LYBE</t>
+  </si>
+  <si>
+    <t>LZIB</t>
+  </si>
+  <si>
+    <t>OBBI</t>
+  </si>
+  <si>
+    <t>OERK</t>
+  </si>
+  <si>
+    <t>OIII</t>
+  </si>
+  <si>
+    <t>OJAI</t>
+  </si>
+  <si>
+    <t>OKBK</t>
+  </si>
+  <si>
+    <t>OLBA</t>
+  </si>
+  <si>
     <t>OMAA</t>
   </si>
   <si>
+    <t>OOMS</t>
+  </si>
+  <si>
+    <t>OPIS</t>
+  </si>
+  <si>
+    <t>ORBI</t>
+  </si>
+  <si>
+    <t>OTHH</t>
+  </si>
+  <si>
+    <t>RJTT</t>
+  </si>
+  <si>
+    <t>RKSI</t>
+  </si>
+  <si>
+    <t>RPLL</t>
+  </si>
+  <si>
     <t>SBGR</t>
   </si>
   <si>
+    <t>UACC</t>
+  </si>
+  <si>
+    <t>UBBB</t>
+  </si>
+  <si>
+    <t>UDYZ</t>
+  </si>
+  <si>
+    <t>UGTB</t>
+  </si>
+  <si>
+    <t>UMMS</t>
+  </si>
+  <si>
+    <t>UTDD</t>
+  </si>
+  <si>
+    <t>UTTT</t>
+  </si>
+  <si>
+    <t>UUEE</t>
+  </si>
+  <si>
+    <t>VCBI</t>
+  </si>
+  <si>
+    <t>VDPP</t>
+  </si>
+  <si>
+    <t>VGHS</t>
+  </si>
+  <si>
+    <t>VIDP</t>
+  </si>
+  <si>
+    <t>VNKT</t>
+  </si>
+  <si>
+    <t>VRMM</t>
+  </si>
+  <si>
+    <t>VTBS</t>
+  </si>
+  <si>
+    <t>VVNB</t>
+  </si>
+  <si>
+    <t>WIII</t>
+  </si>
+  <si>
+    <t>WMKK</t>
+  </si>
+  <si>
+    <t>WSSS</t>
+  </si>
+  <si>
+    <t>YSSY</t>
+  </si>
+  <si>
     <t>ZBAA</t>
   </si>
   <si>
-    <t>WIII</t>
-  </si>
-  <si>
-    <t>RJTT</t>
-  </si>
-  <si>
-    <t>LTFM</t>
-  </si>
-  <si>
-    <t>VIDP</t>
-  </si>
-  <si>
-    <t>LFPG</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>HKJK</t>
-  </si>
-  <si>
-    <t>HTDA</t>
-  </si>
-  <si>
-    <t>LLBG</t>
-  </si>
-  <si>
-    <t>WMKK</t>
-  </si>
-  <si>
-    <t>EGLL</t>
-  </si>
-  <si>
-    <t>RKSI</t>
-  </si>
-  <si>
-    <t>DGAA</t>
-  </si>
-  <si>
-    <t>HUEN</t>
-  </si>
-  <si>
-    <t>UUEE</t>
-  </si>
-  <si>
-    <t>HECA</t>
-  </si>
-  <si>
-    <t>LIRF</t>
-  </si>
-  <si>
-    <t>EDDB</t>
-  </si>
-  <si>
-    <t>FLLS</t>
-  </si>
-  <si>
-    <t>OJAI</t>
-  </si>
-  <si>
-    <t>ORBI</t>
-  </si>
-  <si>
-    <t>OERK</t>
-  </si>
-  <si>
-    <t>FAOR</t>
-  </si>
-  <si>
-    <t>YSSY</t>
-  </si>
-  <si>
-    <t>UACC</t>
-  </si>
-  <si>
-    <t>EBBR</t>
-  </si>
-  <si>
-    <t>OOMS</t>
-  </si>
-  <si>
-    <t>VVNB</t>
-  </si>
-  <si>
-    <t>HCMM</t>
-  </si>
-  <si>
-    <t>WSSS</t>
-  </si>
-  <si>
-    <t>RPLL</t>
-  </si>
-  <si>
-    <t>UBBB</t>
-  </si>
-  <si>
-    <t>UTTT</t>
-  </si>
-  <si>
-    <t>VTBS</t>
-  </si>
-  <si>
-    <t>FNLU</t>
-  </si>
-  <si>
-    <t>LGAV</t>
-  </si>
-  <si>
-    <t>OKBK</t>
-  </si>
-  <si>
-    <t>HAAB</t>
-  </si>
-  <si>
-    <t>EKCH</t>
-  </si>
-  <si>
-    <t>OTHH</t>
-  </si>
-  <si>
-    <t>ESSA</t>
-  </si>
-  <si>
-    <t>LEMD</t>
-  </si>
-  <si>
-    <t>VNKT</t>
-  </si>
-  <si>
-    <t>EFHK</t>
-  </si>
-  <si>
-    <t>OPIS</t>
-  </si>
-  <si>
-    <t>LBSF</t>
-  </si>
-  <si>
-    <t>VCBI</t>
-  </si>
-  <si>
-    <t>HRYR</t>
-  </si>
-  <si>
-    <t>DTTA</t>
-  </si>
-  <si>
-    <t>OBBI</t>
-  </si>
-  <si>
-    <t>EHAM</t>
-  </si>
-  <si>
-    <t>LPPT</t>
-  </si>
-  <si>
-    <t>ENGM</t>
-  </si>
-  <si>
-    <t>OLBA</t>
-  </si>
-  <si>
-    <t>HJJJ</t>
-  </si>
-  <si>
-    <t>EPWA</t>
-  </si>
-  <si>
-    <t>VGHS</t>
-  </si>
-  <si>
-    <t>EIDW</t>
-  </si>
-  <si>
-    <t>FSIA</t>
-  </si>
-  <si>
-    <t>UTDD</t>
-  </si>
-  <si>
-    <t>LOWW</t>
-  </si>
-  <si>
-    <t>ELLX</t>
-  </si>
-  <si>
-    <t>VDPP</t>
-  </si>
-  <si>
-    <t>LROP</t>
-  </si>
-  <si>
-    <t>UDYZ</t>
-  </si>
-  <si>
-    <t>LHBP</t>
-  </si>
-  <si>
-    <t>HDAM</t>
-  </si>
-  <si>
-    <t>OIII</t>
-  </si>
-  <si>
-    <t>VRMM</t>
-  </si>
-  <si>
-    <t>LKPR</t>
-  </si>
-  <si>
-    <t>UGTB</t>
-  </si>
-  <si>
-    <t>FIMP</t>
-  </si>
-  <si>
-    <t>LJLJ</t>
-  </si>
-  <si>
-    <t>LSZH</t>
-  </si>
-  <si>
-    <t>LZIB</t>
-  </si>
-  <si>
-    <t>UMMS</t>
-  </si>
-  <si>
-    <t>LQSA</t>
-  </si>
-  <si>
-    <t>EVRA</t>
-  </si>
-  <si>
-    <t>LYBE</t>
-  </si>
-  <si>
-    <t>LATI</t>
-  </si>
-  <si>
-    <t>DAAG</t>
-  </si>
-  <si>
-    <t>LFMN</t>
-  </si>
-  <si>
-    <t>LDZA</t>
-  </si>
-  <si>
-    <t>HHAS</t>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>LB</t>
   </si>
   <si>
     <t>AE</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
     <t>BR</t>
   </si>
   <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
     <t>CN</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>KE</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>UG</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>JO</t>
-  </si>
-  <si>
-    <t>IQ</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>KZ</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>UZ</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>MV</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>OMDB</t>
   </si>
   <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>B77L</t>
+  </si>
+  <si>
+    <t>B38M</t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>B738</t>
+  </si>
+  <si>
+    <t>A20N</t>
+  </si>
+  <si>
+    <t>B77W</t>
+  </si>
+  <si>
+    <t>BCS3</t>
+  </si>
+  <si>
+    <t>B733</t>
+  </si>
+  <si>
+    <t>B734</t>
+  </si>
+  <si>
+    <t>B39M</t>
+  </si>
+  <si>
+    <t>A333</t>
+  </si>
+  <si>
+    <t>A388</t>
+  </si>
+  <si>
+    <t>B789</t>
+  </si>
+  <si>
+    <t>FA7X</t>
+  </si>
+  <si>
+    <t>CRJ2</t>
+  </si>
+  <si>
+    <t>A19N</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>E75S</t>
+  </si>
+  <si>
+    <t>A21N</t>
+  </si>
+  <si>
     <t>DH8D</t>
   </si>
   <si>
-    <t>B77W</t>
-  </si>
-  <si>
-    <t>B77L</t>
-  </si>
-  <si>
-    <t>A388</t>
-  </si>
-  <si>
-    <t>B738</t>
-  </si>
-  <si>
-    <t>B788</t>
-  </si>
-  <si>
-    <t>B38M</t>
+    <t>G280</t>
   </si>
   <si>
     <t>A359</t>
-  </si>
-  <si>
-    <t>A20N</t>
-  </si>
-  <si>
-    <t>A321</t>
-  </si>
-  <si>
-    <t>A310</t>
-  </si>
-  <si>
-    <t>A21N</t>
-  </si>
-  <si>
-    <t>B734</t>
-  </si>
-  <si>
-    <t>A320</t>
-  </si>
-  <si>
-    <t>B763</t>
-  </si>
-  <si>
-    <t>A332</t>
-  </si>
-  <si>
-    <t>B39M</t>
-  </si>
-  <si>
-    <t>A333</t>
-  </si>
-  <si>
-    <t>BCS3</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1080,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>4409</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -1077,43 +1092,43 @@
         <v>189</v>
       </c>
       <c r="F2">
-        <v>115.9503975433683</v>
+        <v>5076.841503918451</v>
       </c>
       <c r="G2">
-        <v>0.5298962240333334</v>
+        <v>0.6253477592</v>
       </c>
       <c r="H2" t="s">
         <v>190</v>
       </c>
       <c r="I2">
-        <v>466.9798063784019</v>
+        <v>28026.93411139955</v>
       </c>
       <c r="J2">
-        <v>1475.189208349371</v>
+        <v>88537.08485791119</v>
       </c>
       <c r="K2">
-        <v>7.070074268569003</v>
+        <v>377.908844592301</v>
       </c>
       <c r="L2">
-        <v>0.2428294993167689</v>
+        <v>2.433629249787046</v>
       </c>
       <c r="M2">
-        <v>0.009339596127568033</v>
+        <v>0.560538682227991</v>
       </c>
       <c r="N2">
-        <v>574.3851618454341</v>
+        <v>34473.12895702146</v>
       </c>
       <c r="O2">
-        <v>0.560375767654082</v>
+        <v>33.63232093367947</v>
       </c>
       <c r="P2">
-        <v>0.01143624015620576</v>
+        <v>0.6863738966057034</v>
       </c>
       <c r="Q2">
-        <v>24.433</v>
+        <v>36.691</v>
       </c>
       <c r="R2">
-        <v>54.6511</v>
+        <v>3.21541</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1121,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>7598</v>
+        <v>618</v>
       </c>
       <c r="C3" t="s">
         <v>106</v>
@@ -1133,43 +1148,43 @@
         <v>189</v>
       </c>
       <c r="F3">
-        <v>12218.28009329243</v>
+        <v>6292.961751932336</v>
       </c>
       <c r="G3">
-        <v>0.7873938323333334</v>
+        <v>0.6232853037419355</v>
       </c>
       <c r="H3" t="s">
         <v>191</v>
       </c>
       <c r="I3">
-        <v>117028.0017049689</v>
+        <v>16668.51658224374</v>
       </c>
       <c r="J3">
-        <v>369691.4573859968</v>
+        <v>52655.84388330799</v>
       </c>
       <c r="K3">
-        <v>2653.651549870538</v>
+        <v>181.7993957129872</v>
       </c>
       <c r="L3">
-        <v>11.06484308251962</v>
+        <v>1.341575052144418</v>
       </c>
       <c r="M3">
-        <v>2.340560034099378</v>
+        <v>0.3333703316448748</v>
       </c>
       <c r="N3">
-        <v>143944.4420971118</v>
+        <v>20502.2753961598</v>
       </c>
       <c r="O3">
-        <v>140.4336020459627</v>
+        <v>20.00221989869249</v>
       </c>
       <c r="P3">
-        <v>2.865991878489035</v>
+        <v>0.4082085693610712</v>
       </c>
       <c r="Q3">
-        <v>-23.4262</v>
+        <v>5.60519</v>
       </c>
       <c r="R3">
-        <v>-46.48</v>
+        <v>-0.166786</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1177,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>3480</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
@@ -1189,43 +1204,43 @@
         <v>189</v>
       </c>
       <c r="F4">
-        <v>5856.254969396917</v>
+        <v>4451.568919838058</v>
       </c>
       <c r="G4">
-        <v>0.6413424596666667</v>
+        <v>0.6199232186774193</v>
       </c>
       <c r="H4" t="s">
         <v>192</v>
       </c>
       <c r="I4">
-        <v>52082.2739568423</v>
+        <v>30416.46576237823</v>
       </c>
       <c r="J4">
-        <v>164527.9034296648</v>
+        <v>96085.61534335281</v>
       </c>
       <c r="K4">
-        <v>961.0161587788346</v>
+        <v>554.819782325368</v>
       </c>
       <c r="L4">
-        <v>6.623663925911121</v>
+        <v>6.042459150415408</v>
       </c>
       <c r="M4">
-        <v>1.041645479136846</v>
+        <v>0.6083293152475646</v>
       </c>
       <c r="N4">
-        <v>64061.19696691602</v>
+        <v>37412.25288772522</v>
       </c>
       <c r="O4">
-        <v>62.49872874821075</v>
+        <v>36.49975891485387</v>
       </c>
       <c r="P4">
-        <v>1.275484260167566</v>
+        <v>0.7448930390786506</v>
       </c>
       <c r="Q4">
-        <v>40.0725</v>
+        <v>36.851</v>
       </c>
       <c r="R4">
-        <v>116.598</v>
+        <v>10.2272</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1233,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>1229</v>
+        <v>977</v>
       </c>
       <c r="C5" t="s">
         <v>108</v>
@@ -1245,43 +1260,43 @@
         <v>189</v>
       </c>
       <c r="F5">
-        <v>6543.695620028412</v>
+        <v>5153.319825418274</v>
       </c>
       <c r="G5">
-        <v>0.6376565835333333</v>
+        <v>0.7147350054516128</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I5">
-        <v>52290.48021665723</v>
+        <v>36058.66640503903</v>
       </c>
       <c r="J5">
-        <v>165185.6270044202</v>
+        <v>113909.3271735183</v>
       </c>
       <c r="K5">
-        <v>1076.737712737099</v>
+        <v>651.3259672974866</v>
       </c>
       <c r="L5">
-        <v>7.27245990974871</v>
+        <v>5.672041758076773</v>
       </c>
       <c r="M5">
-        <v>1.045809604333145</v>
+        <v>0.7211733281007806</v>
       </c>
       <c r="N5">
-        <v>64317.29066648838</v>
+        <v>44352.15967819801</v>
       </c>
       <c r="O5">
-        <v>62.74857625998867</v>
+        <v>43.27039968604683</v>
       </c>
       <c r="P5">
-        <v>1.280583188979361</v>
+        <v>0.8830693813478946</v>
       </c>
       <c r="Q5">
-        <v>-6.12556</v>
+        <v>50.9014</v>
       </c>
       <c r="R5">
-        <v>106.656</v>
+        <v>4.48444</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1289,7 +1304,7 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>2631</v>
+        <v>1154</v>
       </c>
       <c r="C6" t="s">
         <v>109</v>
@@ -1301,43 +1316,43 @@
         <v>189</v>
       </c>
       <c r="F6">
-        <v>7949.365153523985</v>
+        <v>4615.811779554313</v>
       </c>
       <c r="G6">
-        <v>0.6450283358000001</v>
+        <v>0.7147350054516128</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I6">
-        <v>72779.49778602773</v>
+        <v>10931.81944393334</v>
       </c>
       <c r="J6">
-        <v>229910.4335060616</v>
+        <v>34533.61762338541</v>
       </c>
       <c r="K6">
-        <v>1418.160958685327</v>
+        <v>158.9713964536638</v>
       </c>
       <c r="L6">
-        <v>7.370944783644945</v>
+        <v>1.094236763250384</v>
       </c>
       <c r="M6">
-        <v>1.455589955720555</v>
+        <v>0.2186363888786667</v>
       </c>
       <c r="N6">
-        <v>89518.7822768141</v>
+        <v>13446.137916038</v>
       </c>
       <c r="O6">
-        <v>87.33539734323328</v>
+        <v>13.11818333272</v>
       </c>
       <c r="P6">
-        <v>1.782355047821087</v>
+        <v>0.2677180271983674</v>
       </c>
       <c r="Q6">
-        <v>35.5533</v>
+        <v>52.3514</v>
       </c>
       <c r="R6">
-        <v>139.781</v>
+        <v>13.4939</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1345,7 +1360,7 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>2577</v>
+        <v>587</v>
       </c>
       <c r="C7" t="s">
         <v>110</v>
@@ -1357,43 +1372,43 @@
         <v>189</v>
       </c>
       <c r="F7">
-        <v>3029.889751675834</v>
+        <v>4537.373869400612</v>
       </c>
       <c r="G7">
-        <v>0.6987738282666667</v>
+        <v>0.7149630222580645</v>
       </c>
       <c r="H7" t="s">
         <v>193</v>
       </c>
       <c r="I7">
-        <v>43186.28977364769</v>
+        <v>10434.68546739329</v>
       </c>
       <c r="J7">
-        <v>136425.489394953</v>
+        <v>32963.17139149542</v>
       </c>
       <c r="K7">
-        <v>874.9737173472902</v>
+        <v>147.3907946278586</v>
       </c>
       <c r="L7">
-        <v>6.344680897523818</v>
+        <v>1.091339171765467</v>
       </c>
       <c r="M7">
-        <v>0.8637257954729537</v>
+        <v>0.2086937093478659</v>
       </c>
       <c r="N7">
-        <v>53119.13642158665</v>
+        <v>12834.66312489375</v>
       </c>
       <c r="O7">
-        <v>51.82354772837722</v>
+        <v>12.52162256087195</v>
       </c>
       <c r="P7">
-        <v>1.057623423028106</v>
+        <v>0.2555433175688153</v>
       </c>
       <c r="Q7">
-        <v>41.2753</v>
+        <v>60.3172</v>
       </c>
       <c r="R7">
-        <v>28.7519</v>
+        <v>24.9633</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1401,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>2338</v>
+        <v>1719</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
@@ -1413,43 +1428,43 @@
         <v>189</v>
       </c>
       <c r="F8">
-        <v>2187.213855509325</v>
+        <v>5504.809848245329</v>
       </c>
       <c r="G8">
-        <v>0.6376565835333333</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H8" t="s">
         <v>194</v>
       </c>
       <c r="I8">
-        <v>7055.490811193191</v>
+        <v>15726.77018962062</v>
       </c>
       <c r="J8">
-        <v>22288.29547255929</v>
+        <v>49680.86702901153</v>
       </c>
       <c r="K8">
-        <v>84.57096312803414</v>
+        <v>166.3085180935581</v>
       </c>
       <c r="L8">
-        <v>0.7183548769343161</v>
+        <v>0.9029140585849147</v>
       </c>
       <c r="M8">
-        <v>0.1411098162238638</v>
+        <v>0.3145354037924123</v>
       </c>
       <c r="N8">
-        <v>8678.253697767625</v>
+        <v>19343.92733323336</v>
       </c>
       <c r="O8">
-        <v>8.466588973431829</v>
+        <v>18.87212422754474</v>
       </c>
       <c r="P8">
-        <v>0.1727875300700373</v>
+        <v>0.3851453923988722</v>
       </c>
       <c r="Q8">
-        <v>28.5665</v>
+        <v>51.4775</v>
       </c>
       <c r="R8">
-        <v>77.1031</v>
+        <v>-0.461389</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1457,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>1973</v>
+        <v>528</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -1469,43 +1484,43 @@
         <v>189</v>
       </c>
       <c r="F9">
-        <v>5245.251801383757</v>
+        <v>5174.013327477973</v>
       </c>
       <c r="G9">
-        <v>0.6987738282666667</v>
+        <v>0.7243551434666667</v>
       </c>
       <c r="H9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I9">
-        <v>40548.76393594968</v>
+        <v>15164.63945534022</v>
       </c>
       <c r="J9">
-        <v>128093.545273665</v>
+        <v>47905.09603941973</v>
       </c>
       <c r="K9">
-        <v>759.7888653077976</v>
+        <v>160.6633429743184</v>
       </c>
       <c r="L9">
-        <v>5.792993643409462</v>
+        <v>1.040089147975444</v>
       </c>
       <c r="M9">
-        <v>0.8109752787189934</v>
+        <v>0.3032927891068042</v>
       </c>
       <c r="N9">
-        <v>49874.9796412181</v>
+        <v>18652.50653006847</v>
       </c>
       <c r="O9">
-        <v>48.65851672313962</v>
+        <v>18.19756734640826</v>
       </c>
       <c r="P9">
-        <v>0.9930309535334616</v>
+        <v>0.3713789254369032</v>
       </c>
       <c r="Q9">
-        <v>49.0097</v>
+        <v>52.3086</v>
       </c>
       <c r="R9">
-        <v>2.54778</v>
+        <v>4.76389</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1513,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>1899</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
@@ -1525,43 +1540,43 @@
         <v>189</v>
       </c>
       <c r="F10">
-        <v>11021.83931136303</v>
+        <v>5926.323546573898</v>
       </c>
       <c r="G10">
-        <v>0.7517421065333333</v>
+        <v>0.7167871567096774</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I10">
-        <v>145152.1821008488</v>
+        <v>15002.89502835355</v>
       </c>
       <c r="J10">
-        <v>458535.7432565812</v>
+        <v>47394.14539456887</v>
       </c>
       <c r="K10">
-        <v>2871.452189972635</v>
+        <v>194.6091995922609</v>
       </c>
       <c r="L10">
-        <v>18.03767642532059</v>
+        <v>0.9226562013029669</v>
       </c>
       <c r="M10">
-        <v>2.903043642016975</v>
+        <v>0.300057900567071</v>
       </c>
       <c r="N10">
-        <v>178537.183984044</v>
+        <v>18453.56088487487</v>
       </c>
       <c r="O10">
-        <v>174.1826185210185</v>
+        <v>18.00347403402426</v>
       </c>
       <c r="P10">
-        <v>3.554747316755479</v>
+        <v>0.3674178374290665</v>
       </c>
       <c r="Q10">
-        <v>40.6397</v>
+        <v>53.4213</v>
       </c>
       <c r="R10">
-        <v>-73.77889999999999</v>
+        <v>-6.27007</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1569,7 +1584,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>765</v>
+        <v>668</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -1581,43 +1596,43 @@
         <v>189</v>
       </c>
       <c r="F11">
-        <v>3548.47580472309</v>
+        <v>4821.316738145491</v>
       </c>
       <c r="G11">
-        <v>0.6060793402</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I11">
-        <v>20466.33671418775</v>
+        <v>35994.29272091427</v>
       </c>
       <c r="J11">
-        <v>64653.15768011908</v>
+        <v>113705.9707053681</v>
       </c>
       <c r="K11">
-        <v>292.753316034753</v>
+        <v>708.8190154671167</v>
       </c>
       <c r="L11">
-        <v>1.094093164581334</v>
+        <v>5.642600365738554</v>
       </c>
       <c r="M11">
-        <v>0.4093267342837549</v>
+        <v>0.7198858544182851</v>
       </c>
       <c r="N11">
-        <v>25173.59415845093</v>
+        <v>44272.98004672454</v>
       </c>
       <c r="O11">
-        <v>24.55960405702529</v>
+        <v>43.19315126509711</v>
       </c>
       <c r="P11">
-        <v>0.5012164093270468</v>
+        <v>0.8814928829611657</v>
       </c>
       <c r="Q11">
-        <v>-1.31924</v>
+        <v>55.6179</v>
       </c>
       <c r="R11">
-        <v>36.9278</v>
+        <v>12.656</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1625,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>763</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
         <v>115</v>
@@ -1637,43 +1652,43 @@
         <v>189</v>
       </c>
       <c r="F12">
-        <v>3962.363941158238</v>
+        <v>4999.934295476166</v>
       </c>
       <c r="G12">
-        <v>0.6069551773999999</v>
+        <v>0.7088717159333333</v>
       </c>
       <c r="H12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I12">
-        <v>33170.71379135179</v>
+        <v>13416.53417704963</v>
       </c>
       <c r="J12">
-        <v>104786.2848668803</v>
+        <v>42382.83146529977</v>
       </c>
       <c r="K12">
-        <v>703.4243173737179</v>
+        <v>135.513252650082</v>
       </c>
       <c r="L12">
-        <v>6.52926874083111</v>
+        <v>0.9065943416859146</v>
       </c>
       <c r="M12">
-        <v>0.6634142758270356</v>
+        <v>0.2683306835409925</v>
       </c>
       <c r="N12">
-        <v>40799.9779633627</v>
+        <v>16502.33703777104</v>
       </c>
       <c r="O12">
-        <v>39.80485654962214</v>
+        <v>16.09984101245955</v>
       </c>
       <c r="P12">
-        <v>0.8123440112167786</v>
+        <v>0.3285681839277459</v>
       </c>
       <c r="Q12">
-        <v>-6.87811</v>
+        <v>49.6233</v>
       </c>
       <c r="R12">
-        <v>39.2026</v>
+        <v>6.20444</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1681,7 +1696,7 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>1771</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
         <v>116</v>
@@ -1693,43 +1708,43 @@
         <v>189</v>
       </c>
       <c r="F13">
-        <v>2133.488294911567</v>
+        <v>5140.270652699632</v>
       </c>
       <c r="G13">
-        <v>0.6987738282666667</v>
+        <v>0.714050955032258</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I13">
-        <v>4872.030601899196</v>
+        <v>39034.17300146574</v>
       </c>
       <c r="J13">
-        <v>15390.74467139956</v>
+        <v>123308.9525116302</v>
       </c>
       <c r="K13">
-        <v>76.70561135075607</v>
+        <v>767.7214647489349</v>
       </c>
       <c r="L13">
-        <v>0.6007734356328198</v>
+        <v>6.26308611259406</v>
       </c>
       <c r="M13">
-        <v>0.09744061203798392</v>
+        <v>0.7806834600293144</v>
       </c>
       <c r="N13">
-        <v>5992.597640336011</v>
+        <v>48012.03279180286</v>
       </c>
       <c r="O13">
-        <v>5.846436722279035</v>
+        <v>46.84100760175887</v>
       </c>
       <c r="P13">
-        <v>0.1193150351485517</v>
+        <v>0.9559389306481405</v>
       </c>
       <c r="Q13">
-        <v>32.0114</v>
+        <v>60.1939</v>
       </c>
       <c r="R13">
-        <v>34.8867</v>
+        <v>11.1004</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1737,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>700</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
         <v>117</v>
@@ -1749,43 +1764,43 @@
         <v>189</v>
       </c>
       <c r="F14">
-        <v>5549.655176427877</v>
+        <v>4157.10634709943</v>
       </c>
       <c r="G14">
-        <v>0.6376565835333333</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I14">
-        <v>46070.27327220616</v>
+        <v>8906.130698389903</v>
       </c>
       <c r="J14">
-        <v>145535.9932668993</v>
+        <v>28134.4668762137</v>
       </c>
       <c r="K14">
-        <v>963.8136774195646</v>
+        <v>141.8760024523971</v>
       </c>
       <c r="L14">
-        <v>6.199341890443819</v>
+        <v>0.9003587779431926</v>
       </c>
       <c r="M14">
-        <v>0.9214054654441232</v>
+        <v>0.1781226139677981</v>
       </c>
       <c r="N14">
-        <v>56666.43612481358</v>
+        <v>10954.54075901958</v>
       </c>
       <c r="O14">
-        <v>55.28432792664739</v>
+        <v>10.68735683806788</v>
       </c>
       <c r="P14">
-        <v>1.128251590339743</v>
+        <v>0.2181093232258752</v>
       </c>
       <c r="Q14">
-        <v>2.74558</v>
+        <v>52.1657</v>
       </c>
       <c r="R14">
-        <v>101.71</v>
+        <v>20.9671</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1793,7 +1808,7 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>1719</v>
+        <v>626</v>
       </c>
       <c r="C15" t="s">
         <v>118</v>
@@ -1805,43 +1820,43 @@
         <v>189</v>
       </c>
       <c r="F15">
-        <v>5504.809848245329</v>
+        <v>4786.526838419995</v>
       </c>
       <c r="G15">
-        <v>0.6987738282666667</v>
+        <v>0.7203159882666668</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I15">
-        <v>75411.37149037281</v>
+        <v>37555.57657705536</v>
       </c>
       <c r="J15">
-        <v>238224.5225380877</v>
+        <v>118638.0664069178</v>
       </c>
       <c r="K15">
-        <v>1413.590979105284</v>
+        <v>749.3975614861495</v>
       </c>
       <c r="L15">
-        <v>8.959262462836824</v>
+        <v>5.534578315518985</v>
       </c>
       <c r="M15">
-        <v>1.508227429807456</v>
+        <v>0.7511115315411071</v>
       </c>
       <c r="N15">
-        <v>92755.98693315854</v>
+        <v>46193.35918977809</v>
       </c>
       <c r="O15">
-        <v>90.49364578844737</v>
+        <v>45.06669189246642</v>
       </c>
       <c r="P15">
-        <v>1.846809097723416</v>
+        <v>0.9197284059687026</v>
       </c>
       <c r="Q15">
-        <v>51.4775</v>
+        <v>59.6519</v>
       </c>
       <c r="R15">
-        <v>-0.461389</v>
+        <v>17.9186</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1849,7 +1864,7 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>1699</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
         <v>119</v>
@@ -1861,43 +1876,43 @@
         <v>189</v>
       </c>
       <c r="F16">
-        <v>6740.321375341186</v>
+        <v>4319.755726612008</v>
       </c>
       <c r="G16">
-        <v>0.6376565835333333</v>
+        <v>0.714050955032258</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I16">
-        <v>72795.95575479206</v>
+        <v>11296.49170443968</v>
       </c>
       <c r="J16">
-        <v>229962.4242293881</v>
+        <v>35685.61729432493</v>
       </c>
       <c r="K16">
-        <v>1581.179031828192</v>
+        <v>166.4819639936847</v>
       </c>
       <c r="L16">
-        <v>7.253965357343517</v>
+        <v>0.04278397931623681</v>
       </c>
       <c r="M16">
-        <v>1.455919115095841</v>
+        <v>0.2259298340887935</v>
       </c>
       <c r="N16">
-        <v>89539.02557839423</v>
+        <v>13894.6847964608</v>
       </c>
       <c r="O16">
-        <v>87.35514690575047</v>
+        <v>13.55579004532761</v>
       </c>
       <c r="P16">
-        <v>1.782758100117356</v>
+        <v>0.2766487764352573</v>
       </c>
       <c r="Q16">
-        <v>37.4633</v>
+        <v>56.9236</v>
       </c>
       <c r="R16">
-        <v>126.44</v>
+        <v>23.9711</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1905,7 +1920,7 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>618</v>
+        <v>1011</v>
       </c>
       <c r="C17" t="s">
         <v>120</v>
@@ -1917,43 +1932,43 @@
         <v>189</v>
       </c>
       <c r="F17">
-        <v>6292.961751932336</v>
+        <v>6389.737587068435</v>
       </c>
       <c r="G17">
-        <v>0.6060793402</v>
+        <v>0.628851108</v>
       </c>
       <c r="H17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I17">
-        <v>54031.75456968702</v>
+        <v>46428.37552629787</v>
       </c>
       <c r="J17">
-        <v>170686.3126856413</v>
+        <v>146667.2382875749</v>
       </c>
       <c r="K17">
-        <v>1138.533461392735</v>
+        <v>862.9796542792802</v>
       </c>
       <c r="L17">
-        <v>6.05562173564987</v>
+        <v>6.177627911244542</v>
       </c>
       <c r="M17">
-        <v>1.08063509139374</v>
+        <v>0.928567510525957</v>
       </c>
       <c r="N17">
-        <v>66459.05812071504</v>
+        <v>57106.90189734638</v>
       </c>
       <c r="O17">
-        <v>64.83810548362442</v>
+        <v>55.71405063155743</v>
       </c>
       <c r="P17">
-        <v>1.323226642522947</v>
+        <v>1.137021441460356</v>
       </c>
       <c r="Q17">
-        <v>5.60519</v>
+        <v>-26.1392</v>
       </c>
       <c r="R17">
-        <v>-0.166786</v>
+        <v>28.246</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1961,7 +1976,7 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>606</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>121</v>
@@ -1973,43 +1988,43 @@
         <v>189</v>
       </c>
       <c r="F18">
-        <v>3723.069355778457</v>
+        <v>5060.276656340373</v>
       </c>
       <c r="G18">
-        <v>0.6060793402</v>
+        <v>0.6238786128709678</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I18">
-        <v>33978.02077865332</v>
+        <v>35529.73592438769</v>
       </c>
       <c r="J18">
-        <v>107336.5676397658</v>
+        <v>112238.4357851407</v>
       </c>
       <c r="K18">
-        <v>725.6465659640035</v>
+        <v>670.3347842197859</v>
       </c>
       <c r="L18">
-        <v>4.810144509008694</v>
+        <v>5.16869577021165</v>
       </c>
       <c r="M18">
-        <v>0.6795604155730665</v>
+        <v>0.7105947184877538</v>
       </c>
       <c r="N18">
-        <v>41792.96555774358</v>
+        <v>43701.57518699685</v>
       </c>
       <c r="O18">
-        <v>40.77362493438398</v>
+        <v>42.63568310926522</v>
       </c>
       <c r="P18">
-        <v>0.8321147945792651</v>
+        <v>0.8701159818217393</v>
       </c>
       <c r="Q18">
-        <v>0.042386</v>
+        <v>-20.4302</v>
       </c>
       <c r="R18">
-        <v>32.4435</v>
+        <v>57.6836</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2017,7 +2032,7 @@
         <v>35</v>
       </c>
       <c r="B19">
-        <v>1455</v>
+        <v>445</v>
       </c>
       <c r="C19" t="s">
         <v>122</v>
@@ -2029,43 +2044,43 @@
         <v>189</v>
       </c>
       <c r="F19">
-        <v>3709.018587953252</v>
+        <v>5355.398446407949</v>
       </c>
       <c r="G19">
-        <v>0.6376565835333333</v>
+        <v>0.6259316506666667</v>
       </c>
       <c r="H19" t="s">
         <v>197</v>
       </c>
       <c r="I19">
-        <v>25626.87831084457</v>
+        <v>956.965170547438</v>
       </c>
       <c r="J19">
-        <v>80955.30858395799</v>
+        <v>3023.052973759356</v>
       </c>
       <c r="K19">
-        <v>501.0701480426959</v>
+        <v>11.57084730706245</v>
       </c>
       <c r="L19">
-        <v>0.7786753982144718</v>
+        <v>0.9221361341490479</v>
       </c>
       <c r="M19">
-        <v>0.5125375662168913</v>
+        <v>0.01913930341094876</v>
       </c>
       <c r="N19">
-        <v>31521.06032233882</v>
+        <v>1177.067159773349</v>
       </c>
       <c r="O19">
-        <v>30.75225397301348</v>
+        <v>1.148358204656925</v>
       </c>
       <c r="P19">
-        <v>0.6275970198574179</v>
+        <v>0.02343588172769235</v>
       </c>
       <c r="Q19">
-        <v>55.9728</v>
+        <v>-15.3308</v>
       </c>
       <c r="R19">
-        <v>37.4147</v>
+        <v>28.4526</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2073,7 +2088,7 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>565</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
         <v>123</v>
@@ -2085,43 +2100,43 @@
         <v>189</v>
       </c>
       <c r="F20">
-        <v>2419.263662672012</v>
+        <v>5923.617457828617</v>
       </c>
       <c r="G20">
-        <v>0.6060793402</v>
+        <v>0.6253477592</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I20">
-        <v>5733.192367720293</v>
+        <v>46691.17123602876</v>
       </c>
       <c r="J20">
-        <v>18111.15468962841</v>
+        <v>147497.4099346148</v>
       </c>
       <c r="K20">
-        <v>74.92850532697469</v>
+        <v>950.7448329001605</v>
       </c>
       <c r="L20">
-        <v>0.2973420105829074</v>
+        <v>6.040091765735767</v>
       </c>
       <c r="M20">
-        <v>0.1146638473544059</v>
+        <v>0.9338234247205748</v>
       </c>
       <c r="N20">
-        <v>7051.82661229596</v>
+        <v>57430.14062031536</v>
       </c>
       <c r="O20">
-        <v>6.879830841264353</v>
+        <v>56.0294054832345</v>
       </c>
       <c r="P20">
-        <v>0.1404047110462113</v>
+        <v>1.143457254759888</v>
       </c>
       <c r="Q20">
-        <v>30.1219</v>
+        <v>-8.858370000000001</v>
       </c>
       <c r="R20">
-        <v>31.4056</v>
+        <v>13.2312</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2129,7 +2144,7 @@
         <v>37</v>
       </c>
       <c r="B21">
-        <v>1314</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
         <v>124</v>
@@ -2141,43 +2156,43 @@
         <v>189</v>
       </c>
       <c r="F21">
-        <v>4349.357994219783</v>
+        <v>3310.975061295877</v>
       </c>
       <c r="G21">
-        <v>0.6987738282666667</v>
+        <v>0.6276833250666667</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I21">
-        <v>35374.00815159539</v>
+        <v>8163.088193605376</v>
       </c>
       <c r="J21">
-        <v>111746.4917508898</v>
+        <v>25787.19560359938</v>
       </c>
       <c r="K21">
-        <v>735.0127434412911</v>
+        <v>97.80013072770593</v>
       </c>
       <c r="L21">
-        <v>5.716251814829103</v>
+        <v>0.3833434038675967</v>
       </c>
       <c r="M21">
-        <v>0.7074801630319076</v>
+        <v>0.1632617638721075</v>
       </c>
       <c r="N21">
-        <v>43510.03002646234</v>
+        <v>10040.59847813461</v>
       </c>
       <c r="O21">
-        <v>42.44880978191447</v>
+        <v>9.795705832326449</v>
       </c>
       <c r="P21">
-        <v>0.8663022404472343</v>
+        <v>0.1999123639250296</v>
       </c>
       <c r="Q21">
-        <v>41.8003</v>
+        <v>-4.67434</v>
       </c>
       <c r="R21">
-        <v>12.2389</v>
+        <v>55.5218</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2185,7 +2200,7 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>1154</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
         <v>125</v>
@@ -2197,43 +2212,43 @@
         <v>189</v>
       </c>
       <c r="F22">
-        <v>4615.811779554313</v>
+        <v>2514.649386881819</v>
       </c>
       <c r="G22">
-        <v>0.7048325608666667</v>
+        <v>0.6242741522903226</v>
       </c>
       <c r="H22" t="s">
         <v>199</v>
       </c>
       <c r="I22">
-        <v>14928.52961288913</v>
+        <v>7000.139233471042</v>
       </c>
       <c r="J22">
-        <v>47159.22504711676</v>
+        <v>22113.43983853502</v>
       </c>
       <c r="K22">
-        <v>214.8998139281161</v>
+        <v>68.14492855752914</v>
       </c>
       <c r="L22">
-        <v>0.4663750230951755</v>
+        <v>1.222112590820616</v>
       </c>
       <c r="M22">
-        <v>0.2985705922577826</v>
+        <v>0.1400027846694208</v>
       </c>
       <c r="N22">
-        <v>18362.09142385363</v>
+        <v>8610.171257169382</v>
       </c>
       <c r="O22">
-        <v>17.91423553546696</v>
+        <v>8.40016708016525</v>
       </c>
       <c r="P22">
-        <v>0.3655966435809583</v>
+        <v>0.1714319812278622</v>
       </c>
       <c r="Q22">
-        <v>52.3514</v>
+        <v>8.977779999999999</v>
       </c>
       <c r="R22">
-        <v>13.4939</v>
+        <v>38.7994</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2241,7 +2256,7 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>445</v>
+        <v>366</v>
       </c>
       <c r="C23" t="s">
         <v>126</v>
@@ -2253,43 +2268,43 @@
         <v>189</v>
       </c>
       <c r="F23">
-        <v>5355.398446407949</v>
+        <v>2788.756114086932</v>
       </c>
       <c r="G23">
-        <v>0.6060793402</v>
+        <v>0.619725448967742</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="I23">
-        <v>38891.53097882292</v>
+        <v>8893.690430014765</v>
       </c>
       <c r="J23">
-        <v>122858.3463621016</v>
+        <v>28095.16806841664</v>
       </c>
       <c r="K23">
-        <v>746.6657672723799</v>
+        <v>100.9842718380172</v>
       </c>
       <c r="L23">
-        <v>5.989608118830891</v>
+        <v>1.028914174861947</v>
       </c>
       <c r="M23">
-        <v>0.7778306195764582</v>
+        <v>0.1778738086002953</v>
       </c>
       <c r="N23">
-        <v>47836.58310395218</v>
+        <v>10939.23922891816</v>
       </c>
       <c r="O23">
-        <v>46.66983717458749</v>
+        <v>10.67242851601772</v>
       </c>
       <c r="P23">
-        <v>0.9524456566242346</v>
+        <v>0.2178046635921983</v>
       </c>
       <c r="Q23">
-        <v>-15.3308</v>
+        <v>2.01444</v>
       </c>
       <c r="R23">
-        <v>28.4526</v>
+        <v>45.3047</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2297,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="B24">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
@@ -2309,43 +2324,43 @@
         <v>189</v>
       </c>
       <c r="F24">
-        <v>2024.027070811464</v>
+        <v>1988.305231491353</v>
       </c>
       <c r="G24">
-        <v>0.5245896810666667</v>
+        <v>0.6222964551935484</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I24">
-        <v>5543.349293667503</v>
+        <v>5790.227930587229</v>
       </c>
       <c r="J24">
-        <v>17511.44041869564</v>
+        <v>18291.33003272506</v>
       </c>
       <c r="K24">
-        <v>63.84679796003964</v>
+        <v>66.30992159554386</v>
       </c>
       <c r="L24">
-        <v>0.7192283421315753</v>
+        <v>0.8416757085217941</v>
       </c>
       <c r="M24">
-        <v>0.11086698587335</v>
+        <v>0.1158045586117446</v>
       </c>
       <c r="N24">
-        <v>6818.319631211028</v>
+        <v>7121.980354622292</v>
       </c>
       <c r="O24">
-        <v>6.652019152401003</v>
+        <v>6.948273516704675</v>
       </c>
       <c r="P24">
-        <v>0.1357554929061429</v>
+        <v>0.1418015003409117</v>
       </c>
       <c r="Q24">
-        <v>31.7226</v>
+        <v>11.5473</v>
       </c>
       <c r="R24">
-        <v>35.9932</v>
+        <v>43.1595</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2353,7 +2368,7 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>442</v>
+        <v>565</v>
       </c>
       <c r="C25" t="s">
         <v>128</v>
@@ -2365,43 +2380,43 @@
         <v>189</v>
       </c>
       <c r="F25">
-        <v>1397.800079438805</v>
+        <v>2419.263662672012</v>
       </c>
       <c r="G25">
-        <v>0.5245896810666667</v>
+        <v>0.6256397049333333</v>
       </c>
       <c r="H25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I25">
-        <v>4554.152639552325</v>
+        <v>5095.059290439207</v>
       </c>
       <c r="J25">
-        <v>14386.56818834579</v>
+        <v>16095.29229849745</v>
       </c>
       <c r="K25">
-        <v>57.64633569083733</v>
+        <v>66.05852209472684</v>
       </c>
       <c r="L25">
-        <v>0.5452762810473737</v>
+        <v>0.2697272488632299</v>
       </c>
       <c r="M25">
-        <v>0.09108305279104649</v>
+        <v>0.1019011858087841</v>
       </c>
       <c r="N25">
-        <v>5601.607746649361</v>
+        <v>6266.922927240224</v>
       </c>
       <c r="O25">
-        <v>5.46498316746279</v>
+        <v>6.114071148527048</v>
       </c>
       <c r="P25">
-        <v>0.1115302687237304</v>
+        <v>0.1247769622148377</v>
       </c>
       <c r="Q25">
-        <v>33.2625</v>
+        <v>30.1219</v>
       </c>
       <c r="R25">
-        <v>44.2346</v>
+        <v>31.4056</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2409,7 +2424,7 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>426</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>129</v>
@@ -2421,43 +2436,43 @@
         <v>189</v>
       </c>
       <c r="F26">
-        <v>874.4948200511059</v>
+        <v>2039.020269248904</v>
       </c>
       <c r="G26">
-        <v>0.5245896810666667</v>
+        <v>0.624471922</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I26">
-        <v>5839.876918140762</v>
+        <v>5329.328496942082</v>
       </c>
       <c r="J26">
-        <v>18448.17118440666</v>
+        <v>16835.34872184003</v>
       </c>
       <c r="K26">
-        <v>93.29423264015443</v>
+        <v>59.02285099988487</v>
       </c>
       <c r="L26">
-        <v>3.1973497490013</v>
+        <v>0.7862743232298769</v>
       </c>
       <c r="M26">
-        <v>0.1167975383628152</v>
+        <v>0.1065865699388416</v>
       </c>
       <c r="N26">
-        <v>7183.048609313137</v>
+        <v>6555.07405123876</v>
       </c>
       <c r="O26">
-        <v>7.007852301768914</v>
+        <v>6.395194196330498</v>
       </c>
       <c r="P26">
-        <v>0.1430173939136513</v>
+        <v>0.130514167272051</v>
       </c>
       <c r="Q26">
-        <v>24.9578</v>
+        <v>15.2919</v>
       </c>
       <c r="R26">
-        <v>46.6989</v>
+        <v>38.9107</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2465,7 +2480,7 @@
         <v>43</v>
       </c>
       <c r="B27">
-        <v>1011</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
         <v>130</v>
@@ -2477,43 +2492,43 @@
         <v>189</v>
       </c>
       <c r="F27">
-        <v>6389.737587068435</v>
+        <v>3394.714651416399</v>
       </c>
       <c r="G27">
-        <v>0.6060793402</v>
+        <v>0.6234830734516129</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="I27">
-        <v>55958.11085639045</v>
+        <v>8739.0771092183</v>
       </c>
       <c r="J27">
-        <v>176771.6721953374</v>
+        <v>27606.74458802061</v>
       </c>
       <c r="K27">
-        <v>1166.411679180642</v>
+        <v>157.0763238595873</v>
       </c>
       <c r="L27">
-        <v>6.291849625474511</v>
+        <v>0.8146875101301088</v>
       </c>
       <c r="M27">
-        <v>1.119162217127809</v>
+        <v>0.174781542184366</v>
       </c>
       <c r="N27">
-        <v>68828.47635336025</v>
+        <v>10749.06484433851</v>
       </c>
       <c r="O27">
-        <v>67.14973302766853</v>
+        <v>10.48689253106196</v>
       </c>
       <c r="P27">
-        <v>1.370402714850378</v>
+        <v>0.2140182149196319</v>
       </c>
       <c r="Q27">
-        <v>-26.1392</v>
+        <v>4.87201</v>
       </c>
       <c r="R27">
-        <v>28.246</v>
+        <v>31.6011</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2521,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>996</v>
+        <v>765</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
@@ -2533,43 +2548,43 @@
         <v>189</v>
       </c>
       <c r="F28">
-        <v>12038.86144273792</v>
+        <v>3548.47580472309</v>
       </c>
       <c r="G28">
-        <v>0.6385780525666667</v>
+        <v>0.624471922</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I28">
-        <v>120788.2398253462</v>
+        <v>9499.451555422234</v>
       </c>
       <c r="J28">
-        <v>381570.0496082685</v>
+        <v>30008.76746357884</v>
       </c>
       <c r="K28">
-        <v>2741.51609845646</v>
+        <v>100.7467109814971</v>
       </c>
       <c r="L28">
-        <v>7.839537146565072</v>
+        <v>0.6721197705003008</v>
       </c>
       <c r="M28">
-        <v>2.415764796506924</v>
+        <v>0.1899890311084447</v>
       </c>
       <c r="N28">
-        <v>148569.5349851758</v>
+        <v>11684.32541316935</v>
       </c>
       <c r="O28">
-        <v>144.9458877904154</v>
+        <v>11.39934186650668</v>
       </c>
       <c r="P28">
-        <v>2.958079342661539</v>
+        <v>0.2326396299287078</v>
       </c>
       <c r="Q28">
-        <v>-33.9461</v>
+        <v>-1.31924</v>
       </c>
       <c r="R28">
-        <v>151.177</v>
+        <v>36.9278</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2577,7 +2592,7 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>403</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>132</v>
@@ -2589,43 +2604,43 @@
         <v>189</v>
       </c>
       <c r="F29">
-        <v>3173.831734839541</v>
+        <v>4058.358801134944</v>
       </c>
       <c r="G29">
-        <v>0.6376565835333333</v>
+        <v>0.6234830734516129</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I29">
-        <v>10037.61272331504</v>
+        <v>24113.85764520099</v>
       </c>
       <c r="J29">
-        <v>31708.81859295222</v>
+        <v>76175.67630118992</v>
       </c>
       <c r="K29">
-        <v>138.6818225042965</v>
+        <v>331.6519289701012</v>
       </c>
       <c r="L29">
-        <v>0.6122390846003914</v>
+        <v>3.084593271748182</v>
       </c>
       <c r="M29">
-        <v>0.2007522544663009</v>
+        <v>0.4822771529040196</v>
       </c>
       <c r="N29">
-        <v>12346.2636496775</v>
+        <v>29660.04490359721</v>
       </c>
       <c r="O29">
-        <v>12.04513526797805</v>
+        <v>28.93662917424118</v>
       </c>
       <c r="P29">
-        <v>0.2458190871015929</v>
+        <v>0.5905434525355344</v>
       </c>
       <c r="Q29">
-        <v>51.0222</v>
+        <v>-1.96863</v>
       </c>
       <c r="R29">
-        <v>71.4669</v>
+        <v>30.1395</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2633,7 +2648,7 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>977</v>
+        <v>763</v>
       </c>
       <c r="C30" t="s">
         <v>133</v>
@@ -2645,43 +2660,43 @@
         <v>189</v>
       </c>
       <c r="F30">
-        <v>5153.319825418274</v>
+        <v>3962.363941158238</v>
       </c>
       <c r="G30">
-        <v>0.6987738282666667</v>
+        <v>0.6213076066451613</v>
       </c>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I30">
-        <v>39510.12253171321</v>
+        <v>31583.12051496277</v>
       </c>
       <c r="J30">
-        <v>124812.477077682</v>
+        <v>99771.07770676739</v>
       </c>
       <c r="K30">
-        <v>791.6317860143923</v>
+        <v>663.0155330245175</v>
       </c>
       <c r="L30">
-        <v>6.280813728249025</v>
+        <v>3.514718533382943</v>
       </c>
       <c r="M30">
-        <v>0.7902024506342642</v>
+        <v>0.6316624102992553</v>
       </c>
       <c r="N30">
-        <v>48597.45071400725</v>
+        <v>38847.2382334042</v>
       </c>
       <c r="O30">
-        <v>47.41214703805584</v>
+        <v>37.89974461795532</v>
       </c>
       <c r="P30">
-        <v>0.9675948375113439</v>
+        <v>0.7734641758766392</v>
       </c>
       <c r="Q30">
-        <v>50.9014</v>
+        <v>-6.87811</v>
       </c>
       <c r="R30">
-        <v>4.48444</v>
+        <v>39.2026</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2689,7 +2704,7 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <v>380</v>
+        <v>606</v>
       </c>
       <c r="C31" t="s">
         <v>134</v>
@@ -2701,43 +2716,43 @@
         <v>189</v>
       </c>
       <c r="F31">
-        <v>348.5265608189779</v>
+        <v>3723.069355778457</v>
       </c>
       <c r="G31">
-        <v>0.5245896810666667</v>
+        <v>0.6268074878666666</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I31">
-        <v>4055.943813011612</v>
+        <v>8153.677213938356</v>
       </c>
       <c r="J31">
-        <v>12812.72650530368</v>
+        <v>25757.46631883126</v>
       </c>
       <c r="K31">
-        <v>96.33095998898</v>
+        <v>126.3525029183793</v>
       </c>
       <c r="L31">
-        <v>2.0437801617239</v>
+        <v>0.8610473454745213</v>
       </c>
       <c r="M31">
-        <v>0.08111887626023224</v>
+        <v>0.1630735442787671</v>
       </c>
       <c r="N31">
-        <v>4988.810890004283</v>
+        <v>10029.02297314418</v>
       </c>
       <c r="O31">
-        <v>4.867132575613935</v>
+        <v>9.784412656726024</v>
       </c>
       <c r="P31">
-        <v>0.09932923623701906</v>
+        <v>0.1996818909535923</v>
       </c>
       <c r="Q31">
-        <v>23.5933</v>
+        <v>0.042386</v>
       </c>
       <c r="R31">
-        <v>58.2844</v>
+        <v>32.4435</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2745,7 +2760,7 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>377</v>
+        <v>1899</v>
       </c>
       <c r="C32" t="s">
         <v>135</v>
@@ -2757,43 +2772,43 @@
         <v>189</v>
       </c>
       <c r="F32">
-        <v>5152.397818559508</v>
+        <v>11021.83931136303</v>
       </c>
       <c r="G32">
-        <v>0.6376565835333333</v>
+        <v>0.7728379829032258</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="I32">
-        <v>48471.15578535611</v>
+        <v>138084.4687725544</v>
       </c>
       <c r="J32">
-        <v>153120.38112594</v>
+        <v>436208.8368524994</v>
       </c>
       <c r="K32">
-        <v>1094.21694064091</v>
+        <v>2630.922792888849</v>
       </c>
       <c r="L32">
-        <v>6.44147595986052</v>
+        <v>17.10519028070343</v>
       </c>
       <c r="M32">
-        <v>0.9694231157071221</v>
+        <v>2.761689375451088</v>
       </c>
       <c r="N32">
-        <v>59619.52161598802</v>
+        <v>169843.8965902419</v>
       </c>
       <c r="O32">
-        <v>58.16538694242733</v>
+        <v>165.7013625270653</v>
       </c>
       <c r="P32">
-        <v>1.187048713110762</v>
+        <v>3.381660459736025</v>
       </c>
       <c r="Q32">
-        <v>21.2212</v>
+        <v>40.6397</v>
       </c>
       <c r="R32">
-        <v>105.807</v>
+        <v>-73.77889999999999</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2801,7 +2816,7 @@
         <v>49</v>
       </c>
       <c r="B33">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>136</v>
@@ -2813,43 +2828,43 @@
         <v>189</v>
       </c>
       <c r="F33">
-        <v>2788.756114086932</v>
+        <v>3734.448998311077</v>
       </c>
       <c r="G33">
-        <v>0.6122102006</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H33" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I33">
-        <v>14440.20797158322</v>
+        <v>7034.05023940771</v>
       </c>
       <c r="J33">
-        <v>45616.61698223137</v>
+        <v>22220.56470628895</v>
       </c>
       <c r="K33">
-        <v>171.9944625778073</v>
+        <v>104.6306340237746</v>
       </c>
       <c r="L33">
-        <v>1.413582060846369</v>
+        <v>0.7847020854022443</v>
       </c>
       <c r="M33">
-        <v>0.2888041594316643</v>
+        <v>0.1406810047881542</v>
       </c>
       <c r="N33">
-        <v>17761.45580504736</v>
+        <v>8651.881794471483</v>
       </c>
       <c r="O33">
-        <v>17.32824956589985</v>
+        <v>8.440860287289253</v>
       </c>
       <c r="P33">
-        <v>0.3536377462428541</v>
+        <v>0.1722624548426378</v>
       </c>
       <c r="Q33">
-        <v>2.01444</v>
+        <v>41.4147</v>
       </c>
       <c r="R33">
-        <v>45.3047</v>
+        <v>19.7206</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2857,7 +2872,7 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
         <v>137</v>
@@ -2869,43 +2884,43 @@
         <v>189</v>
       </c>
       <c r="F34">
-        <v>5846.919986864199</v>
+        <v>3497.273675198606</v>
       </c>
       <c r="G34">
-        <v>0.6376565835333333</v>
+        <v>0.7246917397333333</v>
       </c>
       <c r="H34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I34">
-        <v>44007.99498257568</v>
+        <v>7342.102144931951</v>
       </c>
       <c r="J34">
-        <v>139021.2561499566</v>
+        <v>23193.70067584003</v>
       </c>
       <c r="K34">
-        <v>888.0180975200055</v>
+        <v>103.1545464267794</v>
       </c>
       <c r="L34">
-        <v>6.032924372280479</v>
+        <v>0.7778259069318062</v>
       </c>
       <c r="M34">
-        <v>0.8801598996515135</v>
+        <v>0.146842042898639</v>
       </c>
       <c r="N34">
-        <v>54129.83382856808</v>
+        <v>9030.785638266299</v>
       </c>
       <c r="O34">
-        <v>52.80959397909081</v>
+        <v>8.810522573918341</v>
       </c>
       <c r="P34">
-        <v>1.077746815899812</v>
+        <v>0.1798065831411906</v>
       </c>
       <c r="Q34">
-        <v>1.35019</v>
+        <v>42.6967</v>
       </c>
       <c r="R34">
-        <v>103.994</v>
+        <v>23.4114</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2913,7 +2928,7 @@
         <v>51</v>
       </c>
       <c r="B35">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>138</v>
@@ -2925,43 +2940,43 @@
         <v>189</v>
       </c>
       <c r="F35">
-        <v>6915.22964462913</v>
+        <v>4166.712099726148</v>
       </c>
       <c r="G35">
-        <v>0.6376565835333333</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I35">
-        <v>59954.74120228724</v>
+        <v>8717.52511408307</v>
       </c>
       <c r="J35">
-        <v>189397.0274580254</v>
+        <v>27538.66183538841</v>
       </c>
       <c r="K35">
-        <v>1256.633190147787</v>
+        <v>123.0941313404053</v>
       </c>
       <c r="L35">
-        <v>6.853052656352796</v>
+        <v>0.9493918358992277</v>
       </c>
       <c r="M35">
-        <v>1.199094824045745</v>
+        <v>0.1743505022816614</v>
       </c>
       <c r="N35">
-        <v>73744.33167881331</v>
+        <v>10722.55589032218</v>
       </c>
       <c r="O35">
-        <v>71.94568944274468</v>
+        <v>10.46103013689968</v>
       </c>
       <c r="P35">
-        <v>1.468279376382545</v>
+        <v>0.2134904109571364</v>
       </c>
       <c r="Q35">
-        <v>14.5086</v>
+        <v>45.7429</v>
       </c>
       <c r="R35">
-        <v>121.02</v>
+        <v>16.0688</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2969,7 +2984,7 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>312</v>
+        <v>607</v>
       </c>
       <c r="C36" t="s">
         <v>139</v>
@@ -2981,43 +2996,43 @@
         <v>189</v>
       </c>
       <c r="F36">
-        <v>1758.310554468182</v>
+        <v>5658.302680814584</v>
       </c>
       <c r="G36">
-        <v>0.6376565835333333</v>
+        <v>0.7197513751935485</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I36">
-        <v>6074.689123925982</v>
+        <v>34025.55790278441</v>
       </c>
       <c r="J36">
-        <v>19189.94294248218</v>
+        <v>107486.7374148959</v>
       </c>
       <c r="K36">
-        <v>69.08145577059965</v>
+        <v>457.1923954182946</v>
       </c>
       <c r="L36">
-        <v>0.5871803577384578</v>
+        <v>2.886319598945602</v>
       </c>
       <c r="M36">
-        <v>0.1214937824785196</v>
+        <v>0.6805111580556882</v>
       </c>
       <c r="N36">
-        <v>7471.867622428957</v>
+        <v>41851.43622042482</v>
       </c>
       <c r="O36">
-        <v>7.289626948711177</v>
+        <v>40.8306694833413</v>
       </c>
       <c r="P36">
-        <v>0.148767896912473</v>
+        <v>0.8332789690477814</v>
       </c>
       <c r="Q36">
-        <v>40.4675</v>
+        <v>40.4719</v>
       </c>
       <c r="R36">
-        <v>50.0467</v>
+        <v>-3.56264</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3025,7 +3040,7 @@
         <v>53</v>
       </c>
       <c r="B37">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>140</v>
@@ -3037,43 +3052,43 @@
         <v>189</v>
       </c>
       <c r="F37">
-        <v>2192.081291234527</v>
+        <v>4790.372978185585</v>
       </c>
       <c r="G37">
-        <v>0.6376565835333333</v>
+        <v>0.7236819509333334</v>
       </c>
       <c r="H37" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I37">
-        <v>13891.40789117897</v>
+        <v>35995.60413851582</v>
       </c>
       <c r="J37">
-        <v>43882.95752823437</v>
+        <v>113710.1134735715</v>
       </c>
       <c r="K37">
-        <v>194.1128291484031</v>
+        <v>737.2182619984331</v>
       </c>
       <c r="L37">
-        <v>2.007597231015006</v>
+        <v>5.631025686722581</v>
       </c>
       <c r="M37">
-        <v>0.2778281578235794</v>
+        <v>0.7199120827703164</v>
       </c>
       <c r="N37">
-        <v>17086.43170615014</v>
+        <v>44274.59309037447</v>
       </c>
       <c r="O37">
-        <v>16.66968946941476</v>
+        <v>43.19472496621898</v>
       </c>
       <c r="P37">
-        <v>0.3401977442737707</v>
+        <v>0.8815249993105918</v>
       </c>
       <c r="Q37">
-        <v>41.2579</v>
+        <v>43.6584</v>
       </c>
       <c r="R37">
-        <v>69.2812</v>
+        <v>7.21587</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3081,10 +3096,10 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>293</v>
+        <v>1973</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
@@ -3093,43 +3108,43 @@
         <v>189</v>
       </c>
       <c r="F38">
-        <v>4909.055102355495</v>
+        <v>5245.251801383757</v>
       </c>
       <c r="G38">
-        <v>0.6376565835333333</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I38">
-        <v>38861.08175405536</v>
+        <v>26808.88928487666</v>
       </c>
       <c r="J38">
-        <v>122762.1572610609</v>
+        <v>84689.28125092536</v>
       </c>
       <c r="K38">
-        <v>814.5749275844031</v>
+        <v>388.9750754870425</v>
       </c>
       <c r="L38">
-        <v>5.797644177875143</v>
+        <v>1.227460982280365</v>
       </c>
       <c r="M38">
-        <v>0.7772216350811071</v>
+        <v>0.5361777856975332</v>
       </c>
       <c r="N38">
-        <v>47799.13055748808</v>
+        <v>32974.93382039829</v>
       </c>
       <c r="O38">
-        <v>46.63329810486643</v>
+        <v>32.17066714185199</v>
       </c>
       <c r="P38">
-        <v>0.9516999613238044</v>
+        <v>0.6565442273847344</v>
       </c>
       <c r="Q38">
-        <v>13.6811</v>
+        <v>49.0097</v>
       </c>
       <c r="R38">
-        <v>100.747</v>
+        <v>2.54778</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3137,10 +3152,10 @@
         <v>55</v>
       </c>
       <c r="B39">
-        <v>290</v>
+        <v>710</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -3149,43 +3164,43 @@
         <v>189</v>
       </c>
       <c r="F39">
-        <v>5923.617457828617</v>
+        <v>3275.593150332669</v>
       </c>
       <c r="G39">
-        <v>0.6078310146</v>
+        <v>0.7195233583870968</v>
       </c>
       <c r="H39" t="s">
         <v>191</v>
       </c>
       <c r="I39">
-        <v>55414.02905754787</v>
+        <v>8957.243303131308</v>
       </c>
       <c r="J39">
-        <v>175052.9177927937</v>
+        <v>28295.93159459181</v>
       </c>
       <c r="K39">
-        <v>1150.492913088198</v>
+        <v>91.09910775433509</v>
       </c>
       <c r="L39">
-        <v>6.87620369122746</v>
+        <v>1.126013094843112</v>
       </c>
       <c r="M39">
-        <v>1.108280581150957</v>
+        <v>0.1791448660626262</v>
       </c>
       <c r="N39">
-        <v>68159.25574078388</v>
+        <v>11017.40926285151</v>
       </c>
       <c r="O39">
-        <v>66.49683486905744</v>
+        <v>10.74869196375757</v>
       </c>
       <c r="P39">
-        <v>1.357078262633825</v>
+        <v>0.2193610604848484</v>
       </c>
       <c r="Q39">
-        <v>-8.858370000000001</v>
+        <v>37.9364</v>
       </c>
       <c r="R39">
-        <v>13.2312</v>
+        <v>23.9445</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3193,10 +3208,10 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>710</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -3205,43 +3220,43 @@
         <v>189</v>
       </c>
       <c r="F40">
-        <v>3275.593150332669</v>
+        <v>4011.001895984378</v>
       </c>
       <c r="G40">
-        <v>0.6987738282666667</v>
+        <v>0.7192953415806452</v>
       </c>
       <c r="H40" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="I40">
-        <v>26888.28390362976</v>
+        <v>6529.531771866536</v>
       </c>
       <c r="J40">
-        <v>84940.08885156638</v>
+        <v>20626.79086732638</v>
       </c>
       <c r="K40">
-        <v>557.5256160816614</v>
+        <v>68.66891412029825</v>
       </c>
       <c r="L40">
-        <v>5.132067105758</v>
+        <v>0.3355457079843285</v>
       </c>
       <c r="M40">
-        <v>0.537765678072595</v>
+        <v>0.1305906354373307</v>
       </c>
       <c r="N40">
-        <v>33072.58920146461</v>
+        <v>8031.324079395838</v>
       </c>
       <c r="O40">
-        <v>32.26594068435571</v>
+        <v>7.835438126239842</v>
       </c>
       <c r="P40">
-        <v>0.6584885853950145</v>
+        <v>0.159906900535507</v>
       </c>
       <c r="Q40">
-        <v>37.9364</v>
+        <v>47.4298</v>
       </c>
       <c r="R40">
-        <v>23.9445</v>
+        <v>19.2611</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3249,10 +3264,10 @@
         <v>57</v>
       </c>
       <c r="B41">
-        <v>283</v>
+        <v>1314</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -3261,43 +3276,43 @@
         <v>189</v>
       </c>
       <c r="F41">
-        <v>854.3229666268791</v>
+        <v>4349.357994219783</v>
       </c>
       <c r="G41">
-        <v>0.5245896810666667</v>
+        <v>0.7206525845333334</v>
       </c>
       <c r="H41" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="I41">
-        <v>9642.37813545332</v>
+        <v>5439.194534038453</v>
       </c>
       <c r="J41">
-        <v>30460.27252989704</v>
+        <v>17182.41553302747</v>
       </c>
       <c r="K41">
-        <v>235.3178872999452</v>
+        <v>38.3915429170586</v>
       </c>
       <c r="L41">
-        <v>3.772347434218042</v>
+        <v>0.7350942359331221</v>
       </c>
       <c r="M41">
-        <v>0.1928475627090664</v>
+        <v>0.108783890680769</v>
       </c>
       <c r="N41">
-        <v>11860.12510660759</v>
+        <v>6690.209276867296</v>
       </c>
       <c r="O41">
-        <v>11.57085376254398</v>
+        <v>6.527033440846143</v>
       </c>
       <c r="P41">
-        <v>0.2361398727049792</v>
+        <v>0.1332047640989009</v>
       </c>
       <c r="Q41">
-        <v>29.2266</v>
+        <v>41.8003</v>
       </c>
       <c r="R41">
-        <v>47.9689</v>
+        <v>12.2389</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3305,10 +3320,10 @@
         <v>58</v>
       </c>
       <c r="B42">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -3317,43 +3332,43 @@
         <v>189</v>
       </c>
       <c r="F42">
-        <v>2514.649386881819</v>
+        <v>4302.14030831915</v>
       </c>
       <c r="G42">
-        <v>0.6060793402</v>
+        <v>0.7038227721</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I42">
-        <v>24058.50779562063</v>
+        <v>9332.396497733702</v>
       </c>
       <c r="J42">
-        <v>76000.82612636556</v>
+        <v>29481.04053634076</v>
       </c>
       <c r="K42">
-        <v>497.0575173213799</v>
+        <v>127.8509298757219</v>
       </c>
       <c r="L42">
-        <v>4.04124220233196</v>
+        <v>1.047354362217328</v>
       </c>
       <c r="M42">
-        <v>0.4811701559124125</v>
+        <v>0.186647929954674</v>
       </c>
       <c r="N42">
-        <v>29591.96458861337</v>
+        <v>11478.84769221245</v>
       </c>
       <c r="O42">
-        <v>28.87020935474476</v>
+        <v>11.19887579728044</v>
       </c>
       <c r="P42">
-        <v>0.589187946015199</v>
+        <v>0.2285484856587845</v>
       </c>
       <c r="Q42">
-        <v>8.977779999999999</v>
+        <v>46.2237</v>
       </c>
       <c r="R42">
-        <v>38.7994</v>
+        <v>14.4576</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3361,10 +3376,10 @@
         <v>59</v>
       </c>
       <c r="B43">
-        <v>668</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
@@ -3373,43 +3388,43 @@
         <v>189</v>
       </c>
       <c r="F43">
-        <v>4821.316738145491</v>
+        <v>4467.175522335179</v>
       </c>
       <c r="G43">
-        <v>0.6987738282666667</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I43">
-        <v>40996.87833958282</v>
+        <v>9493.911390955462</v>
       </c>
       <c r="J43">
-        <v>129509.1386747421</v>
+        <v>29991.2660840283</v>
       </c>
       <c r="K43">
-        <v>832.4476067883168</v>
+        <v>135.0005968309719</v>
       </c>
       <c r="L43">
-        <v>4.396920840907404</v>
+        <v>0.9492026546340731</v>
       </c>
       <c r="M43">
-        <v>0.8199375667916564</v>
+        <v>0.1898782278191092</v>
       </c>
       <c r="N43">
-        <v>50426.16035768687</v>
+        <v>11677.51101087522</v>
       </c>
       <c r="O43">
-        <v>49.19625400749938</v>
+        <v>11.39269366914655</v>
       </c>
       <c r="P43">
-        <v>1.004005183826518</v>
+        <v>0.2325039524315623</v>
       </c>
       <c r="Q43">
-        <v>55.6179</v>
+        <v>50.1008</v>
       </c>
       <c r="R43">
-        <v>12.656</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3417,10 +3432,10 @@
         <v>60</v>
       </c>
       <c r="B44">
-        <v>264</v>
+        <v>1771</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -3429,43 +3444,43 @@
         <v>189</v>
       </c>
       <c r="F44">
-        <v>378.3820333775132</v>
+        <v>2133.488294911567</v>
       </c>
       <c r="G44">
-        <v>0.5245896810666667</v>
+        <v>0.7209891808000001</v>
       </c>
       <c r="H44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I44">
-        <v>2003.073409529189</v>
+        <v>4069.659274132217</v>
       </c>
       <c r="J44">
-        <v>6327.708900702708</v>
+        <v>12856.05364698367</v>
       </c>
       <c r="K44">
-        <v>28.9219016893548</v>
+        <v>59.24262492382249</v>
       </c>
       <c r="L44">
-        <v>0.3143511087609415</v>
+        <v>0.5454977769082597</v>
       </c>
       <c r="M44">
-        <v>0.04006146819058379</v>
+        <v>0.08139318548264432</v>
       </c>
       <c r="N44">
-        <v>2463.780293720903</v>
+        <v>5005.680907182626</v>
       </c>
       <c r="O44">
-        <v>2.403688091435026</v>
+        <v>4.88359112895866</v>
       </c>
       <c r="P44">
-        <v>0.0490548590088781</v>
+        <v>0.09966512508078898</v>
       </c>
       <c r="Q44">
-        <v>25.2731</v>
+        <v>32.0114</v>
       </c>
       <c r="R44">
-        <v>51.6081</v>
+        <v>34.8867</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3473,10 +3488,10 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>626</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
         <v>61</v>
@@ -3485,43 +3500,43 @@
         <v>189</v>
       </c>
       <c r="F45">
-        <v>4786.526838419995</v>
+        <v>4226.079272716002</v>
       </c>
       <c r="G45">
-        <v>0.6987738282666667</v>
+        <v>0.7165591399032258</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="I45">
-        <v>42193.379753624</v>
+        <v>9932.767633253206</v>
       </c>
       <c r="J45">
-        <v>133288.8866416982</v>
+        <v>31377.61295344688</v>
       </c>
       <c r="K45">
-        <v>859.2019273136793</v>
+        <v>109.0942551753415</v>
       </c>
       <c r="L45">
-        <v>5.534572325893548</v>
+        <v>0.5114681467308857</v>
       </c>
       <c r="M45">
-        <v>0.8438675950724799</v>
+        <v>0.1986553526650641</v>
       </c>
       <c r="N45">
-        <v>51897.85709695752</v>
+        <v>12217.30418890144</v>
       </c>
       <c r="O45">
-        <v>50.63205570434879</v>
+        <v>11.91932115990385</v>
       </c>
       <c r="P45">
-        <v>1.033307259272424</v>
+        <v>0.2432514522429357</v>
       </c>
       <c r="Q45">
-        <v>59.6519</v>
+        <v>48.1103</v>
       </c>
       <c r="R45">
-        <v>17.9186</v>
+        <v>16.5697</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3529,10 +3544,10 @@
         <v>62</v>
       </c>
       <c r="B46">
-        <v>607</v>
+        <v>520</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
@@ -3541,43 +3556,43 @@
         <v>189</v>
       </c>
       <c r="F46">
-        <v>5658.302680814584</v>
+        <v>6148.629185201377</v>
       </c>
       <c r="G46">
-        <v>0.6987738282666667</v>
+        <v>0.7108912934666666</v>
       </c>
       <c r="H46" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I46">
-        <v>46417.39414526589</v>
+        <v>47310.2862560019</v>
       </c>
       <c r="J46">
-        <v>146632.548104895</v>
+        <v>149453.1942827099</v>
       </c>
       <c r="K46">
-        <v>965.0733619575674</v>
+        <v>953.9536154613638</v>
       </c>
       <c r="L46">
-        <v>6.18994336766758</v>
+        <v>6.33647085289506</v>
       </c>
       <c r="M46">
-        <v>0.9283478829053178</v>
+        <v>0.9462057251200376</v>
       </c>
       <c r="N46">
-        <v>57093.39479867705</v>
+        <v>58191.65209488233</v>
       </c>
       <c r="O46">
-        <v>55.70087297431907</v>
+        <v>56.77234350720227</v>
       </c>
       <c r="P46">
-        <v>1.136752509679981</v>
+        <v>1.158619255249026</v>
       </c>
       <c r="Q46">
-        <v>40.4719</v>
+        <v>38.7813</v>
       </c>
       <c r="R46">
-        <v>-3.56264</v>
+        <v>-9.13592</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3585,10 +3600,10 @@
         <v>63</v>
       </c>
       <c r="B47">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
@@ -3597,43 +3612,43 @@
         <v>189</v>
       </c>
       <c r="F47">
-        <v>2995.756300767673</v>
+        <v>3927.00487646895</v>
       </c>
       <c r="G47">
-        <v>0.6376565835333333</v>
+        <v>0.7246917397333333</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I47">
-        <v>9156.410365895263</v>
+        <v>8330.095750481987</v>
       </c>
       <c r="J47">
-        <v>28925.10034586312</v>
+        <v>26314.7724757726</v>
       </c>
       <c r="K47">
-        <v>102.1500433087946</v>
+        <v>128.5695699598304</v>
       </c>
       <c r="L47">
-        <v>0.9044795354253171</v>
+        <v>0.8677296107517625</v>
       </c>
       <c r="M47">
-        <v>0.1831282073179052</v>
+        <v>0.1666019150096397</v>
       </c>
       <c r="N47">
-        <v>11262.38475005117</v>
+        <v>10246.01777309284</v>
       </c>
       <c r="O47">
-        <v>10.98769243907431</v>
+        <v>9.996114900578384</v>
       </c>
       <c r="P47">
-        <v>0.2242386212055982</v>
+        <v>0.2040023449097629</v>
       </c>
       <c r="Q47">
-        <v>27.6966</v>
+        <v>43.8246</v>
       </c>
       <c r="R47">
-        <v>85.3591</v>
+        <v>18.3315</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3641,10 +3656,10 @@
         <v>64</v>
       </c>
       <c r="B48">
-        <v>587</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
@@ -3653,43 +3668,43 @@
         <v>189</v>
       </c>
       <c r="F48">
-        <v>4537.373869400612</v>
+        <v>3395.956728747976</v>
       </c>
       <c r="G48">
-        <v>0.6997836170333334</v>
+        <v>0.7246917397333333</v>
       </c>
       <c r="H48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I48">
-        <v>11160.59641453068</v>
+        <v>6904.151017907223</v>
       </c>
       <c r="J48">
-        <v>35256.32407350242</v>
+        <v>21810.21306556891</v>
       </c>
       <c r="K48">
-        <v>161.3367417997575</v>
+        <v>95.4797634012218</v>
       </c>
       <c r="L48">
-        <v>1.148783418018889</v>
+        <v>0.740436302535608</v>
       </c>
       <c r="M48">
-        <v>0.2232119282906136</v>
+        <v>0.1380830203581445</v>
       </c>
       <c r="N48">
-        <v>13727.53358987274</v>
+        <v>8492.105752025886</v>
       </c>
       <c r="O48">
-        <v>13.39271569743682</v>
+        <v>8.284981221488666</v>
       </c>
       <c r="P48">
-        <v>0.2733207285191187</v>
+        <v>0.1690812494181361</v>
       </c>
       <c r="Q48">
-        <v>60.3172</v>
+        <v>44.5711</v>
       </c>
       <c r="R48">
-        <v>24.9633</v>
+        <v>26.085</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3697,10 +3712,10 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
@@ -3709,43 +3724,43 @@
         <v>189</v>
       </c>
       <c r="F49">
-        <v>1926.983005777511</v>
+        <v>4773.283196580763</v>
       </c>
       <c r="G49">
-        <v>0.5245896810666667</v>
+        <v>0.7203159882666668</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="I49">
-        <v>19282.05855396539</v>
+        <v>27698.27960620959</v>
       </c>
       <c r="J49">
-        <v>60912.02297197666</v>
+        <v>87498.86527601611</v>
       </c>
       <c r="K49">
-        <v>423.5878609168391</v>
+        <v>366.409275158248</v>
       </c>
       <c r="L49">
-        <v>4.262243114620417</v>
+        <v>2.694577096876621</v>
       </c>
       <c r="M49">
-        <v>0.3856411710793077</v>
+        <v>0.5539655921241919</v>
       </c>
       <c r="N49">
-        <v>23716.93202137743</v>
+        <v>34068.8839156378</v>
       </c>
       <c r="O49">
-        <v>23.13847026475846</v>
+        <v>33.23793552745151</v>
       </c>
       <c r="P49">
-        <v>0.4722136788726217</v>
+        <v>0.6783252148459492</v>
       </c>
       <c r="Q49">
-        <v>33.5607</v>
+        <v>47.4647</v>
       </c>
       <c r="R49">
-        <v>72.8516</v>
+        <v>8.54917</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3753,10 +3768,10 @@
         <v>66</v>
       </c>
       <c r="B50">
-        <v>234</v>
+        <v>2577</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -3765,43 +3780,43 @@
         <v>189</v>
       </c>
       <c r="F50">
-        <v>3497.273675198606</v>
+        <v>3029.889751675834</v>
       </c>
       <c r="G50">
-        <v>0.6987738282666667</v>
+        <v>0.7038227721</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I50">
-        <v>8439.818709618816</v>
+        <v>7005.124963790413</v>
       </c>
       <c r="J50">
-        <v>26661.38730368583</v>
+        <v>22129.18976061391</v>
       </c>
       <c r="K50">
-        <v>121.9031667200459</v>
+        <v>101.6622355818227</v>
       </c>
       <c r="L50">
-        <v>0.9014048399940953</v>
+        <v>0.7251421530011333</v>
       </c>
       <c r="M50">
-        <v>0.1687963741923763</v>
+        <v>0.1401024992758083</v>
       </c>
       <c r="N50">
-        <v>10380.97701283114</v>
+        <v>8616.303705462207</v>
       </c>
       <c r="O50">
-        <v>10.12778245154258</v>
+        <v>8.406149956548493</v>
       </c>
       <c r="P50">
-        <v>0.2066894377865832</v>
+        <v>0.1715540807458876</v>
       </c>
       <c r="Q50">
-        <v>42.6967</v>
+        <v>41.2753</v>
       </c>
       <c r="R50">
-        <v>23.4114</v>
+        <v>28.7519</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3809,10 +3824,10 @@
         <v>67</v>
       </c>
       <c r="B51">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
@@ -3821,43 +3836,43 @@
         <v>189</v>
       </c>
       <c r="F51">
-        <v>3285.245755639002</v>
+        <v>3819.387206090362</v>
       </c>
       <c r="G51">
-        <v>0.6376565835333333</v>
+        <v>0.7250283360000001</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I51">
-        <v>9938.097261424231</v>
+        <v>7833.15877728923</v>
       </c>
       <c r="J51">
-        <v>31394.44924883914</v>
+        <v>24744.94857745667</v>
       </c>
       <c r="K51">
-        <v>114.1731881534864</v>
+        <v>110.3539794950442</v>
       </c>
       <c r="L51">
-        <v>0.8703196015771016</v>
+        <v>0.858170413853016</v>
       </c>
       <c r="M51">
-        <v>0.1987619452284846</v>
+        <v>0.1566631755457846</v>
       </c>
       <c r="N51">
-        <v>12223.8596315518</v>
+        <v>9634.785296065753</v>
       </c>
       <c r="O51">
-        <v>11.92571671370908</v>
+        <v>9.399790532747076</v>
       </c>
       <c r="P51">
-        <v>0.2433819737491648</v>
+        <v>0.1918324598519811</v>
       </c>
       <c r="Q51">
-        <v>7.18076</v>
+        <v>44.8184</v>
       </c>
       <c r="R51">
-        <v>79.8841</v>
+        <v>20.3091</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3865,10 +3880,10 @@
         <v>68</v>
       </c>
       <c r="B52">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -3877,43 +3892,43 @@
         <v>189</v>
       </c>
       <c r="F52">
-        <v>4058.358801134944</v>
+        <v>4184.725593262381</v>
       </c>
       <c r="G52">
-        <v>0.6060793402</v>
+        <v>0.7149630222580645</v>
       </c>
       <c r="H52" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I52">
-        <v>26776.62289742479</v>
+        <v>9641.955781204655</v>
       </c>
       <c r="J52">
-        <v>84587.35173296492</v>
+        <v>30458.9383128255</v>
       </c>
       <c r="K52">
-        <v>374.1524896696622</v>
+        <v>138.1667698881967</v>
       </c>
       <c r="L52">
-        <v>2.358691548933191</v>
+        <v>0.9570380163904113</v>
       </c>
       <c r="M52">
-        <v>0.5355324579484957</v>
+        <v>0.1928391156240931</v>
       </c>
       <c r="N52">
-        <v>32935.2461638325</v>
+        <v>11859.60561088173</v>
       </c>
       <c r="O52">
-        <v>32.13194747690975</v>
+        <v>11.57034693744558</v>
       </c>
       <c r="P52">
-        <v>0.6557540301410153</v>
+        <v>0.2361295293356242</v>
       </c>
       <c r="Q52">
-        <v>-1.96863</v>
+        <v>48.1702</v>
       </c>
       <c r="R52">
-        <v>30.1395</v>
+        <v>17.2127</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3921,10 +3936,10 @@
         <v>69</v>
       </c>
       <c r="B53">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -3933,43 +3948,43 @@
         <v>189</v>
       </c>
       <c r="F53">
-        <v>4451.568919838058</v>
+        <v>487.7687986788414</v>
       </c>
       <c r="G53">
-        <v>0.6060793402</v>
+        <v>0.5427835428</v>
       </c>
       <c r="H53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I53">
-        <v>34848.32284841596</v>
+        <v>1474.626544288712</v>
       </c>
       <c r="J53">
-        <v>110085.851878146</v>
+        <v>4658.345253408041</v>
       </c>
       <c r="K53">
-        <v>700.7451988569662</v>
+        <v>29.66264889581357</v>
       </c>
       <c r="L53">
-        <v>5.283775875516542</v>
+        <v>0.2196236664199657</v>
       </c>
       <c r="M53">
-        <v>0.6969664569683189</v>
+        <v>0.02949253088577423</v>
       </c>
       <c r="N53">
-        <v>42863.43710355162</v>
+        <v>1813.790649475115</v>
       </c>
       <c r="O53">
-        <v>41.81798741809914</v>
+        <v>1.769551853146454</v>
       </c>
       <c r="P53">
-        <v>0.8534283146550847</v>
+        <v>0.03611330312543784</v>
       </c>
       <c r="Q53">
-        <v>36.851</v>
+        <v>26.2708</v>
       </c>
       <c r="R53">
-        <v>10.2272</v>
+        <v>50.6336</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3977,10 +3992,10 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>218</v>
+        <v>426</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -3989,43 +4004,43 @@
         <v>189</v>
       </c>
       <c r="F54">
-        <v>487.7687986788414</v>
+        <v>874.4948200511059</v>
       </c>
       <c r="G54">
-        <v>0.5245896810666667</v>
+        <v>0.5412673876</v>
       </c>
       <c r="H54" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="I54">
-        <v>6266.039789383753</v>
+        <v>1179.159827116327</v>
       </c>
       <c r="J54">
-        <v>19794.41969466327</v>
+        <v>3724.965893860477</v>
       </c>
       <c r="K54">
-        <v>161.1217285021753</v>
+        <v>13.19173076169721</v>
       </c>
       <c r="L54">
-        <v>2.300017565590628</v>
+        <v>0.2967837977280461</v>
       </c>
       <c r="M54">
-        <v>0.125320795787675</v>
+        <v>0.02358319654232654</v>
       </c>
       <c r="N54">
-        <v>7707.228940942016</v>
+        <v>1450.366587353082</v>
       </c>
       <c r="O54">
-        <v>7.519247747260502</v>
+        <v>1.414991792539593</v>
       </c>
       <c r="P54">
-        <v>0.1534540356583776</v>
+        <v>0.02887738352121617</v>
       </c>
       <c r="Q54">
-        <v>26.2708</v>
+        <v>24.9578</v>
       </c>
       <c r="R54">
-        <v>50.6336</v>
+        <v>46.6989</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4033,10 +4048,10 @@
         <v>71</v>
       </c>
       <c r="B55">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
@@ -4045,43 +4060,43 @@
         <v>189</v>
       </c>
       <c r="F55">
-        <v>5174.013327477973</v>
+        <v>1220.288260261259</v>
       </c>
       <c r="G55">
-        <v>0.6987738282666667</v>
+        <v>0.5321704567333334</v>
       </c>
       <c r="H55" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="I55">
-        <v>39969.66356473222</v>
+        <v>3710.723782896344</v>
       </c>
       <c r="J55">
-        <v>126264.1672009891</v>
+        <v>11722.17643016955</v>
       </c>
       <c r="K55">
-        <v>733.4131104023795</v>
+        <v>44.13043853706952</v>
       </c>
       <c r="L55">
-        <v>5.463575384396974</v>
+        <v>0.4387353457159747</v>
       </c>
       <c r="M55">
-        <v>0.7993932712946443</v>
+        <v>0.07421447565792688</v>
       </c>
       <c r="N55">
-        <v>49162.68618462063</v>
+        <v>4564.190252962504</v>
       </c>
       <c r="O55">
-        <v>47.96359627767865</v>
+        <v>4.452868539475613</v>
       </c>
       <c r="P55">
-        <v>0.978848903626095</v>
+        <v>0.09087486815256354</v>
       </c>
       <c r="Q55">
-        <v>52.3086</v>
+        <v>35.6892</v>
       </c>
       <c r="R55">
-        <v>4.76389</v>
+        <v>51.3134</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4089,10 +4104,10 @@
         <v>72</v>
       </c>
       <c r="B56">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
@@ -4101,43 +4116,43 @@
         <v>189</v>
       </c>
       <c r="F56">
-        <v>6148.629185201377</v>
+        <v>2024.027070811464</v>
       </c>
       <c r="G56">
-        <v>0.6987738282666667</v>
+        <v>0.539653415967742</v>
       </c>
       <c r="H56" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="I56">
-        <v>50885.12793139396</v>
+        <v>3556.593433196331</v>
       </c>
       <c r="J56">
-        <v>160746.1191352735</v>
+        <v>11235.27865546721</v>
       </c>
       <c r="K56">
-        <v>1040.930977309132</v>
+        <v>35.95852751455338</v>
       </c>
       <c r="L56">
-        <v>6.064645061009233</v>
+        <v>0.1611804262040493</v>
       </c>
       <c r="M56">
-        <v>1.017702558627879</v>
+        <v>0.0711318686639266</v>
       </c>
       <c r="N56">
-        <v>62588.70735561457</v>
+        <v>4374.609922831486</v>
       </c>
       <c r="O56">
-        <v>61.06215351767274</v>
+        <v>4.267912119835596</v>
       </c>
       <c r="P56">
-        <v>1.246166398319852</v>
+        <v>0.0871002473435836</v>
       </c>
       <c r="Q56">
-        <v>38.7813</v>
+        <v>31.7226</v>
       </c>
       <c r="R56">
-        <v>-9.13592</v>
+        <v>35.9932</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4145,10 +4160,10 @@
         <v>73</v>
       </c>
       <c r="B57">
-        <v>451</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
@@ -4157,43 +4172,43 @@
         <v>189</v>
       </c>
       <c r="F57">
-        <v>5140.270652699632</v>
+        <v>854.3229666268791</v>
       </c>
       <c r="G57">
-        <v>0.6987738282666667</v>
+        <v>0.5415200801333333</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I57">
-        <v>45351.61952464518</v>
+        <v>1898.285684334703</v>
       </c>
       <c r="J57">
-        <v>143265.7660783541</v>
+        <v>5996.684476813328</v>
       </c>
       <c r="K57">
-        <v>914.8078515245599</v>
+        <v>27.89756479856391</v>
       </c>
       <c r="L57">
-        <v>5.946322975240317</v>
+        <v>0.1317680666917482</v>
       </c>
       <c r="M57">
-        <v>0.9070323904929034</v>
+        <v>0.03796571368669407</v>
       </c>
       <c r="N57">
-        <v>55782.49201531357</v>
+        <v>2334.891391731685</v>
       </c>
       <c r="O57">
-        <v>54.42194342957421</v>
+        <v>2.277942821201644</v>
       </c>
       <c r="P57">
-        <v>1.110651906726004</v>
+        <v>0.04648862900411519</v>
       </c>
       <c r="Q57">
-        <v>60.1939</v>
+        <v>29.2266</v>
       </c>
       <c r="R57">
-        <v>11.1004</v>
+        <v>47.9689</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4204,7 +4219,7 @@
         <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
         <v>74</v>
@@ -4216,34 +4231,34 @@
         <v>2142.676062220869</v>
       </c>
       <c r="G58">
-        <v>0.5245896810666667</v>
+        <v>0.5410146950666667</v>
       </c>
       <c r="H58" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I58">
-        <v>7918.290229706974</v>
+        <v>5508.476993414532</v>
       </c>
       <c r="J58">
-        <v>25013.87883564433</v>
+        <v>17401.27882219651</v>
       </c>
       <c r="K58">
-        <v>136.7297691089319</v>
+        <v>75.73077057032856</v>
       </c>
       <c r="L58">
-        <v>0.500814395538723</v>
+        <v>0.3426401811038128</v>
       </c>
       <c r="M58">
-        <v>0.1583658045941395</v>
+        <v>0.1101695398682906</v>
       </c>
       <c r="N58">
-        <v>9739.49698253958</v>
+        <v>6775.426701899874</v>
       </c>
       <c r="O58">
-        <v>9.501948275648367</v>
+        <v>6.610172392097438</v>
       </c>
       <c r="P58">
-        <v>0.1939173117479259</v>
+        <v>0.1349014773897436</v>
       </c>
       <c r="Q58">
         <v>33.8209</v>
@@ -4257,10 +4272,10 @@
         <v>75</v>
       </c>
       <c r="B59">
-        <v>158</v>
+        <v>4409</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
         <v>75</v>
@@ -4269,43 +4284,43 @@
         <v>189</v>
       </c>
       <c r="F59">
-        <v>3394.714651416399</v>
+        <v>115.9503975433683</v>
       </c>
       <c r="G59">
-        <v>0.6060793402</v>
+        <v>0.5298962240333334</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I59">
-        <v>9542.584277205944</v>
+        <v>466.9798063784019</v>
       </c>
       <c r="J59">
-        <v>30145.02373169357</v>
+        <v>1475.189208349371</v>
       </c>
       <c r="K59">
-        <v>168.0037039489542</v>
+        <v>7.070074268569003</v>
       </c>
       <c r="L59">
-        <v>1.009692750922625</v>
+        <v>0.2428294993167689</v>
       </c>
       <c r="M59">
-        <v>0.1908516855441189</v>
+        <v>0.009339596127568033</v>
       </c>
       <c r="N59">
-        <v>11737.37866096331</v>
+        <v>574.3851618454341</v>
       </c>
       <c r="O59">
-        <v>11.45110113264713</v>
+        <v>0.560375767654082</v>
       </c>
       <c r="P59">
-        <v>0.2336959414825945</v>
+        <v>0.01143624015620576</v>
       </c>
       <c r="Q59">
-        <v>4.87201</v>
+        <v>24.433</v>
       </c>
       <c r="R59">
-        <v>31.6011</v>
+        <v>54.6511</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4313,10 +4328,10 @@
         <v>76</v>
       </c>
       <c r="B60">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -4325,43 +4340,43 @@
         <v>189</v>
       </c>
       <c r="F60">
-        <v>4157.10634709943</v>
+        <v>348.5265608189779</v>
       </c>
       <c r="G60">
-        <v>0.6987738282666667</v>
+        <v>0.5291381464666667</v>
       </c>
       <c r="H60" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I60">
-        <v>34609.44465013338</v>
+        <v>1209.895381107087</v>
       </c>
       <c r="J60">
-        <v>109331.2356497713</v>
+        <v>3822.059508917287</v>
       </c>
       <c r="K60">
-        <v>691.8368799101422</v>
+        <v>23.29795163458512</v>
       </c>
       <c r="L60">
-        <v>5.862142490648479</v>
+        <v>0.07532539116688686</v>
       </c>
       <c r="M60">
-        <v>0.6921888930026674</v>
+        <v>0.02419790762214174</v>
       </c>
       <c r="N60">
-        <v>42569.61691966405</v>
+        <v>1488.171318761717</v>
       </c>
       <c r="O60">
-        <v>41.53133358016004</v>
+        <v>1.451874457328504</v>
       </c>
       <c r="P60">
-        <v>0.847578236329797</v>
+        <v>0.02963009096588784</v>
       </c>
       <c r="Q60">
-        <v>52.1657</v>
+        <v>23.5933</v>
       </c>
       <c r="R60">
-        <v>20.9671</v>
+        <v>58.2844</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4369,10 +4384,10 @@
         <v>77</v>
       </c>
       <c r="B61">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
@@ -4381,43 +4396,43 @@
         <v>189</v>
       </c>
       <c r="F61">
-        <v>3542.905550034026</v>
+        <v>1926.983005777511</v>
       </c>
       <c r="G61">
-        <v>0.6376565835333333</v>
+        <v>0.5410146950666667</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I61">
-        <v>34865.90080128709</v>
+        <v>6347.218216479352</v>
       </c>
       <c r="J61">
-        <v>110141.3806312659</v>
+        <v>20050.86234585827</v>
       </c>
       <c r="K61">
-        <v>760.1294432271568</v>
+        <v>68.96041080859997</v>
       </c>
       <c r="L61">
-        <v>4.61659631086561</v>
+        <v>0.8300943404983506</v>
       </c>
       <c r="M61">
-        <v>0.6973180160257416</v>
+        <v>0.1269443643295871</v>
       </c>
       <c r="N61">
-        <v>42885.05798558312</v>
+        <v>7807.078406269603</v>
       </c>
       <c r="O61">
-        <v>41.8390809615445</v>
+        <v>7.616661859775222</v>
       </c>
       <c r="P61">
-        <v>0.8538587951335612</v>
+        <v>0.1554420787709229</v>
       </c>
       <c r="Q61">
-        <v>23.8433</v>
+        <v>33.5607</v>
       </c>
       <c r="R61">
-        <v>90.3978</v>
+        <v>72.8516</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4425,10 +4440,10 @@
         <v>78</v>
       </c>
       <c r="B62">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -4437,43 +4452,43 @@
         <v>189</v>
       </c>
       <c r="F62">
-        <v>5926.323546573898</v>
+        <v>1397.800079438805</v>
       </c>
       <c r="G62">
-        <v>0.6987738282666667</v>
+        <v>0.5321704567333334</v>
       </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="I62">
-        <v>48847.55323703054</v>
+        <v>3053.456050991671</v>
       </c>
       <c r="J62">
-        <v>154309.4206757794</v>
+        <v>9645.867665082687</v>
       </c>
       <c r="K62">
-        <v>968.866583080207</v>
+        <v>32.19245908629329</v>
       </c>
       <c r="L62">
-        <v>6.763730971281797</v>
+        <v>0.1347836750698936</v>
       </c>
       <c r="M62">
-        <v>0.9769510647406106</v>
+        <v>0.06106912101983341</v>
       </c>
       <c r="N62">
-        <v>60082.49048154756</v>
+        <v>3755.750942719755</v>
       </c>
       <c r="O62">
-        <v>58.61706388443664</v>
+        <v>3.664147261190005</v>
       </c>
       <c r="P62">
-        <v>1.196266609886462</v>
+        <v>0.07477851553448989</v>
       </c>
       <c r="Q62">
-        <v>53.4213</v>
+        <v>33.2625</v>
       </c>
       <c r="R62">
-        <v>-6.27007</v>
+        <v>44.2346</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4481,10 +4496,10 @@
         <v>79</v>
       </c>
       <c r="B63">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -4493,43 +4508,43 @@
         <v>189</v>
       </c>
       <c r="F63">
-        <v>3310.975061295877</v>
+        <v>378.3820333775132</v>
       </c>
       <c r="G63">
-        <v>0.6060793402</v>
+        <v>0.5420254652000001</v>
       </c>
       <c r="H63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I63">
-        <v>27362.43238027314</v>
+        <v>1289.814925257661</v>
       </c>
       <c r="J63">
-        <v>86437.92388928281</v>
+        <v>4074.525348888951</v>
       </c>
       <c r="K63">
-        <v>601.3312457007374</v>
+        <v>23.65231342688447</v>
       </c>
       <c r="L63">
-        <v>5.012445041408207</v>
+        <v>0.1776293980613153</v>
       </c>
       <c r="M63">
-        <v>0.5472486476054627</v>
+        <v>0.02579629850515323</v>
       </c>
       <c r="N63">
-        <v>33655.79182773596</v>
+        <v>1586.472358066923</v>
       </c>
       <c r="O63">
-        <v>32.83491885632776</v>
+        <v>1.547777910309194</v>
       </c>
       <c r="P63">
-        <v>0.6701003848230155</v>
+        <v>0.03158730429202435</v>
       </c>
       <c r="Q63">
-        <v>-4.67434</v>
+        <v>25.2731</v>
       </c>
       <c r="R63">
-        <v>55.5218</v>
+        <v>51.6081</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4537,10 +4552,10 @@
         <v>80</v>
       </c>
       <c r="B64">
-        <v>130</v>
+        <v>2631</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -4549,43 +4564,43 @@
         <v>189</v>
       </c>
       <c r="F64">
-        <v>1943.052710065926</v>
+        <v>7949.365153523985</v>
       </c>
       <c r="G64">
-        <v>0.6385780525666667</v>
+        <v>0.6450283358000001</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I64">
-        <v>6852.037840429583</v>
+        <v>72779.49778602773</v>
       </c>
       <c r="J64">
-        <v>21645.58753791705</v>
+        <v>229910.4335060616</v>
       </c>
       <c r="K64">
-        <v>80.45347725019113</v>
+        <v>1418.160958685327</v>
       </c>
       <c r="L64">
-        <v>0.7268112463285873</v>
+        <v>7.370944783644945</v>
       </c>
       <c r="M64">
-        <v>0.1370407568085917</v>
+        <v>1.455589955720555</v>
       </c>
       <c r="N64">
-        <v>8428.006543728388</v>
+        <v>89518.7822768141</v>
       </c>
       <c r="O64">
-        <v>8.222445408515499</v>
+        <v>87.33539734323328</v>
       </c>
       <c r="P64">
-        <v>0.167805008337051</v>
+        <v>1.782355047821087</v>
       </c>
       <c r="Q64">
-        <v>38.5433</v>
+        <v>35.5533</v>
       </c>
       <c r="R64">
-        <v>68.825</v>
+        <v>139.781</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4593,10 +4608,10 @@
         <v>81</v>
       </c>
       <c r="B65">
-        <v>301</v>
+        <v>1699</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
         <v>81</v>
@@ -4605,43 +4620,43 @@
         <v>189</v>
       </c>
       <c r="F65">
-        <v>4226.079272716002</v>
+        <v>6740.321375341186</v>
       </c>
       <c r="G65">
-        <v>0.6987738282666667</v>
+        <v>0.6561751392903226</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I65">
-        <v>56176.18005447517</v>
+        <v>51808.21917526839</v>
       </c>
       <c r="J65">
-        <v>177460.5527920871</v>
+        <v>163662.1643746728</v>
       </c>
       <c r="K65">
-        <v>1077.073989071403</v>
+        <v>1042.605152451446</v>
       </c>
       <c r="L65">
-        <v>8.275868945165563</v>
+        <v>4.721692020384681</v>
       </c>
       <c r="M65">
-        <v>1.123523601089504</v>
+        <v>1.036164383505368</v>
       </c>
       <c r="N65">
-        <v>69096.70146700446</v>
+        <v>63724.1095855801</v>
       </c>
       <c r="O65">
-        <v>67.4114160653702</v>
+        <v>62.16986301032205</v>
       </c>
       <c r="P65">
-        <v>1.375743185007555</v>
+        <v>1.268772714496369</v>
       </c>
       <c r="Q65">
-        <v>48.1103</v>
+        <v>37.4633</v>
       </c>
       <c r="R65">
-        <v>16.5697</v>
+        <v>126.44</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4649,10 +4664,10 @@
         <v>82</v>
       </c>
       <c r="B66">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
         <v>82</v>
@@ -4661,43 +4676,43 @@
         <v>189</v>
       </c>
       <c r="F66">
-        <v>4999.934295476166</v>
+        <v>6915.22964462913</v>
       </c>
       <c r="G66">
-        <v>0.7018031945666666</v>
+        <v>0.6513894447096774</v>
       </c>
       <c r="H66" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="I66">
-        <v>14473.09251679819</v>
+        <v>42899.77730726358</v>
       </c>
       <c r="J66">
-        <v>45720.49926056548</v>
+        <v>135520.3965136456</v>
       </c>
       <c r="K66">
-        <v>154.4323706267818</v>
+        <v>602.0031929186146</v>
       </c>
       <c r="L66">
-        <v>1.012024660143025</v>
+        <v>2.661592658663022</v>
       </c>
       <c r="M66">
-        <v>0.2894618503359638</v>
+        <v>0.8579955461452713</v>
       </c>
       <c r="N66">
-        <v>17801.90379566178</v>
+        <v>52766.72608793419</v>
       </c>
       <c r="O66">
-        <v>17.36771102015783</v>
+        <v>51.47973276871627</v>
       </c>
       <c r="P66">
-        <v>0.3544430820440373</v>
+        <v>1.050606791198291</v>
       </c>
       <c r="Q66">
-        <v>49.6233</v>
+        <v>14.5086</v>
       </c>
       <c r="R66">
-        <v>6.20444</v>
+        <v>121.02</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4705,10 +4720,10 @@
         <v>83</v>
       </c>
       <c r="B67">
-        <v>112</v>
+        <v>7598</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -4717,43 +4732,43 @@
         <v>189</v>
       </c>
       <c r="F67">
-        <v>5410.958478050406</v>
+        <v>12218.28009329243</v>
       </c>
       <c r="G67">
-        <v>0.6394995216</v>
+        <v>0.793083094</v>
       </c>
       <c r="H67" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I67">
-        <v>46500.96747601601</v>
+        <v>91615.61344628921</v>
       </c>
       <c r="J67">
-        <v>146896.5562567346</v>
+        <v>289413.7228768276</v>
       </c>
       <c r="K67">
-        <v>995.1617958546387</v>
+        <v>1760.081727780712</v>
       </c>
       <c r="L67">
-        <v>5.920640948749657</v>
+        <v>7.210426777036968</v>
       </c>
       <c r="M67">
-        <v>0.9300193495203202</v>
+        <v>1.832312268925784</v>
       </c>
       <c r="N67">
-        <v>57196.18999549968</v>
+        <v>112687.2045389357</v>
       </c>
       <c r="O67">
-        <v>55.8011609712192</v>
+        <v>109.938736135547</v>
       </c>
       <c r="P67">
-        <v>1.13879920349427</v>
+        <v>2.243647676235654</v>
       </c>
       <c r="Q67">
-        <v>11.5466</v>
+        <v>-23.4262</v>
       </c>
       <c r="R67">
-        <v>104.844</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4761,10 +4776,10 @@
         <v>84</v>
       </c>
       <c r="B68">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
@@ -4773,43 +4788,43 @@
         <v>189</v>
       </c>
       <c r="F68">
-        <v>3395.956728747976</v>
+        <v>3173.831734839541</v>
       </c>
       <c r="G68">
-        <v>0.6987738282666667</v>
+        <v>0.6496356809666667</v>
       </c>
       <c r="H68" t="s">
         <v>196</v>
       </c>
       <c r="I68">
-        <v>8147.357014123172</v>
+        <v>7824.414374592392</v>
       </c>
       <c r="J68">
-        <v>25737.5008076151</v>
+        <v>24717.32500933736</v>
       </c>
       <c r="K68">
-        <v>120.042470069938</v>
+        <v>92.34211758983496</v>
       </c>
       <c r="L68">
-        <v>0.8632957306902103</v>
+        <v>0.4162039840472901</v>
       </c>
       <c r="M68">
-        <v>0.1629471402824634</v>
+        <v>0.1564882874918478</v>
       </c>
       <c r="N68">
-        <v>10021.2491273715</v>
+        <v>9624.029680748641</v>
       </c>
       <c r="O68">
-        <v>9.776828416947804</v>
+        <v>9.38929724951087</v>
       </c>
       <c r="P68">
-        <v>0.1995271105499553</v>
+        <v>0.1916183112145075</v>
       </c>
       <c r="Q68">
-        <v>44.5711</v>
+        <v>51.0222</v>
       </c>
       <c r="R68">
-        <v>26.085</v>
+        <v>71.4669</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4817,10 +4832,10 @@
         <v>85</v>
       </c>
       <c r="B69">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
@@ -4829,43 +4844,43 @@
         <v>189</v>
       </c>
       <c r="F69">
-        <v>1942.165193943087</v>
+        <v>1758.310554468182</v>
       </c>
       <c r="G69">
-        <v>0.6376565835333333</v>
+        <v>0.6477927429</v>
       </c>
       <c r="H69" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="I69">
-        <v>6368.373580578077</v>
+        <v>1867.548661235304</v>
       </c>
       <c r="J69">
-        <v>20117.69214104614</v>
+        <v>5899.586220842325</v>
       </c>
       <c r="K69">
-        <v>76.91397566807329</v>
+        <v>21.34238244635456</v>
       </c>
       <c r="L69">
-        <v>0.7233671509808468</v>
+        <v>0.3192071776942875</v>
       </c>
       <c r="M69">
-        <v>0.1273674716115615</v>
+        <v>0.03735097322470608</v>
       </c>
       <c r="N69">
-        <v>7833.099504111035</v>
+        <v>2297.084853319424</v>
       </c>
       <c r="O69">
-        <v>7.642048296693692</v>
+        <v>2.241058393482365</v>
       </c>
       <c r="P69">
-        <v>0.1559601693202794</v>
+        <v>0.04573588558127274</v>
       </c>
       <c r="Q69">
-        <v>40.1473</v>
+        <v>40.4675</v>
       </c>
       <c r="R69">
-        <v>44.3959</v>
+        <v>50.0467</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4873,10 +4888,10 @@
         <v>86</v>
       </c>
       <c r="B70">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
@@ -4885,43 +4900,43 @@
         <v>189</v>
       </c>
       <c r="F70">
-        <v>4011.001895984378</v>
+        <v>1942.165193943087</v>
       </c>
       <c r="G70">
-        <v>0.6987738282666667</v>
+        <v>0.6496356809666667</v>
       </c>
       <c r="H70" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I70">
-        <v>32777.21189450606</v>
+        <v>4789.331583018741</v>
       </c>
       <c r="J70">
-        <v>103543.2123747446</v>
+        <v>15129.4984707562</v>
       </c>
       <c r="K70">
-        <v>663.8285216216468</v>
+        <v>54.33984832205039</v>
       </c>
       <c r="L70">
-        <v>6.296945603073506</v>
+        <v>0.6803468340925294</v>
       </c>
       <c r="M70">
-        <v>0.6555442378901212</v>
+        <v>0.09578663166037482</v>
       </c>
       <c r="N70">
-        <v>40315.97063024246</v>
+        <v>5890.877847113052</v>
       </c>
       <c r="O70">
-        <v>39.33265427340727</v>
+        <v>5.74719789962249</v>
       </c>
       <c r="P70">
-        <v>0.8027072300695363</v>
+        <v>0.1172897530535202</v>
       </c>
       <c r="Q70">
-        <v>47.4298</v>
+        <v>40.1473</v>
       </c>
       <c r="R70">
-        <v>19.2611</v>
+        <v>44.3959</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4929,10 +4944,10 @@
         <v>87</v>
       </c>
       <c r="B71">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
         <v>87</v>
@@ -4941,43 +4956,43 @@
         <v>189</v>
       </c>
       <c r="F71">
-        <v>1988.305231491353</v>
+        <v>2058.222099325025</v>
       </c>
       <c r="G71">
-        <v>0.6078310146</v>
+        <v>0.6450283358000001</v>
       </c>
       <c r="H71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I71">
-        <v>6753.90120629683</v>
+        <v>4588.09724293595</v>
       </c>
       <c r="J71">
-        <v>21335.57391069168</v>
+        <v>14493.79919043467</v>
       </c>
       <c r="K71">
-        <v>78.12512280165716</v>
+        <v>72.92896649046328</v>
       </c>
       <c r="L71">
-        <v>0.7716469856467573</v>
+        <v>0.5597510847648662</v>
       </c>
       <c r="M71">
-        <v>0.1350780241259366</v>
+        <v>0.091761944858719</v>
       </c>
       <c r="N71">
-        <v>8307.298483745102</v>
+        <v>5643.359608811219</v>
       </c>
       <c r="O71">
-        <v>8.104681447556196</v>
+        <v>5.50571669152314</v>
       </c>
       <c r="P71">
-        <v>0.1654016621950244</v>
+        <v>0.1123615651331253</v>
       </c>
       <c r="Q71">
-        <v>11.5473</v>
+        <v>41.6692</v>
       </c>
       <c r="R71">
-        <v>43.1595</v>
+        <v>44.9547</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4985,10 +5000,10 @@
         <v>88</v>
       </c>
       <c r="B72">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D72" t="s">
         <v>88</v>
@@ -4997,43 +5012,43 @@
         <v>189</v>
       </c>
       <c r="F72">
-        <v>1220.288260261259</v>
+        <v>3901.615013086867</v>
       </c>
       <c r="G72">
-        <v>0.5261058362000001</v>
+        <v>0.6413424596666667</v>
       </c>
       <c r="H72" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="I72">
-        <v>4038.085151282208</v>
+        <v>8608.510716074965</v>
       </c>
       <c r="J72">
-        <v>12756.31099290049</v>
+        <v>27194.28535208081</v>
       </c>
       <c r="K72">
-        <v>49.90017846054127</v>
+        <v>126.5443977813993</v>
       </c>
       <c r="L72">
-        <v>0.5282755499768598</v>
+        <v>0.9367179907916585</v>
       </c>
       <c r="M72">
-        <v>0.08076170302564414</v>
+        <v>0.1721702143214993</v>
       </c>
       <c r="N72">
-        <v>4966.844736077115</v>
+        <v>10588.4681807722</v>
       </c>
       <c r="O72">
-        <v>4.845702181538648</v>
+        <v>10.33021285928996</v>
       </c>
       <c r="P72">
-        <v>0.09889188125589081</v>
+        <v>0.2108206705977542</v>
       </c>
       <c r="Q72">
-        <v>35.6892</v>
+        <v>53.8825</v>
       </c>
       <c r="R72">
-        <v>51.3134</v>
+        <v>28.0307</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5041,10 +5056,10 @@
         <v>89</v>
       </c>
       <c r="B73">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
@@ -5053,43 +5068,43 @@
         <v>189</v>
       </c>
       <c r="F73">
-        <v>3033.748862710535</v>
+        <v>1943.052710065926</v>
       </c>
       <c r="G73">
-        <v>0.6376565835333333</v>
+        <v>0.6522217394193548</v>
       </c>
       <c r="H73" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I73">
-        <v>24099.43141678929</v>
+        <v>6140.097486252101</v>
       </c>
       <c r="J73">
-        <v>76130.10384563738</v>
+        <v>19396.56795907038</v>
       </c>
       <c r="K73">
-        <v>518.5598014095231</v>
+        <v>69.13754827977213</v>
       </c>
       <c r="L73">
-        <v>4.434829138728756</v>
+        <v>0.7694371433255298</v>
       </c>
       <c r="M73">
-        <v>0.4819886283357858</v>
+        <v>0.122801949725042</v>
       </c>
       <c r="N73">
-        <v>29642.30064265083</v>
+        <v>7552.319908090083</v>
       </c>
       <c r="O73">
-        <v>28.91931770014715</v>
+        <v>7.36811698350252</v>
       </c>
       <c r="P73">
-        <v>0.5901901571458603</v>
+        <v>0.1503697343571943</v>
       </c>
       <c r="Q73">
-        <v>4.19183</v>
+        <v>38.5433</v>
       </c>
       <c r="R73">
-        <v>73.5291</v>
+        <v>68.825</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5097,10 +5112,10 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
@@ -5109,43 +5124,43 @@
         <v>189</v>
       </c>
       <c r="F74">
-        <v>4467.175522335179</v>
+        <v>2192.081291234527</v>
       </c>
       <c r="G74">
-        <v>0.6987738282666667</v>
+        <v>0.6509732973548388</v>
       </c>
       <c r="H74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I74">
-        <v>36873.26924792145</v>
+        <v>5601.877552984208</v>
       </c>
       <c r="J74">
-        <v>116482.6575541838</v>
+        <v>17696.33118987711</v>
       </c>
       <c r="K74">
-        <v>739.4821662455646</v>
+        <v>93.3333406244608</v>
       </c>
       <c r="L74">
-        <v>6.212246135648654</v>
+        <v>0.6441975793718946</v>
       </c>
       <c r="M74">
-        <v>0.7374653849584288</v>
+        <v>0.1120375510596842</v>
       </c>
       <c r="N74">
-        <v>45354.12117494338</v>
+        <v>6890.309390170576</v>
       </c>
       <c r="O74">
-        <v>44.24792309750573</v>
+        <v>6.722253063581048</v>
       </c>
       <c r="P74">
-        <v>0.903018838724607</v>
+        <v>0.1371888380322663</v>
       </c>
       <c r="Q74">
-        <v>50.1008</v>
+        <v>41.2579</v>
       </c>
       <c r="R74">
-        <v>14.26</v>
+        <v>69.2812</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5153,10 +5168,10 @@
         <v>91</v>
       </c>
       <c r="B75">
-        <v>60</v>
+        <v>1455</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -5165,43 +5180,43 @@
         <v>189</v>
       </c>
       <c r="F75">
-        <v>2058.222099325025</v>
+        <v>3709.018587953252</v>
       </c>
       <c r="G75">
-        <v>0.6376565835333333</v>
+        <v>0.6573145903333333</v>
       </c>
       <c r="H75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I75">
-        <v>5543.150945394326</v>
+        <v>10072.19628053841</v>
       </c>
       <c r="J75">
-        <v>17510.81383650068</v>
+        <v>31818.06805022083</v>
       </c>
       <c r="K75">
-        <v>61.20427880164866</v>
+        <v>104.0954472950529</v>
       </c>
       <c r="L75">
-        <v>0.7212933218762775</v>
+        <v>0.8710106813935496</v>
       </c>
       <c r="M75">
-        <v>0.1108630189078866</v>
+        <v>0.2014439256107682</v>
       </c>
       <c r="N75">
-        <v>6818.075662835024</v>
+        <v>12388.80142506224</v>
       </c>
       <c r="O75">
-        <v>6.651781134473193</v>
+        <v>12.08663553664609</v>
       </c>
       <c r="P75">
-        <v>0.1357506353974121</v>
+        <v>0.2466660313601243</v>
       </c>
       <c r="Q75">
-        <v>41.6692</v>
+        <v>55.9728</v>
       </c>
       <c r="R75">
-        <v>44.9547</v>
+        <v>37.4147</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5209,10 +5224,10 @@
         <v>92</v>
       </c>
       <c r="B76">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
         <v>92</v>
@@ -5221,43 +5236,43 @@
         <v>189</v>
       </c>
       <c r="F76">
-        <v>5060.276656340373</v>
+        <v>3285.245755639002</v>
       </c>
       <c r="G76">
-        <v>0.6060793402</v>
+        <v>0.6532621078064516</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="I76">
-        <v>67405.56933532702</v>
+        <v>9274.850172646358</v>
       </c>
       <c r="J76">
-        <v>212934.1935302981</v>
+        <v>29299.25169538984</v>
       </c>
       <c r="K76">
-        <v>1330.9005080398</v>
+        <v>203.3031264332548</v>
       </c>
       <c r="L76">
-        <v>8.902769351641602</v>
+        <v>0.6881965541534236</v>
       </c>
       <c r="M76">
-        <v>1.34811138670654</v>
+        <v>0.1854970034529272</v>
       </c>
       <c r="N76">
-        <v>82908.85028245224</v>
+        <v>11408.06571235502</v>
       </c>
       <c r="O76">
-        <v>80.88668320239243</v>
+        <v>11.12982020717563</v>
       </c>
       <c r="P76">
-        <v>1.650748636783519</v>
+        <v>0.2271391879015435</v>
       </c>
       <c r="Q76">
-        <v>-20.4302</v>
+        <v>7.18076</v>
       </c>
       <c r="R76">
-        <v>57.6836</v>
+        <v>79.8841</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5265,10 +5280,10 @@
         <v>93</v>
       </c>
       <c r="B77">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
         <v>93</v>
@@ -5277,43 +5292,43 @@
         <v>189</v>
       </c>
       <c r="F77">
-        <v>4302.14030831915</v>
+        <v>5410.958478050406</v>
       </c>
       <c r="G77">
-        <v>0.6987738282666667</v>
+        <v>0.6459498048333334</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I77">
-        <v>9996.998919933161</v>
+        <v>42843.69825104288</v>
       </c>
       <c r="J77">
-        <v>31580.51958806886</v>
+        <v>135343.2427750444</v>
       </c>
       <c r="K77">
-        <v>145.8300964093327</v>
+        <v>883.4950156799478</v>
       </c>
       <c r="L77">
-        <v>1.067252853923054</v>
+        <v>5.64572942660425</v>
       </c>
       <c r="M77">
-        <v>0.1999399783986632</v>
+        <v>0.8568739650208574</v>
       </c>
       <c r="N77">
-        <v>12296.30867151779</v>
+        <v>52697.74884878274</v>
       </c>
       <c r="O77">
-        <v>11.99639870391979</v>
+        <v>51.41243790125145</v>
       </c>
       <c r="P77">
-        <v>0.2448244633453019</v>
+        <v>1.049233426556152</v>
       </c>
       <c r="Q77">
-        <v>46.2237</v>
+        <v>11.5466</v>
       </c>
       <c r="R77">
-        <v>14.4576</v>
+        <v>104.844</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5321,10 +5336,10 @@
         <v>94</v>
       </c>
       <c r="B78">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
         <v>94</v>
@@ -5333,43 +5348,43 @@
         <v>189</v>
       </c>
       <c r="F78">
-        <v>4773.283196580763</v>
+        <v>3542.905550034026</v>
       </c>
       <c r="G78">
-        <v>0.6987738282666667</v>
+        <v>0.6413424596666667</v>
       </c>
       <c r="H78" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I78">
-        <v>30290.60310063492</v>
+        <v>10676.17422076</v>
       </c>
       <c r="J78">
-        <v>95688.01519490573</v>
+        <v>33726.03436338082</v>
       </c>
       <c r="K78">
-        <v>425.0693011306404</v>
+        <v>124.1818647312249</v>
       </c>
       <c r="L78">
-        <v>2.759609323344139</v>
+        <v>0.9406180874020853</v>
       </c>
       <c r="M78">
-        <v>0.6058120620126985</v>
+        <v>0.2135234844151999</v>
       </c>
       <c r="N78">
-        <v>37257.44181378096</v>
+        <v>13131.6942915348</v>
       </c>
       <c r="O78">
-        <v>36.3487237207619</v>
+        <v>12.811409064912</v>
       </c>
       <c r="P78">
-        <v>0.7418106881788145</v>
+        <v>0.2614573278553468</v>
       </c>
       <c r="Q78">
-        <v>47.4647</v>
+        <v>23.8433</v>
       </c>
       <c r="R78">
-        <v>8.54917</v>
+        <v>90.3978</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5377,10 +5392,10 @@
         <v>95</v>
       </c>
       <c r="B79">
-        <v>128</v>
+        <v>2338</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
         <v>95</v>
@@ -5389,43 +5404,43 @@
         <v>189</v>
       </c>
       <c r="F79">
-        <v>4184.725593262381</v>
+        <v>2187.213855509325</v>
       </c>
       <c r="G79">
-        <v>0.7149630222580645</v>
+        <v>0.6413424596666667</v>
       </c>
       <c r="H79" t="s">
         <v>196</v>
       </c>
       <c r="I79">
-        <v>9641.955781204655</v>
+        <v>5754.437301291149</v>
       </c>
       <c r="J79">
-        <v>30458.9383128255</v>
+        <v>18178.26743477874</v>
       </c>
       <c r="K79">
-        <v>138.1667698881967</v>
+        <v>66.76599359352741</v>
       </c>
       <c r="L79">
-        <v>0.9570380163904113</v>
+        <v>0.4025217510428651</v>
       </c>
       <c r="M79">
-        <v>0.1928391156240931</v>
+        <v>0.115088746025823</v>
       </c>
       <c r="N79">
-        <v>11859.60561088173</v>
+        <v>7077.957880588115</v>
       </c>
       <c r="O79">
-        <v>11.57034693744558</v>
+        <v>6.905324761549379</v>
       </c>
       <c r="P79">
-        <v>0.2361295293356242</v>
+        <v>0.1409249951336608</v>
       </c>
       <c r="Q79">
-        <v>48.1702</v>
+        <v>28.5665</v>
       </c>
       <c r="R79">
-        <v>17.2127</v>
+        <v>77.1031</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5433,10 +5448,10 @@
         <v>96</v>
       </c>
       <c r="B80">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
         <v>96</v>
@@ -5445,43 +5460,43 @@
         <v>189</v>
       </c>
       <c r="F80">
-        <v>3901.615013086867</v>
+        <v>2995.756300767673</v>
       </c>
       <c r="G80">
-        <v>0.6376565835333333</v>
+        <v>0.6513894447096774</v>
       </c>
       <c r="H80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I80">
-        <v>12060.6967687249</v>
+        <v>8768.752323878813</v>
       </c>
       <c r="J80">
-        <v>38099.74109240196</v>
+        <v>27700.48859113316</v>
       </c>
       <c r="K80">
-        <v>132.9345524880242</v>
+        <v>97.51375588562416</v>
       </c>
       <c r="L80">
-        <v>0.8888644175035223</v>
+        <v>0.8983793297148409</v>
       </c>
       <c r="M80">
-        <v>0.241213935374498</v>
+        <v>0.1753750464775762</v>
       </c>
       <c r="N80">
-        <v>14834.65702553163</v>
+        <v>10785.56535837094</v>
       </c>
       <c r="O80">
-        <v>14.47283612246988</v>
+        <v>10.52250278865457</v>
       </c>
       <c r="P80">
-        <v>0.2953640024993853</v>
+        <v>0.2147449548705014</v>
       </c>
       <c r="Q80">
-        <v>53.8825</v>
+        <v>27.6966</v>
       </c>
       <c r="R80">
-        <v>28.0307</v>
+        <v>85.3591</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5489,10 +5504,10 @@
         <v>97</v>
       </c>
       <c r="B81">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
@@ -5501,43 +5516,43 @@
         <v>189</v>
       </c>
       <c r="F81">
-        <v>3927.00487646895</v>
+        <v>3033.748862710535</v>
       </c>
       <c r="G81">
-        <v>0.6987738282666667</v>
+        <v>0.6555509182580644</v>
       </c>
       <c r="H81" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I81">
-        <v>11673.78845867914</v>
+        <v>4211.146746482475</v>
       </c>
       <c r="J81">
-        <v>36877.49774096741</v>
+        <v>13303.01257213813</v>
       </c>
       <c r="K81">
-        <v>132.4198450972083</v>
+        <v>31.83963797783652</v>
       </c>
       <c r="L81">
-        <v>0.9712734183988198</v>
+        <v>0.6051379746649642</v>
       </c>
       <c r="M81">
-        <v>0.2334757691735829</v>
+        <v>0.08422293492964947</v>
       </c>
       <c r="N81">
-        <v>14358.75980417535</v>
+        <v>5179.710498173443</v>
       </c>
       <c r="O81">
-        <v>14.00854615041497</v>
+        <v>5.053376095778969</v>
       </c>
       <c r="P81">
-        <v>0.2858886969472443</v>
+        <v>0.1031301244036524</v>
       </c>
       <c r="Q81">
-        <v>43.8246</v>
+        <v>4.19183</v>
       </c>
       <c r="R81">
-        <v>18.3315</v>
+        <v>73.5291</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5545,10 +5560,10 @@
         <v>98</v>
       </c>
       <c r="B82">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
         <v>98</v>
@@ -5557,43 +5572,43 @@
         <v>189</v>
       </c>
       <c r="F82">
-        <v>4319.755726612008</v>
+        <v>4909.055102355495</v>
       </c>
       <c r="G82">
-        <v>0.6987738282666667</v>
+        <v>0.6450283358000001</v>
       </c>
       <c r="H82" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I82">
-        <v>12562.64959455429</v>
+        <v>29393.91651427829</v>
       </c>
       <c r="J82">
-        <v>39685.41006919699</v>
+        <v>92855.38226860508</v>
       </c>
       <c r="K82">
-        <v>186.390359743092</v>
+        <v>403.8554988118113</v>
       </c>
       <c r="L82">
-        <v>0.04785045969585611</v>
+        <v>2.474550448393644</v>
       </c>
       <c r="M82">
-        <v>0.2512529918910857</v>
+        <v>0.5878783302855657</v>
       </c>
       <c r="N82">
-        <v>15452.05900130177</v>
+        <v>36154.51731256229</v>
       </c>
       <c r="O82">
-        <v>15.07517951346514</v>
+        <v>35.27269981713394</v>
       </c>
       <c r="P82">
-        <v>0.3076567247645948</v>
+        <v>0.7198510166762029</v>
       </c>
       <c r="Q82">
-        <v>56.9236</v>
+        <v>13.6811</v>
       </c>
       <c r="R82">
-        <v>23.9711</v>
+        <v>100.747</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5601,10 +5616,10 @@
         <v>99</v>
       </c>
       <c r="B83">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s">
         <v>99</v>
@@ -5613,43 +5628,43 @@
         <v>189</v>
       </c>
       <c r="F83">
-        <v>3819.387206090362</v>
+        <v>5152.397818559508</v>
       </c>
       <c r="G83">
-        <v>0.6987738282666667</v>
+        <v>0.6551347709032258</v>
       </c>
       <c r="H83" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I83">
-        <v>10900.73325589083</v>
+        <v>32227.39854482099</v>
       </c>
       <c r="J83">
-        <v>34435.41635535912</v>
+        <v>101806.3520030895</v>
       </c>
       <c r="K83">
-        <v>121.114451173051</v>
+        <v>515.9849793822304</v>
       </c>
       <c r="L83">
-        <v>1.023741734157675</v>
+        <v>1.590773014032049</v>
       </c>
       <c r="M83">
-        <v>0.2180146651178165</v>
+        <v>0.6445479708964197</v>
       </c>
       <c r="N83">
-        <v>13407.90190474572</v>
+        <v>39639.70021012981</v>
       </c>
       <c r="O83">
-        <v>13.08087990706899</v>
+        <v>38.67287825378517</v>
       </c>
       <c r="P83">
-        <v>0.2669567327973263</v>
+        <v>0.7892424133425546</v>
       </c>
       <c r="Q83">
-        <v>44.8184</v>
+        <v>21.2212</v>
       </c>
       <c r="R83">
-        <v>20.3091</v>
+        <v>105.807</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5657,10 +5672,10 @@
         <v>100</v>
       </c>
       <c r="B84">
-        <v>42</v>
+        <v>1229</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
         <v>100</v>
@@ -5669,43 +5684,43 @@
         <v>189</v>
       </c>
       <c r="F84">
-        <v>3734.448998311077</v>
+        <v>6543.695620028412</v>
       </c>
       <c r="G84">
-        <v>0.6987738282666667</v>
+        <v>0.6404209906333334</v>
       </c>
       <c r="H84" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I84">
-        <v>8783.294862785146</v>
+        <v>46100.63036654629</v>
       </c>
       <c r="J84">
-        <v>27746.42847153827</v>
+        <v>145631.8913279197</v>
       </c>
       <c r="K84">
-        <v>131.278370337812</v>
+        <v>834.3548711471248</v>
       </c>
       <c r="L84">
-        <v>0.988350007654772</v>
+        <v>5.987097006739607</v>
       </c>
       <c r="M84">
-        <v>0.1756658972557029</v>
+        <v>0.9220126073309259</v>
       </c>
       <c r="N84">
-        <v>10803.45268122573</v>
+        <v>56703.77535085195</v>
       </c>
       <c r="O84">
-        <v>10.53995383534217</v>
+        <v>55.32075643985556</v>
       </c>
       <c r="P84">
-        <v>0.2151010986804525</v>
+        <v>1.128995029384807</v>
       </c>
       <c r="Q84">
-        <v>41.4147</v>
+        <v>-6.12556</v>
       </c>
       <c r="R84">
-        <v>19.7206</v>
+        <v>106.656</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5713,10 +5728,10 @@
         <v>101</v>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>700</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
         <v>101</v>
@@ -5725,43 +5740,43 @@
         <v>189</v>
       </c>
       <c r="F85">
-        <v>5076.841503918451</v>
+        <v>5549.655176427877</v>
       </c>
       <c r="G85">
-        <v>0.6148377121999999</v>
+        <v>0.6496356809666667</v>
       </c>
       <c r="H85" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I85">
-        <v>31490.56314555978</v>
+        <v>41094.50197870949</v>
       </c>
       <c r="J85">
-        <v>99478.68897682334</v>
+        <v>129817.5317507432</v>
       </c>
       <c r="K85">
-        <v>440.7964351245197</v>
+        <v>808.9415743241526</v>
       </c>
       <c r="L85">
-        <v>3.0421080001607</v>
+        <v>5.21785754120973</v>
       </c>
       <c r="M85">
-        <v>0.6298112629111956</v>
+        <v>0.8218900395741896</v>
       </c>
       <c r="N85">
-        <v>38733.39266903853</v>
+        <v>50546.23743381265</v>
       </c>
       <c r="O85">
-        <v>37.78867577467173</v>
+        <v>49.31340237445138</v>
       </c>
       <c r="P85">
-        <v>0.771197464789219</v>
+        <v>1.006395966825538</v>
       </c>
       <c r="Q85">
-        <v>36.691</v>
+        <v>2.74558</v>
       </c>
       <c r="R85">
-        <v>3.21541</v>
+        <v>101.71</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5769,10 +5784,10 @@
         <v>102</v>
       </c>
       <c r="B86">
-        <v>28</v>
+        <v>360</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
         <v>102</v>
@@ -5781,43 +5796,43 @@
         <v>189</v>
       </c>
       <c r="F86">
-        <v>4790.372978185585</v>
+        <v>5846.919986864199</v>
       </c>
       <c r="G86">
-        <v>0.6987738282666667</v>
+        <v>0.651181371032258</v>
       </c>
       <c r="H86" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="I86">
-        <v>38234.2315498001</v>
+        <v>34142.27659416448</v>
       </c>
       <c r="J86">
-        <v>120781.9374658185</v>
+        <v>107855.4517609656</v>
       </c>
       <c r="K86">
-        <v>769.8449188411339</v>
+        <v>604.8568014917389</v>
       </c>
       <c r="L86">
-        <v>5.736054573095494</v>
+        <v>0.7879027681788563</v>
       </c>
       <c r="M86">
-        <v>0.7646846309960016</v>
+        <v>0.6828455318832893</v>
       </c>
       <c r="N86">
-        <v>47028.10480625412</v>
+        <v>41995.0002108223</v>
       </c>
       <c r="O86">
-        <v>45.88107785976011</v>
+        <v>40.97073191299737</v>
       </c>
       <c r="P86">
-        <v>0.9363485277502064</v>
+        <v>0.836137385979538</v>
       </c>
       <c r="Q86">
-        <v>43.6584</v>
+        <v>1.35019</v>
       </c>
       <c r="R86">
-        <v>7.21587</v>
+        <v>103.994</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5825,7 +5840,7 @@
         <v>103</v>
       </c>
       <c r="B87">
-        <v>27</v>
+        <v>996</v>
       </c>
       <c r="C87" t="s">
         <v>187</v>
@@ -5837,43 +5852,43 @@
         <v>189</v>
       </c>
       <c r="F87">
-        <v>4166.712099726148</v>
+        <v>12038.86144273792</v>
       </c>
       <c r="G87">
-        <v>0.6997836170333334</v>
+        <v>0.6394995216</v>
       </c>
       <c r="H87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I87">
-        <v>9776.092428806747</v>
+        <v>109218.0686346639</v>
       </c>
       <c r="J87">
-        <v>30882.67598260051</v>
+        <v>345019.8788169031</v>
       </c>
       <c r="K87">
-        <v>160.2017891828102</v>
+        <v>2414.184014875149</v>
       </c>
       <c r="L87">
-        <v>0.9923407066750876</v>
+        <v>9.458854007055827</v>
       </c>
       <c r="M87">
-        <v>0.1955218485761349</v>
+        <v>2.184361372693277</v>
       </c>
       <c r="N87">
-        <v>12024.5936874323</v>
+        <v>134338.2244206365</v>
       </c>
       <c r="O87">
-        <v>11.73131091456809</v>
+        <v>131.0616823615966</v>
       </c>
       <c r="P87">
-        <v>0.2394145084605733</v>
+        <v>2.674728211461155</v>
       </c>
       <c r="Q87">
-        <v>45.7429</v>
+        <v>-33.9461</v>
       </c>
       <c r="R87">
-        <v>16.0688</v>
+        <v>151.177</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5881,7 +5896,7 @@
         <v>104</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>3480</v>
       </c>
       <c r="C88" t="s">
         <v>188</v>
@@ -5893,43 +5908,43 @@
         <v>189</v>
       </c>
       <c r="F88">
-        <v>2039.020269248904</v>
+        <v>5856.254969396917</v>
       </c>
       <c r="G88">
-        <v>0.6069551773999999</v>
+        <v>0.6413424596666667</v>
       </c>
       <c r="H88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I88">
-        <v>6400.667851646201</v>
+        <v>52082.2739568423</v>
       </c>
       <c r="J88">
-        <v>20219.70974335034</v>
+        <v>164527.9034296648</v>
       </c>
       <c r="K88">
-        <v>74.45919118876353</v>
+        <v>961.0161587788346</v>
       </c>
       <c r="L88">
-        <v>0.782702814723709</v>
+        <v>6.623663925911121</v>
       </c>
       <c r="M88">
-        <v>0.128013357032924</v>
+        <v>1.041645479136846</v>
       </c>
       <c r="N88">
-        <v>7872.821457524826</v>
+        <v>64061.19696691602</v>
       </c>
       <c r="O88">
-        <v>7.680801421975439</v>
+        <v>62.49872874821075</v>
       </c>
       <c r="P88">
-        <v>0.1567510494280702</v>
+        <v>1.275484260167566</v>
       </c>
       <c r="Q88">
-        <v>15.2919</v>
+        <v>40.0725</v>
       </c>
       <c r="R88">
-        <v>38.9107</v>
+        <v>116.598</v>
       </c>
     </row>
   </sheetData>
